--- a/HoldingPlot936.xlsx
+++ b/HoldingPlot936.xlsx
@@ -14,9 +14,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
-    <t>Date</t>
+    <t>index</t>
   </si>
   <si>
     <t>Profit</t>
@@ -31,16 +31,19 @@
     <t>HoldProfit</t>
   </si>
   <si>
-    <t>ProfitFlag</t>
+    <t>riskfree</t>
+  </si>
+  <si>
+    <t>cost</t>
+  </si>
+  <si>
+    <t>totalAsset</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="YYYY-MM-DD HH:MM:SS"/>
-  </numFmts>
   <fonts count="2">
     <font>
       <sz val="11"/>
@@ -93,12 +96,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -393,13 +395,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G201"/>
+  <dimension ref="A1:I201"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:9">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -418,4605 +420,5811 @@
       <c r="G1" s="1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:7">
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
       <c r="A2" s="1">
         <v>0</v>
       </c>
-      <c r="B2" s="2">
-        <v>41641</v>
+      <c r="B2">
+        <v>737</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>13695.02958264819</v>
+        <v>-26881.72043010753</v>
       </c>
       <c r="E2">
-        <v>5094551.004745125</v>
+        <v>10000000</v>
       </c>
       <c r="F2">
-        <v>-219120.473322371</v>
+        <v>430107.5268817204</v>
       </c>
       <c r="G2">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7">
+        <v>23.56753571954632</v>
+      </c>
+      <c r="H2">
+        <v>133333.3333333333</v>
+      </c>
+      <c r="I2">
+        <v>22232281.63205185</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
       <c r="A3" s="1">
         <v>1</v>
       </c>
-      <c r="B3" s="2">
-        <v>41642</v>
+      <c r="B3">
+        <v>738</v>
       </c>
       <c r="C3">
-        <v>-554247.4341441115</v>
+        <v>430107.5268817204</v>
       </c>
       <c r="D3">
-        <v>6078.507745790449</v>
+        <v>-26881.72043010753</v>
       </c>
       <c r="E3">
-        <v>2238410.477387333</v>
+        <v>10000000</v>
       </c>
       <c r="F3">
-        <v>12157.0154915809</v>
+        <v>-53763.44086021505</v>
       </c>
       <c r="G3">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
+        <v>44.18912947414935</v>
+      </c>
+      <c r="H3">
+        <v>133333.3333333333</v>
+      </c>
+      <c r="I3">
+        <v>22178538.81278539</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
       <c r="A4" s="1">
         <v>2</v>
       </c>
-      <c r="B4" s="2">
-        <v>41645</v>
+      <c r="B4">
+        <v>739</v>
       </c>
       <c r="C4">
-        <v>-542090.4186525305</v>
+        <v>376344.0860215054</v>
       </c>
       <c r="D4">
-        <v>10251.76294805658</v>
+        <v>-26881.72043010753</v>
       </c>
       <c r="E4">
-        <v>3752145.238988707</v>
+        <v>10000000</v>
       </c>
       <c r="F4">
-        <v>-256294.0737014144</v>
+        <v>672043.0107526882</v>
       </c>
       <c r="G4">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7">
+        <v>101.6349977905435</v>
+      </c>
+      <c r="H4">
+        <v>133333.3333333333</v>
+      </c>
+      <c r="I4">
+        <v>22850639.26940639</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
       <c r="A5" s="1">
         <v>3</v>
       </c>
-      <c r="B5" s="2">
-        <v>41646</v>
+      <c r="B5">
+        <v>740</v>
       </c>
       <c r="C5">
-        <v>-1018648.966747102</v>
+        <v>1048387.096774193</v>
       </c>
       <c r="D5">
-        <v>7149.446407307893</v>
+        <v>-26881.72043010753</v>
       </c>
       <c r="E5">
-        <v>2579162.791436322</v>
+        <v>10000000</v>
       </c>
       <c r="F5">
-        <v>-221632.8386265447</v>
+        <v>833333.3333333333</v>
       </c>
       <c r="G5">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7">
+        <v>204.7429665635587</v>
+      </c>
+      <c r="H5">
+        <v>133333.3333333333</v>
+      </c>
+      <c r="I5">
+        <v>23684075.7107085</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
       <c r="A6" s="1">
         <v>4</v>
       </c>
-      <c r="B6" s="2">
-        <v>41647</v>
+      <c r="B6">
+        <v>741</v>
       </c>
       <c r="C6">
-        <v>-1240281.805373646</v>
+        <v>1881720.430107527</v>
       </c>
       <c r="D6">
-        <v>8361.071593764254</v>
+        <v>-26881.72043010753</v>
       </c>
       <c r="E6">
-        <v>2978631.755278516</v>
+        <v>10000000</v>
       </c>
       <c r="F6">
-        <v>-83610.71593764254</v>
+        <v>268817.2043010753</v>
       </c>
       <c r="G6">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7">
+        <v>322.5806451612903</v>
+      </c>
+      <c r="H6">
+        <v>133333.3333333333</v>
+      </c>
+      <c r="I6">
+        <v>23953010.75268817</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
       <c r="A7" s="1">
         <v>5</v>
       </c>
-      <c r="B7" s="2">
-        <v>41648</v>
+      <c r="B7">
+        <v>742</v>
       </c>
       <c r="C7">
-        <v>-1323892.521311289</v>
+        <v>2150537.634408602</v>
       </c>
       <c r="D7">
-        <v>9013.189373957905</v>
+        <v>-26881.72043010753</v>
       </c>
       <c r="E7">
-        <v>3198780.908817661</v>
+        <v>10000000</v>
       </c>
       <c r="F7">
-        <v>-126184.6512354107</v>
+        <v>376344.0860215054</v>
       </c>
       <c r="G7">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7">
+        <v>461.039917513625</v>
+      </c>
+      <c r="H7">
+        <v>133333.3333333333</v>
+      </c>
+      <c r="I7">
+        <v>24329493.29798203</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
       <c r="A8" s="1">
         <v>6</v>
       </c>
-      <c r="B8" s="2">
-        <v>41649</v>
+      <c r="B8">
+        <v>743</v>
       </c>
       <c r="C8">
-        <v>-1497560.77841233</v>
+        <v>2526881.720430107</v>
       </c>
       <c r="D8">
-        <v>7934.016513375387</v>
+        <v>-26881.72043010753</v>
       </c>
       <c r="E8">
-        <v>2811022.0506889</v>
+        <v>10000000</v>
       </c>
       <c r="F8">
-        <v>-238020.4954012616</v>
+        <v>806451.6129032257</v>
       </c>
       <c r="G8">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7">
+        <v>643.6883193401089</v>
+      </c>
+      <c r="H8">
+        <v>133333.3333333333</v>
+      </c>
+      <c r="I8">
+        <v>25136127.55928708</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
       <c r="A9" s="1">
         <v>7</v>
       </c>
-      <c r="B9" s="2">
-        <v>41652</v>
+      <c r="B9">
+        <v>744</v>
       </c>
       <c r="C9">
-        <v>-1739461.724970618</v>
+        <v>3333333.333333333</v>
       </c>
       <c r="D9">
-        <v>7765.301245678587</v>
+        <v>-26881.72043010753</v>
       </c>
       <c r="E9">
-        <v>2724455.942046332</v>
+        <v>10000000</v>
       </c>
       <c r="F9">
-        <v>-93183.61494814305</v>
+        <v>322580.6451612903</v>
       </c>
       <c r="G9">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7">
+        <v>844.0123729562526</v>
+      </c>
+      <c r="H9">
+        <v>133333.3333333333</v>
+      </c>
+      <c r="I9">
+        <v>25458908.52850199</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
       <c r="A10" s="1">
         <v>8</v>
       </c>
-      <c r="B10" s="2">
-        <v>41654</v>
+      <c r="B10">
+        <v>745</v>
       </c>
       <c r="C10">
-        <v>-1823008.502593562</v>
+        <v>3655913.978494623</v>
       </c>
       <c r="D10">
-        <v>4553.022137278923</v>
+        <v>-26881.72043010753</v>
       </c>
       <c r="E10">
-        <v>1596744.863543718</v>
+        <v>10000000</v>
       </c>
       <c r="F10">
-        <v>141143.6862556466</v>
+        <v>-833333.3333333333</v>
       </c>
       <c r="G10">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7">
+        <v>998.6743261157753</v>
+      </c>
+      <c r="H10">
+        <v>133333.3333333333</v>
+      </c>
+      <c r="I10">
+        <v>24625729.85712181</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
       <c r="A11" s="1">
         <v>9</v>
       </c>
-      <c r="B11" s="2">
-        <v>41655</v>
+      <c r="B11">
+        <v>746</v>
       </c>
       <c r="C11">
-        <v>-1681864.816337916</v>
+        <v>2822580.64516129</v>
       </c>
       <c r="D11">
-        <v>5519.635967200978</v>
+        <v>-26881.72043010753</v>
       </c>
       <c r="E11">
-        <v>1946499.623833425</v>
+        <v>10000000</v>
       </c>
       <c r="F11">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="G11">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7">
+        <v>1153.336279275298</v>
+      </c>
+      <c r="H11">
+        <v>133333.3333333333</v>
+      </c>
+      <c r="I11">
+        <v>24625884.51907497</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9">
       <c r="A12" s="1">
         <v>10</v>
       </c>
-      <c r="B12" s="2">
-        <v>41659</v>
+      <c r="B12">
+        <v>747</v>
       </c>
       <c r="C12">
-        <v>-1676390.631656557</v>
+        <v>2822580.64516129</v>
       </c>
       <c r="D12">
-        <v>4911.39322482779</v>
+        <v>-26881.72043010753</v>
       </c>
       <c r="E12">
-        <v>1756314.217198418</v>
+        <v>10000000</v>
       </c>
       <c r="F12">
-        <v>58936.71869793348</v>
+        <v>-322580.6451612903</v>
       </c>
       <c r="G12">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7">
+        <v>1290.322580645161</v>
+      </c>
+      <c r="H12">
+        <v>133333.3333333333</v>
+      </c>
+      <c r="I12">
+        <v>24303440.86021505</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9">
       <c r="A13" s="1">
         <v>11</v>
       </c>
-      <c r="B13" s="2">
-        <v>41660</v>
+      <c r="B13">
+        <v>748</v>
       </c>
       <c r="C13">
-        <v>-1619309.404977871</v>
+        <v>2500000</v>
       </c>
       <c r="D13">
-        <v>4646.322936363893</v>
+        <v>-26881.72043010753</v>
       </c>
       <c r="E13">
-        <v>1662222.030484183</v>
+        <v>10000000</v>
       </c>
       <c r="F13">
-        <v>27877.93761818336</v>
+        <v>-161290.3225806452</v>
       </c>
       <c r="G13">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7">
+        <v>1418.471056120194</v>
+      </c>
+      <c r="H13">
+        <v>133333.3333333333</v>
+      </c>
+      <c r="I13">
+        <v>24142278.68610988</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9">
       <c r="A14" s="1">
         <v>12</v>
       </c>
-      <c r="B14" s="2">
-        <v>41661</v>
+      <c r="B14">
+        <v>749</v>
       </c>
       <c r="C14">
-        <v>-1590792.437564613</v>
+        <v>2338709.677419354</v>
       </c>
       <c r="D14">
-        <v>4486.565487595335</v>
+        <v>-26881.72043010753</v>
       </c>
       <c r="E14">
-        <v>1609779.696949206</v>
+        <v>10000000</v>
       </c>
       <c r="F14">
-        <v>-67298.48231393003</v>
+        <v>403225.8064516129</v>
       </c>
       <c r="G14">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7">
+        <v>1568.714096332302</v>
+      </c>
+      <c r="H14">
+        <v>133333.3333333333</v>
+      </c>
+      <c r="I14">
+        <v>24545654.73560171</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9">
       <c r="A15" s="1">
         <v>13</v>
       </c>
-      <c r="B15" s="2">
-        <v>41662</v>
+      <c r="B15">
+        <v>750</v>
       </c>
       <c r="C15">
-        <v>-1658090.919878543</v>
+        <v>2741935.483870967</v>
       </c>
       <c r="D15">
-        <v>4580.757183576028</v>
+        <v>-26881.72043010753</v>
       </c>
       <c r="E15">
-        <v>1647011.245354761</v>
+        <v>10000000</v>
       </c>
       <c r="F15">
-        <v>114518.9295894007</v>
+        <v>-672043.0107526882</v>
       </c>
       <c r="G15">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7">
+        <v>1682.132861982619</v>
+      </c>
+      <c r="H15">
+        <v>133333.3333333333</v>
+      </c>
+      <c r="I15">
+        <v>23873725.14361467</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9">
       <c r="A16" s="1">
         <v>14</v>
       </c>
-      <c r="B16" s="2">
-        <v>41663</v>
+      <c r="B16">
+        <v>751</v>
       </c>
       <c r="C16">
-        <v>-1543571.990289142</v>
+        <v>2069892.473118279</v>
       </c>
       <c r="D16">
-        <v>5124.300999201439</v>
+        <v>-26881.72043010753</v>
       </c>
       <c r="E16">
-        <v>1839367.843663356</v>
+        <v>10000000</v>
       </c>
       <c r="F16">
-        <v>-5124.300999201439</v>
+        <v>26881.72043010753</v>
       </c>
       <c r="G16">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7">
+        <v>1797.024598615407</v>
+      </c>
+      <c r="H16">
+        <v>133333.3333333333</v>
+      </c>
+      <c r="I16">
+        <v>23900721.75578141</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9">
       <c r="A17" s="1">
         <v>15</v>
       </c>
-      <c r="B17" s="2">
-        <v>41666</v>
+      <c r="B17">
+        <v>752</v>
       </c>
       <c r="C17">
-        <v>-1649436.261480718</v>
+        <v>2096774.193548387</v>
       </c>
       <c r="D17">
-        <v>3149.007466017629</v>
+        <v>-26881.72043010753</v>
       </c>
       <c r="E17">
-        <v>1121361.558648878</v>
+        <v>10000000</v>
       </c>
       <c r="F17">
-        <v>-66129.15678637021</v>
+        <v>564516.1290322581</v>
       </c>
       <c r="G17">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7">
+        <v>1942.8487258801</v>
+      </c>
+      <c r="H17">
+        <v>133333.3333333333</v>
+      </c>
+      <c r="I17">
+        <v>24465383.70894093</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9">
       <c r="A18" s="1">
         <v>16</v>
       </c>
-      <c r="B18" s="2">
-        <v>41667</v>
+      <c r="B18">
+        <v>753</v>
       </c>
       <c r="C18">
-        <v>-1715565.418267088</v>
+        <v>2661290.322580645</v>
       </c>
       <c r="D18">
-        <v>4379.846551383753</v>
+        <v>-26881.72043010753</v>
       </c>
       <c r="E18">
-        <v>1534698.231604867</v>
+        <v>10000000</v>
       </c>
       <c r="F18">
-        <v>-61317.85171937254</v>
+        <v>376344.0860215054</v>
       </c>
       <c r="G18">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7">
+        <v>2109.294446899396</v>
+      </c>
+      <c r="H18">
+        <v>133333.3333333333</v>
+      </c>
+      <c r="I18">
+        <v>24841894.24068346</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9">
       <c r="A19" s="1">
         <v>17</v>
       </c>
-      <c r="B19" s="2">
-        <v>41668</v>
+      <c r="B19">
+        <v>754</v>
       </c>
       <c r="C19">
-        <v>-1778179.389956757</v>
+        <v>3037634.40860215</v>
       </c>
       <c r="D19">
-        <v>4307.839886367266</v>
+        <v>-26881.72043010753</v>
       </c>
       <c r="E19">
-        <v>1518513.559944461</v>
+        <v>10000000</v>
       </c>
       <c r="F19">
-        <v>94772.47750007987</v>
+        <v>-591397.8494623655</v>
       </c>
       <c r="G19">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7">
+        <v>2243.334806304315</v>
+      </c>
+      <c r="H19">
+        <v>133333.3333333333</v>
+      </c>
+      <c r="I19">
+        <v>24250630.4315805</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9">
       <c r="A20" s="1">
         <v>18</v>
       </c>
-      <c r="B20" s="2">
-        <v>41669</v>
+      <c r="B20">
+        <v>755</v>
       </c>
       <c r="C20">
-        <v>-1683406.912456677</v>
+        <v>2446236.559139784</v>
       </c>
       <c r="D20">
-        <v>7329.519568240024</v>
+        <v>-26881.72043010753</v>
       </c>
       <c r="E20">
-        <v>2589152.787480788</v>
+        <v>10000000</v>
       </c>
       <c r="F20">
-        <v>190567.5087742406</v>
+        <v>-698924.7311827957</v>
       </c>
       <c r="G20">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7">
+        <v>2339.077920164973</v>
+      </c>
+      <c r="H20">
+        <v>133333.3333333333</v>
+      </c>
+      <c r="I20">
+        <v>23551801.44351156</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9">
       <c r="A21" s="1">
         <v>19</v>
       </c>
-      <c r="B21" s="2">
-        <v>41674</v>
+      <c r="B21">
+        <v>756</v>
       </c>
       <c r="C21">
-        <v>-1521034.276597959</v>
+        <v>1747311.827956989</v>
       </c>
       <c r="D21">
-        <v>6606.574108867664</v>
+        <v>-26881.72043010753</v>
       </c>
       <c r="E21">
-        <v>2333772.303957502</v>
+        <v>10000000</v>
       </c>
       <c r="F21">
-        <v>-211410.3714837653</v>
+        <v>860215.0537634408</v>
       </c>
       <c r="G21">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7">
+        <v>2481.956105464722</v>
+      </c>
+      <c r="H21">
+        <v>133333.3333333333</v>
+      </c>
+      <c r="I21">
+        <v>24412159.3754603</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9">
       <c r="A22" s="1">
         <v>20</v>
       </c>
-      <c r="B22" s="2">
-        <v>41675</v>
+      <c r="B22">
+        <v>757</v>
       </c>
       <c r="C22">
-        <v>-1732444.648081724</v>
+        <v>2607526.881720429</v>
       </c>
       <c r="D22">
-        <v>6903.82970418376</v>
+        <v>-26881.72043010753</v>
       </c>
       <c r="E22">
-        <v>2427386.52399101</v>
+        <v>10000000</v>
       </c>
       <c r="F22">
-        <v>75942.12674602137</v>
+        <v>-295698.9247311827</v>
       </c>
       <c r="G22">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7">
+        <v>2608.631609957283</v>
+      </c>
+      <c r="H22">
+        <v>133333.3333333333</v>
+      </c>
+      <c r="I22">
+        <v>24116587.12623361</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9">
       <c r="A23" s="1">
         <v>21</v>
       </c>
-      <c r="B23" s="2">
-        <v>41676</v>
+      <c r="B23">
+        <v>758</v>
       </c>
       <c r="C23">
-        <v>-1654815.286577457</v>
+        <v>2311827.956989246</v>
       </c>
       <c r="D23">
-        <v>5216.594945937845</v>
+        <v>-26881.72043010753</v>
       </c>
       <c r="E23">
-        <v>1851369.546313341</v>
+        <v>10000000</v>
       </c>
       <c r="F23">
-        <v>52165.94945937845</v>
+        <v>-268817.2043010753</v>
       </c>
       <c r="G23">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7">
+        <v>2720.577404625128</v>
+      </c>
+      <c r="H23">
+        <v>133333.3333333333</v>
+      </c>
+      <c r="I23">
+        <v>23847881.86772721</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9">
       <c r="A24" s="1">
         <v>22</v>
       </c>
-      <c r="B24" s="2">
-        <v>41677</v>
+      <c r="B24">
+        <v>759</v>
       </c>
       <c r="C24">
-        <v>-1602649.337118078</v>
+        <v>2043010.752688171</v>
       </c>
       <c r="D24">
-        <v>7805.787803200913</v>
+        <v>-26881.72043010753</v>
       </c>
       <c r="E24">
-        <v>2785495.377572246</v>
+        <v>10000000</v>
       </c>
       <c r="F24">
-        <v>15611.57560640183</v>
+        <v>-53763.44086021505</v>
       </c>
       <c r="G24">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7">
+        <v>2829.57725732803</v>
+      </c>
+      <c r="H24">
+        <v>133333.3333333333</v>
+      </c>
+      <c r="I24">
+        <v>23794227.42671969</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9">
       <c r="A25" s="1">
         <v>23</v>
       </c>
-      <c r="B25" s="2">
-        <v>41680</v>
+      <c r="B25">
+        <v>760</v>
       </c>
       <c r="C25">
-        <v>-1588290.050236753</v>
+        <v>1989247.311827956</v>
       </c>
       <c r="D25">
-        <v>6553.499078124675</v>
+        <v>-26881.72043010753</v>
       </c>
       <c r="E25">
-        <v>2365157.817295195</v>
+        <v>10000000</v>
       </c>
       <c r="F25">
-        <v>157283.9778749922</v>
+        <v>-645161.2903225806</v>
       </c>
       <c r="G25">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7">
+        <v>2903.225806451612</v>
+      </c>
+      <c r="H25">
+        <v>133333.3333333333</v>
+      </c>
+      <c r="I25">
+        <v>23149139.78494623</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9">
       <c r="A26" s="1">
         <v>24</v>
       </c>
-      <c r="B26" s="2">
-        <v>41681</v>
+      <c r="B26">
+        <v>761</v>
       </c>
       <c r="C26">
-        <v>-1424068.483774138</v>
+        <v>1344086.021505375</v>
       </c>
       <c r="D26">
-        <v>5397.234313520892</v>
+        <v>-26881.72043010753</v>
       </c>
       <c r="E26">
-        <v>1951909.789484831</v>
+        <v>10000000</v>
       </c>
       <c r="F26">
-        <v>-26986.17156760446</v>
+        <v>134408.6021505376</v>
       </c>
       <c r="G26">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7">
+        <v>2984.239210487552</v>
+      </c>
+      <c r="H26">
+        <v>133333.3333333333</v>
+      </c>
+      <c r="I26">
+        <v>23283629.40050081</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9">
       <c r="A27" s="1">
         <v>25</v>
       </c>
-      <c r="B27" s="2">
-        <v>41682</v>
+      <c r="B27">
+        <v>762</v>
       </c>
       <c r="C27">
-        <v>-1438830.683879491</v>
+        <v>1478494.623655913</v>
       </c>
       <c r="D27">
-        <v>4456.928816424625</v>
+        <v>-26881.72043010753</v>
       </c>
       <c r="E27">
-        <v>1620539.317651994</v>
+        <v>10000000</v>
       </c>
       <c r="F27">
-        <v>93595.50514491713</v>
+        <v>-564516.1290322581</v>
       </c>
       <c r="G27">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7">
+        <v>3034.320223891588</v>
+      </c>
+      <c r="H27">
+        <v>133333.3333333333</v>
+      </c>
+      <c r="I27">
+        <v>22719163.35248195</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9">
       <c r="A28" s="1">
         <v>26</v>
       </c>
-      <c r="B28" s="2">
-        <v>41683</v>
+      <c r="B28">
+        <v>763</v>
       </c>
       <c r="C28">
-        <v>-1345235.178734574</v>
+        <v>913978.4946236549</v>
       </c>
       <c r="D28">
-        <v>4860.773439293594</v>
+        <v>-26881.72043010753</v>
       </c>
       <c r="E28">
-        <v>1788521.586988078</v>
+        <v>10000000</v>
       </c>
       <c r="F28">
-        <v>102076.2422251655</v>
+        <v>-564516.1290322581</v>
       </c>
       <c r="G28">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7">
+        <v>3053.468846663719</v>
+      </c>
+      <c r="H28">
+        <v>133333.3333333333</v>
+      </c>
+      <c r="I28">
+        <v>22154666.37207247</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9">
       <c r="A29" s="1">
         <v>27</v>
       </c>
-      <c r="B29" s="2">
-        <v>41684</v>
+      <c r="B29">
+        <v>764</v>
       </c>
       <c r="C29">
-        <v>-1243158.936509408</v>
+        <v>349462.3655913968</v>
       </c>
       <c r="D29">
-        <v>5423.499060804465</v>
+        <v>-26881.72043010753</v>
       </c>
       <c r="E29">
-        <v>2015101.076041899</v>
+        <v>10000000</v>
       </c>
       <c r="F29">
-        <v>-10846.99812160893</v>
+        <v>53763.44086021505</v>
       </c>
       <c r="G29">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7">
+        <v>3075.563411400793</v>
+      </c>
+      <c r="H29">
+        <v>133333.3333333333</v>
+      </c>
+      <c r="I29">
+        <v>22208451.90749742</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9">
       <c r="A30" s="1">
         <v>28</v>
       </c>
-      <c r="B30" s="2">
-        <v>41687</v>
+      <c r="B30">
+        <v>765</v>
       </c>
       <c r="C30">
-        <v>-1254005.934631017</v>
+        <v>403225.8064516119</v>
       </c>
       <c r="D30">
-        <v>5997.830433823187</v>
+        <v>-26881.72043010753</v>
       </c>
       <c r="E30">
-        <v>2229393.572252078</v>
+        <v>10000000</v>
       </c>
       <c r="F30">
-        <v>113958.7782426406</v>
+        <v>-510752.688172043</v>
       </c>
       <c r="G30">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7">
+        <v>3069.671527470907</v>
+      </c>
+      <c r="H30">
+        <v>133333.3333333333</v>
+      </c>
+      <c r="I30">
+        <v>21697693.32744145</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9">
       <c r="A31" s="1">
         <v>29</v>
       </c>
-      <c r="B31" s="2">
-        <v>41688</v>
+      <c r="B31">
+        <v>766</v>
       </c>
       <c r="C31">
-        <v>-1140047.156388377</v>
+        <v>-107526.8817204311</v>
       </c>
       <c r="D31">
-        <v>7238.424317614454</v>
+        <v>-26881.72043010753</v>
       </c>
       <c r="E31">
-        <v>2726352.519229484</v>
+        <v>10000000</v>
       </c>
       <c r="F31">
-        <v>152006.9106699035</v>
+        <v>-564516.1290322581</v>
       </c>
       <c r="G31">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7">
+        <v>3032.847252909115</v>
+      </c>
+      <c r="H31">
+        <v>133333.3333333333</v>
+      </c>
+      <c r="I31">
+        <v>21133140.37413463</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9">
       <c r="A32" s="1">
         <v>30</v>
       </c>
-      <c r="B32" s="2">
-        <v>41689</v>
+      <c r="B32">
+        <v>767</v>
       </c>
       <c r="C32">
-        <v>-988040.2457184731</v>
+        <v>-672043.0107526891</v>
       </c>
       <c r="D32">
-        <v>8879.976301301404</v>
+        <v>-26881.72043010753</v>
       </c>
       <c r="E32">
-        <v>3367287.013453492</v>
+        <v>10000000</v>
       </c>
       <c r="F32">
-        <v>-213119.4312312337</v>
+        <v>645161.2903225806</v>
       </c>
       <c r="G32">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7">
+        <v>3031.374281926644</v>
+      </c>
+      <c r="H32">
+        <v>133333.3333333333</v>
+      </c>
+      <c r="I32">
+        <v>21778300.19148622</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9">
       <c r="A33" s="1">
         <v>31</v>
       </c>
-      <c r="B33" s="2">
-        <v>41690</v>
+      <c r="B33">
+        <v>768</v>
       </c>
       <c r="C33">
-        <v>-1216737.353993596</v>
+        <v>-26881.72043010849</v>
       </c>
       <c r="D33">
-        <v>8421.809329422322</v>
+        <v>-26881.72043010753</v>
       </c>
       <c r="E33">
-        <v>3221342.068504038</v>
+        <v>10000000</v>
       </c>
       <c r="F33">
-        <v>395825.0384828491</v>
+        <v>-1263440.860215054</v>
       </c>
       <c r="G33">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7">
+        <v>2960.671674768005</v>
+      </c>
+      <c r="H33">
+        <v>133333.3333333333</v>
+      </c>
+      <c r="I33">
+        <v>20514788.62866401</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9">
       <c r="A34" s="1">
         <v>32</v>
       </c>
-      <c r="B34" s="2">
-        <v>41691</v>
+      <c r="B34">
+        <v>769</v>
       </c>
       <c r="C34">
-        <v>-820912.3155107464</v>
+        <v>-1290322.580645162</v>
       </c>
       <c r="D34">
-        <v>9992.191880451619</v>
+        <v>-26881.72043010753</v>
       </c>
       <c r="E34">
-        <v>3825011.051836879</v>
+        <v>10000000</v>
       </c>
       <c r="F34">
-        <v>89929.72692406457</v>
+        <v>-241935.4838709677</v>
       </c>
       <c r="G34">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7">
+        <v>2876.712328767121</v>
+      </c>
+      <c r="H34">
+        <v>133333.3333333333</v>
+      </c>
+      <c r="I34">
+        <v>20272769.18544704</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9">
       <c r="A35" s="1">
         <v>33</v>
       </c>
-      <c r="B35" s="2">
-        <v>41694</v>
+      <c r="B35">
+        <v>770</v>
       </c>
       <c r="C35">
-        <v>-755871.0112849933</v>
+        <v>-1532258.06451613</v>
       </c>
       <c r="D35">
-        <v>8807.02889481774</v>
+        <v>-26881.72043010753</v>
       </c>
       <c r="E35">
-        <v>3396430.693286461</v>
+        <v>10000000</v>
       </c>
       <c r="F35">
-        <v>-140912.4623170838</v>
+        <v>430107.5268817204</v>
       </c>
       <c r="G35">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="36" spans="1:7">
+        <v>2816.320518485783</v>
+      </c>
+      <c r="H35">
+        <v>133333.3333333333</v>
+      </c>
+      <c r="I35">
+        <v>20702816.32051849</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9">
       <c r="A36" s="1">
         <v>34</v>
       </c>
-      <c r="B36" s="2">
-        <v>41695</v>
+      <c r="B36">
+        <v>771</v>
       </c>
       <c r="C36">
-        <v>-896783.4736020771</v>
+        <v>-1102150.537634409</v>
       </c>
       <c r="D36">
-        <v>9211.996293692653</v>
+        <v>-26881.72043010753</v>
       </c>
       <c r="E36">
-        <v>3522206.782893386</v>
+        <v>10000000</v>
       </c>
       <c r="F36">
-        <v>55271.97776215592</v>
+        <v>-161290.3225806452</v>
       </c>
       <c r="G36">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="37" spans="1:7">
+        <v>2747.090882309616</v>
+      </c>
+      <c r="H36">
+        <v>133333.3333333333</v>
+      </c>
+      <c r="I36">
+        <v>20541456.76830166</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9">
       <c r="A37" s="1">
         <v>35</v>
       </c>
-      <c r="B37" s="2">
-        <v>41696</v>
+      <c r="B37">
+        <v>772</v>
       </c>
       <c r="C37">
-        <v>-865707.4003984041</v>
+        <v>-1263440.860215055</v>
       </c>
       <c r="D37">
-        <v>8500.352041972566</v>
+        <v>-26881.72043010753</v>
       </c>
       <c r="E37">
-        <v>3330437.930044851</v>
+        <v>10000000</v>
       </c>
       <c r="F37">
-        <v>705529.219483723</v>
+        <v>-2231182.795698924</v>
       </c>
       <c r="G37">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="38" spans="1:7">
+        <v>2555.604654588302</v>
+      </c>
+      <c r="H37">
+        <v>133333.3333333333</v>
+      </c>
+      <c r="I37">
+        <v>18310082.48637502</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9">
       <c r="A38" s="1">
         <v>36</v>
       </c>
-      <c r="B38" s="2">
-        <v>41697</v>
+      <c r="B38">
+        <v>773</v>
       </c>
       <c r="C38">
-        <v>-144065.0296842403</v>
+        <v>-3494623.655913979</v>
       </c>
       <c r="D38">
-        <v>8171.512220943164</v>
+        <v>-26881.72043010753</v>
       </c>
       <c r="E38">
-        <v>3188115.493000975</v>
+        <v>10000000</v>
       </c>
       <c r="F38">
-        <v>-212459.3177445223</v>
+        <v>698924.7311827957</v>
       </c>
       <c r="G38">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="39" spans="1:7">
+        <v>2402.415672411251</v>
+      </c>
+      <c r="H38">
+        <v>133333.3333333333</v>
+      </c>
+      <c r="I38">
+        <v>19008854.02857564</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9">
       <c r="A39" s="1">
         <v>37</v>
       </c>
-      <c r="B39" s="2">
-        <v>41698</v>
+      <c r="B39">
+        <v>774</v>
       </c>
       <c r="C39">
-        <v>-369227.3763029046</v>
+        <v>-2795698.924731183</v>
       </c>
       <c r="D39">
-        <v>7264.153015647306</v>
+        <v>-26881.72043010753</v>
       </c>
       <c r="E39">
-        <v>2833019.67610245</v>
+        <v>10000000</v>
       </c>
       <c r="F39">
-        <v>276037.8145945976</v>
+        <v>-1021505.376344086</v>
       </c>
       <c r="G39">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="40" spans="1:7">
+        <v>2193.253792900278</v>
+      </c>
+      <c r="H39">
+        <v>133333.3333333333</v>
+      </c>
+      <c r="I39">
+        <v>17987139.49035204</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9">
       <c r="A40" s="1">
         <v>38</v>
       </c>
-      <c r="B40" s="2">
-        <v>41701</v>
+      <c r="B40">
+        <v>775</v>
       </c>
       <c r="C40">
-        <v>-80505.15766071902</v>
+        <v>-3817204.301075269</v>
       </c>
       <c r="D40">
-        <v>6994.272078464584</v>
+        <v>-26881.72043010753</v>
       </c>
       <c r="E40">
-        <v>2784419.714436751</v>
+        <v>10000000</v>
       </c>
       <c r="F40">
-        <v>-153873.9857262209</v>
+        <v>591397.8494623655</v>
       </c>
       <c r="G40">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="41" spans="1:7">
+        <v>2016.49727500368</v>
+      </c>
+      <c r="H40">
+        <v>133333.3333333333</v>
+      </c>
+      <c r="I40">
+        <v>18578360.58329651</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9">
       <c r="A41" s="1">
         <v>39</v>
       </c>
-      <c r="B41" s="2">
-        <v>41702</v>
+      <c r="B41">
+        <v>776</v>
       </c>
       <c r="C41">
-        <v>-234379.1433869399</v>
+        <v>-5967741.935483871</v>
       </c>
       <c r="D41">
-        <v>7368.353469997614</v>
+        <v>3610.965851535762</v>
       </c>
       <c r="E41">
-        <v>2899078.672770561</v>
+        <v>1420734.514286746</v>
       </c>
       <c r="F41">
-        <v>-73683.53469997614</v>
+        <v>-36109.65851535762</v>
       </c>
       <c r="G41">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="42" spans="1:7">
+        <v>2157.615844412668</v>
+      </c>
+      <c r="H41">
+        <v>253503.5099770779</v>
+      </c>
+      <c r="I41">
+        <v>1773215.15692958</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9">
       <c r="A42" s="1">
         <v>40</v>
       </c>
-      <c r="B42" s="2">
-        <v>41703</v>
+      <c r="B42">
+        <v>777</v>
       </c>
       <c r="C42">
-        <v>-308062.678086916</v>
+        <v>-6003851.593999228</v>
       </c>
       <c r="D42">
-        <v>7557.707386711916</v>
+        <v>3610.965851535762</v>
       </c>
       <c r="E42">
-        <v>3017792.559514068</v>
+        <v>1420734.514286746</v>
       </c>
       <c r="F42">
-        <v>-30230.82954684766</v>
+        <v>-14443.86340614305</v>
       </c>
       <c r="G42">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="43" spans="1:7">
+        <v>2297.942969251456</v>
+      </c>
+      <c r="H42">
+        <v>253503.5099770779</v>
+      </c>
+      <c r="I42">
+        <v>1758911.620648276</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9">
       <c r="A43" s="1">
         <v>41</v>
       </c>
-      <c r="B43" s="2">
-        <v>41704</v>
+      <c r="B43">
+        <v>778</v>
       </c>
       <c r="C43">
-        <v>-347375.2588692603</v>
+        <v>-6018295.457405372</v>
       </c>
       <c r="D43">
-        <v>7406.344866120307</v>
+        <v>3610.965851535762</v>
       </c>
       <c r="E43">
-        <v>2958464.456771757</v>
+        <v>1420734.514286746</v>
       </c>
       <c r="F43">
-        <v>311066.4843770529</v>
+        <v>151660.565764502</v>
       </c>
       <c r="G43">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="44" spans="1:7">
+        <v>2446.580262077341</v>
+      </c>
+      <c r="H43">
+        <v>253503.5099770779</v>
+      </c>
+      <c r="I43">
+        <v>1910720.823705604</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9">
       <c r="A44" s="1">
         <v>42</v>
       </c>
-      <c r="B44" s="2">
-        <v>41705</v>
+      <c r="B44">
+        <v>779</v>
       </c>
       <c r="C44">
-        <v>-36308.77449220733</v>
+        <v>-5866634.89164087</v>
       </c>
       <c r="D44">
-        <v>9280.231321107771</v>
+        <v>3610.965851535762</v>
       </c>
       <c r="E44">
-        <v>3744573.338066985</v>
+        <v>1420734.514286746</v>
       </c>
       <c r="F44">
-        <v>27840.69396332331</v>
+        <v>10832.89755460729</v>
       </c>
       <c r="G44">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="45" spans="1:7">
+        <v>2595.811138330875</v>
+      </c>
+      <c r="H44">
+        <v>253503.5099770779</v>
+      </c>
+      <c r="I44">
+        <v>1921702.952136464</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9">
       <c r="A45" s="1">
         <v>43</v>
       </c>
-      <c r="B45" s="2">
-        <v>41708</v>
+      <c r="B45">
+        <v>780</v>
       </c>
       <c r="C45">
-        <v>-44656.04543780689</v>
+        <v>-5855801.994086263</v>
       </c>
       <c r="D45">
-        <v>8246.289466567117</v>
+        <v>3610.965851535762</v>
       </c>
       <c r="E45">
-        <v>3344695.007639623</v>
+        <v>1420734.514286746</v>
       </c>
       <c r="F45">
-        <v>230896.1050638793</v>
+        <v>101107.0438430013</v>
       </c>
       <c r="G45">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="46" spans="1:7">
+        <v>2750.582126575806</v>
+      </c>
+      <c r="H45">
+        <v>253503.5099770779</v>
+      </c>
+      <c r="I45">
+        <v>2022964.76696771</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9">
       <c r="A46" s="1">
         <v>44</v>
       </c>
-      <c r="B46" s="2">
-        <v>41709</v>
+      <c r="B46">
+        <v>781</v>
       </c>
       <c r="C46">
-        <v>186240.0596260724</v>
+        <v>-5754694.950243262</v>
       </c>
       <c r="D46">
-        <v>8544.268944154661</v>
+        <v>3610.965851535762</v>
       </c>
       <c r="E46">
-        <v>3473245.32579887</v>
+        <v>1420734.514286746</v>
       </c>
       <c r="F46">
-        <v>-136708.3031064746</v>
+        <v>-57775.45362457219</v>
       </c>
       <c r="G46">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="47" spans="1:7">
+        <v>2902.187336539938</v>
+      </c>
+      <c r="H46">
+        <v>253503.5099770779</v>
+      </c>
+      <c r="I46">
+        <v>1965340.918553102</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9">
       <c r="A47" s="1">
         <v>45</v>
       </c>
-      <c r="B47" s="2">
-        <v>41710</v>
+      <c r="B47">
+        <v>782</v>
       </c>
       <c r="C47">
-        <v>-66541.26495105919</v>
+        <v>-5812470.403867834</v>
       </c>
       <c r="D47">
-        <v>7469.518745352281</v>
+        <v>3610.965851535762</v>
       </c>
       <c r="E47">
-        <v>2979217.551583758</v>
+        <v>1420734.514286746</v>
       </c>
       <c r="F47">
-        <v>-253963.6373419776</v>
+        <v>-122772.8389522159</v>
       </c>
       <c r="G47">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="48" spans="1:7">
+        <v>3047.065267657374</v>
+      </c>
+      <c r="H47">
+        <v>253503.5099770779</v>
+      </c>
+      <c r="I47">
+        <v>1842712.957532003</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9">
       <c r="A48" s="1">
         <v>46</v>
       </c>
-      <c r="B48" s="2">
-        <v>41711</v>
+      <c r="B48">
+        <v>783</v>
       </c>
       <c r="C48">
-        <v>-320504.9022930368</v>
+        <v>-5935243.242820051</v>
       </c>
       <c r="D48">
-        <v>7845.683227625919</v>
+        <v>3610.965851535762</v>
       </c>
       <c r="E48">
-        <v>3113951.673044728</v>
+        <v>1420734.514286746</v>
       </c>
       <c r="F48">
-        <v>-235370.4968287776</v>
+        <v>-108328.9755460729</v>
       </c>
       <c r="G48">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="49" spans="1:7">
+        <v>3186.007364498313</v>
+      </c>
+      <c r="H48">
+        <v>253503.5099770779</v>
+      </c>
+      <c r="I48">
+        <v>1734522.924082771</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9">
       <c r="A49" s="1">
         <v>47</v>
       </c>
-      <c r="B49" s="2">
-        <v>41712</v>
+      <c r="B49">
+        <v>784</v>
       </c>
       <c r="C49">
-        <v>-555875.3991218143</v>
+        <v>-6043572.218366124</v>
       </c>
       <c r="D49">
-        <v>9852.866203507883</v>
+        <v>3610.965851535762</v>
       </c>
       <c r="E49">
-        <v>3835228.169715443</v>
+        <v>1420734.514286746</v>
       </c>
       <c r="F49">
-        <v>39411.46481403153</v>
+        <v>14443.86340614305</v>
       </c>
       <c r="G49">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="50" spans="1:7">
+        <v>3325.740905909451</v>
+      </c>
+      <c r="H49">
+        <v>253503.5099770779</v>
+      </c>
+      <c r="I49">
+        <v>1749106.521030325</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9">
       <c r="A50" s="1">
         <v>48</v>
       </c>
-      <c r="B50" s="2">
-        <v>41715</v>
+      <c r="B50">
+        <v>785</v>
       </c>
       <c r="C50">
-        <v>-556371.6785684166</v>
+        <v>-6029128.354959981</v>
       </c>
       <c r="D50">
-        <v>8679.109019371592</v>
+        <v>3610.965851535762</v>
       </c>
       <c r="E50">
-        <v>3362720.789555523</v>
+        <v>1420734.514286746</v>
       </c>
       <c r="F50">
-        <v>-86791.09019371592</v>
+        <v>-36109.65851535762</v>
       </c>
       <c r="G50">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="51" spans="1:7">
+        <v>3463.49583589509</v>
+      </c>
+      <c r="H50">
+        <v>253503.5099770779</v>
+      </c>
+      <c r="I50">
+        <v>1713134.617444953</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9">
       <c r="A51" s="1">
         <v>49</v>
       </c>
-      <c r="B51" s="2">
-        <v>41716</v>
+      <c r="B51">
+        <v>786</v>
       </c>
       <c r="C51">
-        <v>-643162.7687621325</v>
+        <v>-6065238.013475338</v>
       </c>
       <c r="D51">
-        <v>8996.660789761709</v>
+        <v>3610.965851535762</v>
       </c>
       <c r="E51">
-        <v>3485756.222993174</v>
+        <v>1420734.514286746</v>
       </c>
       <c r="F51">
-        <v>26989.98236928513</v>
+        <v>10832.89755460729</v>
       </c>
       <c r="G51">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="52" spans="1:7">
+        <v>3601.844349308379</v>
+      </c>
+      <c r="H51">
+        <v>253503.5099770779</v>
+      </c>
+      <c r="I51">
+        <v>1724105.863512974</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9">
       <c r="A52" s="1">
         <v>50</v>
       </c>
-      <c r="B52" s="2">
-        <v>41717</v>
+      <c r="B52">
+        <v>787</v>
       </c>
       <c r="C52">
-        <v>-618509.2558930211</v>
+        <v>-6054405.115920731</v>
       </c>
       <c r="D52">
-        <v>8412.54341471829</v>
+        <v>3610.965851535762</v>
       </c>
       <c r="E52">
-        <v>3296034.509886626</v>
+        <v>1420734.514286746</v>
       </c>
       <c r="F52">
-        <v>159838.3248796475</v>
+        <v>68608.35117917947</v>
       </c>
       <c r="G52">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="53" spans="1:7">
+        <v>3743.952224430117</v>
+      </c>
+      <c r="H52">
+        <v>253503.5099770779</v>
+      </c>
+      <c r="I52">
+        <v>1792856.322567275</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9">
       <c r="A53" s="1">
         <v>51</v>
       </c>
-      <c r="B53" s="2">
-        <v>41718</v>
+      <c r="B53">
+        <v>788</v>
       </c>
       <c r="C53">
-        <v>-491301.3169229414</v>
+        <v>-5985796.764741551</v>
       </c>
       <c r="D53">
-        <v>6599.744197520085</v>
+        <v>3610.965851535762</v>
       </c>
       <c r="E53">
-        <v>2576870.121921717</v>
+        <v>1420734.514286746</v>
       </c>
       <c r="F53">
-        <v>118795.3955553615</v>
+        <v>64997.38532764371</v>
       </c>
       <c r="G53">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="54" spans="1:7">
+        <v>3889.621600117752</v>
+      </c>
+      <c r="H53">
+        <v>253503.5099770779</v>
+      </c>
+      <c r="I53">
+        <v>1857999.377270606</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9">
       <c r="A54" s="1">
         <v>52</v>
       </c>
-      <c r="B54" s="2">
-        <v>41719</v>
+      <c r="B54">
+        <v>789</v>
       </c>
       <c r="C54">
-        <v>-372505.9213675798</v>
+        <v>-5920799.379413907</v>
       </c>
       <c r="D54">
-        <v>8853.124405503399</v>
+        <v>3610.965851535762</v>
       </c>
       <c r="E54">
-        <v>3443422.737520547</v>
+        <v>1420734.514286746</v>
       </c>
       <c r="F54">
-        <v>-318712.4785981224</v>
+        <v>-129994.7706552874</v>
       </c>
       <c r="G54">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="55" spans="1:7">
+        <v>4028.167974673591</v>
+      </c>
+      <c r="H54">
+        <v>253503.5099770779</v>
+      </c>
+      <c r="I54">
+        <v>1728143.152989875</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9">
       <c r="A55" s="1">
         <v>53</v>
       </c>
-      <c r="B55" s="2">
-        <v>41722</v>
+      <c r="B55">
+        <v>790</v>
       </c>
       <c r="C55">
-        <v>-759280.0296200474</v>
+        <v>-6050794.150069195</v>
       </c>
       <c r="D55">
-        <v>7880.815410441323</v>
+        <v>3610.965851535762</v>
       </c>
       <c r="E55">
-        <v>3053421.930775491</v>
+        <v>1420734.514286746</v>
       </c>
       <c r="F55">
-        <v>-212782.0160819157</v>
+        <v>-97496.07799146557</v>
       </c>
       <c r="G55">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="56" spans="1:7">
+        <v>4161.372098380582</v>
+      </c>
+      <c r="H55">
+        <v>253503.5099770779</v>
+      </c>
+      <c r="I55">
+        <v>1630780.279122116</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9">
       <c r="A56" s="1">
         <v>54</v>
       </c>
-      <c r="B56" s="2">
-        <v>41723</v>
+      <c r="B56">
+        <v>791</v>
       </c>
       <c r="C56">
-        <v>-972062.0457019631</v>
+        <v>-6148290.228060661</v>
       </c>
       <c r="D56">
-        <v>8334.225821467937</v>
+        <v>3610.965851535762</v>
       </c>
       <c r="E56">
-        <v>3192841.912204366</v>
+        <v>1420734.514286746</v>
       </c>
       <c r="F56">
-        <v>125013.3873220191</v>
+        <v>54164.48777303643</v>
       </c>
       <c r="G56">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="57" spans="1:7">
+        <v>4297.544139225823</v>
+      </c>
+      <c r="H56">
+        <v>253503.5099770779</v>
+      </c>
+      <c r="I56">
+        <v>1685080.938935998</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9">
       <c r="A57" s="1">
         <v>55</v>
       </c>
-      <c r="B57" s="2">
-        <v>41724</v>
+      <c r="B57">
+        <v>792</v>
       </c>
       <c r="C57">
-        <v>-853886.3342414449</v>
+        <v>-6094125.740287624</v>
       </c>
       <c r="D57">
-        <v>8098.443895209284</v>
+        <v>3610.965851535762</v>
       </c>
       <c r="E57">
-        <v>3115876.288681772</v>
+        <v>1420734.514286746</v>
       </c>
       <c r="F57">
-        <v>-275347.0924371157</v>
+        <v>-122772.8389522159</v>
       </c>
       <c r="G57">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="58" spans="1:7">
+        <v>4426.988901224366</v>
+      </c>
+      <c r="H57">
+        <v>253503.5099770779</v>
+      </c>
+      <c r="I57">
+        <v>1562437.54474578</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9">
       <c r="A58" s="1">
         <v>56</v>
       </c>
-      <c r="B58" s="2">
-        <v>41725</v>
+      <c r="B58">
+        <v>793</v>
       </c>
       <c r="C58">
-        <v>-1129233.426678561</v>
+        <v>-6216898.579239841</v>
       </c>
       <c r="D58">
-        <v>8481.537583141511</v>
+        <v>3610.965851535762</v>
       </c>
       <c r="E58">
-        <v>3228921.357901973</v>
+        <v>1420734.514286746</v>
       </c>
       <c r="F58">
-        <v>-288372.2778268114</v>
+        <v>-122772.8389522159</v>
       </c>
       <c r="G58">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="59" spans="1:7">
+        <v>4549.706384376213</v>
+      </c>
+      <c r="H58">
+        <v>253503.5099770779</v>
+      </c>
+      <c r="I58">
+        <v>1439787.423276715</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9">
       <c r="A59" s="1">
         <v>57</v>
       </c>
-      <c r="B59" s="2">
-        <v>41726</v>
+      <c r="B59">
+        <v>794</v>
       </c>
       <c r="C59">
-        <v>-1446097.384392512</v>
+        <v>-6339671.418192057</v>
       </c>
       <c r="D59">
-        <v>7911.703985398714</v>
+        <v>3610.965851535762</v>
       </c>
       <c r="E59">
-        <v>2984690.328491665</v>
+        <v>1420734.514286746</v>
       </c>
       <c r="F59">
-        <v>63293.63188318972</v>
+        <v>28887.7268122861</v>
       </c>
       <c r="G59">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="60" spans="1:7">
+        <v>4674.006756668458</v>
+      </c>
+      <c r="H59">
+        <v>253503.5099770779</v>
+      </c>
+      <c r="I59">
+        <v>1468799.450461294</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9">
       <c r="A60" s="1">
         <v>58</v>
       </c>
-      <c r="B60" s="2">
-        <v>41729</v>
+      <c r="B60">
+        <v>795</v>
       </c>
       <c r="C60">
-        <v>-1395004.363950257</v>
+        <v>-6310783.691379771</v>
       </c>
       <c r="D60">
-        <v>7301.673413351964</v>
+        <v>3610.965851535762</v>
       </c>
       <c r="E60">
-        <v>2744699.036079003</v>
+        <v>1420734.514286746</v>
       </c>
       <c r="F60">
-        <v>-182541.8353337991</v>
+        <v>-90274.14628839404</v>
       </c>
       <c r="G60">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="61" spans="1:7">
+        <v>4793.360600396956</v>
+      </c>
+      <c r="H60">
+        <v>253503.5099770779</v>
+      </c>
+      <c r="I60">
+        <v>1378644.658016628</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9">
       <c r="A61" s="1">
         <v>59</v>
       </c>
-      <c r="B61" s="2">
-        <v>41730</v>
+      <c r="B61">
+        <v>796</v>
       </c>
       <c r="C61">
-        <v>-1591406.081588171</v>
+        <v>-6401057.837668165</v>
       </c>
       <c r="D61">
-        <v>6146.683221342367</v>
+        <v>3610.965851535762</v>
       </c>
       <c r="E61">
-        <v>2296708.185654575</v>
+        <v>1420734.514286746</v>
       </c>
       <c r="F61">
-        <v>-147520.3973122168</v>
+        <v>-86663.18043685828</v>
       </c>
       <c r="G61">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="62" spans="1:7">
+        <v>4907.965776704256</v>
+      </c>
+      <c r="H61">
+        <v>253503.5099770779</v>
+      </c>
+      <c r="I61">
+        <v>1292096.082756078</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9">
       <c r="A62" s="1">
         <v>60</v>
       </c>
-      <c r="B62" s="2">
-        <v>41731</v>
+      <c r="B62">
+        <v>797</v>
       </c>
       <c r="C62">
-        <v>-1663606.92880797</v>
+        <v>-6487721.018105023</v>
       </c>
       <c r="D62">
-        <v>4111.019705331063</v>
+        <v>3610.965851535762</v>
       </c>
       <c r="E62">
-        <v>1551498.836791943</v>
+        <v>1420734.514286746</v>
       </c>
       <c r="F62">
-        <v>-32888.1576426485</v>
+        <v>-28887.7268122861</v>
       </c>
       <c r="G62">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="63" spans="1:7">
+        <v>5020.988063871157</v>
+      </c>
+      <c r="H62">
+        <v>253503.5099770779</v>
+      </c>
+      <c r="I62">
+        <v>1263321.378230958</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9">
       <c r="A63" s="1">
         <v>61</v>
       </c>
-      <c r="B63" s="2">
-        <v>41732</v>
+      <c r="B63">
+        <v>798</v>
       </c>
       <c r="C63">
-        <v>-1696495.086450619</v>
+        <v>-6516608.744917309</v>
       </c>
       <c r="D63">
-        <v>5921.459539688673</v>
+        <v>3610.965851535762</v>
       </c>
       <c r="E63">
-        <v>2212553.357004672</v>
+        <v>1420734.514286746</v>
       </c>
       <c r="F63">
-        <v>41450.21677782071</v>
+        <v>25276.76096075033</v>
       </c>
       <c r="G63">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="64" spans="1:7">
+        <v>5135.395379035908</v>
+      </c>
+      <c r="H63">
+        <v>253503.5099770779</v>
+      </c>
+      <c r="I63">
+        <v>1288712.546506873</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9">
       <c r="A64" s="1">
         <v>62</v>
       </c>
-      <c r="B64" s="2">
-        <v>41733</v>
+      <c r="B64">
+        <v>799</v>
       </c>
       <c r="C64">
-        <v>-1660322.298321231</v>
+        <v>-6491331.983956559</v>
       </c>
       <c r="D64">
-        <v>5393.716674845399</v>
+        <v>3610.965851535762</v>
       </c>
       <c r="E64">
-        <v>2033970.5580842</v>
+        <v>1420734.514286746</v>
       </c>
       <c r="F64">
-        <v>64724.60009814479</v>
+        <v>43331.59021842914</v>
       </c>
       <c r="G64">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="65" spans="1:7">
+        <v>5252.177027911258</v>
+      </c>
+      <c r="H64">
+        <v>253503.5099770779</v>
+      </c>
+      <c r="I64">
+        <v>1332160.918374178</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9">
       <c r="A65" s="1">
         <v>63</v>
       </c>
-      <c r="B65" s="2">
-        <v>41736</v>
+      <c r="B65">
+        <v>800</v>
       </c>
       <c r="C65">
-        <v>-1595597.698223086</v>
+        <v>-6448000.393738129</v>
       </c>
       <c r="D65">
-        <v>5639.221689001583</v>
+        <v>3610.965851535762</v>
       </c>
       <c r="E65">
-        <v>2121475.199402396</v>
+        <v>1420734.514286746</v>
       </c>
       <c r="F65">
-        <v>-208651.2024930586</v>
+        <v>-133605.7365068232</v>
       </c>
       <c r="G65">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="66" spans="1:7">
+        <v>5361.637814512261</v>
+      </c>
+      <c r="H65">
+        <v>253503.5099770779</v>
+      </c>
+      <c r="I65">
+        <v>1198664.642653956</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9">
       <c r="A66" s="1">
         <v>64</v>
       </c>
-      <c r="B66" s="2">
-        <v>41737</v>
+      <c r="B66">
+        <v>801</v>
       </c>
       <c r="C66">
-        <v>-1818229.362588308</v>
+        <v>-6581606.130244953</v>
       </c>
       <c r="D66">
-        <v>5483.883223755327</v>
+        <v>3610.965851535762</v>
       </c>
       <c r="E66">
-        <v>2040004.559236982</v>
+        <v>1420734.514286746</v>
       </c>
       <c r="F66">
-        <v>-285161.927635277</v>
+        <v>-187770.2242798596</v>
       </c>
       <c r="G66">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="67" spans="1:7">
+        <v>5460.809821700668</v>
+      </c>
+      <c r="H66">
+        <v>253503.5099770779</v>
+      </c>
+      <c r="I66">
+        <v>1010993.590381284</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9">
       <c r="A67" s="1">
         <v>65</v>
       </c>
-      <c r="B67" s="2">
-        <v>41738</v>
+      <c r="B67">
+        <v>802</v>
       </c>
       <c r="C67">
-        <v>-2102756.208222851</v>
+        <v>-6769376.354524813</v>
       </c>
       <c r="D67">
-        <v>5378.036223633095</v>
+        <v>3610.965851535762</v>
       </c>
       <c r="E67">
-        <v>1990949.009988972</v>
+        <v>1420734.514286746</v>
       </c>
       <c r="F67">
-        <v>91426.61580176261</v>
+        <v>61386.41947610795</v>
       </c>
       <c r="G67">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="68" spans="1:7">
+        <v>5563.345468312425</v>
+      </c>
+      <c r="H67">
+        <v>253503.5099770779</v>
+      </c>
+      <c r="I67">
+        <v>1072482.545504004</v>
+      </c>
+    </row>
+    <row r="68" spans="1:9">
       <c r="A68" s="1">
         <v>66</v>
       </c>
-      <c r="B68" s="2">
-        <v>41739</v>
+      <c r="B68">
+        <v>803</v>
       </c>
       <c r="C68">
-        <v>-2011329.592421089</v>
+        <v>-6707989.935048705</v>
       </c>
       <c r="D68">
-        <v>5702.776596977224</v>
+        <v>3610.965851535762</v>
       </c>
       <c r="E68">
-        <v>2109457.063221875</v>
+        <v>1420734.514286746</v>
       </c>
       <c r="F68">
-        <v>-5702.776596977224</v>
+        <v>-3610.965851535762</v>
       </c>
       <c r="G68">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="69" spans="1:7">
+        <v>5665.683253781631</v>
+      </c>
+      <c r="H68">
+        <v>253503.5099770779</v>
+      </c>
+      <c r="I68">
+        <v>1068973.917437936</v>
+      </c>
+    </row>
+    <row r="69" spans="1:9">
       <c r="A69" s="1">
         <v>67</v>
       </c>
-      <c r="B69" s="2">
-        <v>41740</v>
+      <c r="B69">
+        <v>804</v>
       </c>
       <c r="C69">
-        <v>-2017032.369018066</v>
+        <v>-6711600.900900241</v>
       </c>
       <c r="D69">
-        <v>5844.39889728317</v>
+        <v>3610.965851535762</v>
       </c>
       <c r="E69">
-        <v>2153076.55375912</v>
+        <v>1420734.514286746</v>
       </c>
       <c r="F69">
-        <v>216242.7591994773</v>
+        <v>133605.7365068232</v>
       </c>
       <c r="G69">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="70" spans="1:7">
+        <v>5775.341901525184</v>
+      </c>
+      <c r="H69">
+        <v>253503.5099770779</v>
+      </c>
+      <c r="I69">
+        <v>1202689.312592504</v>
+      </c>
+    </row>
+    <row r="70" spans="1:9">
       <c r="A70" s="1">
         <v>68</v>
       </c>
-      <c r="B70" s="2">
-        <v>41743</v>
+      <c r="B70">
+        <v>805</v>
       </c>
       <c r="C70">
-        <v>-1800789.609818588</v>
+        <v>-6577995.164393418</v>
       </c>
       <c r="D70">
-        <v>6416.913602690626</v>
+        <v>3610.965851535762</v>
       </c>
       <c r="E70">
-        <v>2404417.526928178</v>
+        <v>1420734.514286746</v>
       </c>
       <c r="F70">
-        <v>64169.13602690626</v>
+        <v>36109.65851535762</v>
       </c>
       <c r="G70">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="71" spans="1:7">
+        <v>5886.979160694235</v>
+      </c>
+      <c r="H70">
+        <v>253503.5099770779</v>
+      </c>
+      <c r="I70">
+        <v>1238910.60836703</v>
+      </c>
+    </row>
+    <row r="71" spans="1:9">
       <c r="A71" s="1">
         <v>69</v>
       </c>
-      <c r="B71" s="2">
-        <v>41744</v>
+      <c r="B71">
+        <v>806</v>
       </c>
       <c r="C71">
-        <v>-1740442.336650817</v>
+        <v>-6541885.50587806</v>
       </c>
       <c r="D71">
-        <v>6316.338264292332</v>
+        <v>3610.965851535762</v>
       </c>
       <c r="E71">
-        <v>2379048.807245707</v>
+        <v>1420734.514286746</v>
       </c>
       <c r="F71">
-        <v>265286.2071002779</v>
+        <v>151660.565764502</v>
       </c>
       <c r="G71">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="72" spans="1:7">
+        <v>6006.926587850383</v>
+      </c>
+      <c r="H71">
+        <v>253503.5099770779</v>
+      </c>
+      <c r="I71">
+        <v>1390691.121558688</v>
+      </c>
+    </row>
+    <row r="72" spans="1:9">
       <c r="A72" s="1">
         <v>70</v>
       </c>
-      <c r="B72" s="2">
-        <v>41745</v>
+      <c r="B72">
+        <v>807</v>
       </c>
       <c r="C72">
-        <v>-1475156.129550539</v>
+        <v>-6390224.940113558</v>
       </c>
       <c r="D72">
-        <v>7008.080084553864</v>
+        <v>3610.965851535762</v>
       </c>
       <c r="E72">
-        <v>2679539.42032917</v>
+        <v>1420734.514286746</v>
       </c>
       <c r="F72">
-        <v>133153.5216065234</v>
+        <v>68608.35117917947</v>
       </c>
       <c r="G72">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="73" spans="1:7">
+        <v>6130.633376714979</v>
+      </c>
+      <c r="H72">
+        <v>253503.5099770779</v>
+      </c>
+      <c r="I72">
+        <v>1459423.179526732</v>
+      </c>
+    </row>
+    <row r="73" spans="1:9">
       <c r="A73" s="1">
         <v>71</v>
       </c>
-      <c r="B73" s="2">
-        <v>41746</v>
+      <c r="B73">
+        <v>808</v>
       </c>
       <c r="C73">
-        <v>-1342002.607944016</v>
+        <v>-6321616.588934379</v>
       </c>
       <c r="D73">
-        <v>7164.998050764061</v>
+        <v>3610.965851535762</v>
       </c>
       <c r="E73">
-        <v>2749209.75207817</v>
+        <v>1420734.514286746</v>
       </c>
       <c r="F73">
-        <v>-308094.9161828546</v>
+        <v>-155271.5316160378</v>
       </c>
       <c r="G73">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="74" spans="1:7">
+        <v>6245.832136449929</v>
+      </c>
+      <c r="H73">
+        <v>253503.5099770779</v>
+      </c>
+      <c r="I73">
+        <v>1304266.846670429</v>
+      </c>
+    </row>
+    <row r="74" spans="1:9">
       <c r="A74" s="1">
         <v>72</v>
       </c>
-      <c r="B74" s="2">
-        <v>41747</v>
+      <c r="B74">
+        <v>809</v>
       </c>
       <c r="C74">
-        <v>-1650097.524126871</v>
+        <v>-6476888.120550416</v>
       </c>
       <c r="D74">
-        <v>7348.514917384437</v>
+        <v>3610.965851535762</v>
       </c>
       <c r="E74">
-        <v>2767818.143632848</v>
+        <v>1420734.514286746</v>
       </c>
       <c r="F74">
-        <v>-80833.66409122881</v>
+        <v>-39720.62436689338</v>
       </c>
       <c r="G74">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="75" spans="1:7">
+        <v>6358.85442361683</v>
+      </c>
+      <c r="H74">
+        <v>253503.5099770779</v>
+      </c>
+      <c r="I74">
+        <v>1264659.244590703</v>
+      </c>
+    </row>
+    <row r="75" spans="1:9">
       <c r="A75" s="1">
         <v>73</v>
       </c>
-      <c r="B75" s="2">
-        <v>41750</v>
+      <c r="B75">
+        <v>810</v>
       </c>
       <c r="C75">
-        <v>-1730931.188218099</v>
+        <v>-6516608.74491731</v>
       </c>
       <c r="D75">
-        <v>7634.432009230964</v>
+        <v>3610.965851535762</v>
       </c>
       <c r="E75">
-        <v>2866347.497865765</v>
+        <v>1420734.514286746</v>
       </c>
       <c r="F75">
-        <v>61075.45607384771</v>
+        <v>28887.7268122861</v>
       </c>
       <c r="G75">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="76" spans="1:7">
+        <v>6473.45959992413</v>
+      </c>
+      <c r="H75">
+        <v>253503.5099770779</v>
+      </c>
+      <c r="I75">
+        <v>1293661.576579297</v>
+      </c>
+    </row>
+    <row r="76" spans="1:9">
       <c r="A76" s="1">
         <v>74</v>
       </c>
-      <c r="B76" s="2">
-        <v>41751</v>
+      <c r="B76">
+        <v>811</v>
       </c>
       <c r="C76">
-        <v>-1662996.339867549</v>
+        <v>-6487721.018105024</v>
       </c>
       <c r="D76">
-        <v>5347.967916996905</v>
+        <v>3610.965851535762</v>
       </c>
       <c r="E76">
-        <v>2042388.947501118</v>
+        <v>1420734.514286746</v>
       </c>
       <c r="F76">
-        <v>160439.0375099072</v>
+        <v>108328.9755460729</v>
       </c>
       <c r="G76">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="77" spans="1:7">
+        <v>6594.000610507927</v>
+      </c>
+      <c r="H76">
+        <v>253503.5099770779</v>
+      </c>
+      <c r="I76">
+        <v>1402111.093135954</v>
+      </c>
+    </row>
+    <row r="77" spans="1:9">
       <c r="A77" s="1">
         <v>75</v>
       </c>
-      <c r="B77" s="2">
-        <v>41752</v>
+      <c r="B77">
+        <v>812</v>
       </c>
       <c r="C77">
-        <v>-1502557.302357642</v>
+        <v>-6379392.04255895</v>
       </c>
       <c r="D77">
-        <v>6436.140390909314</v>
+        <v>3610.965851535762</v>
       </c>
       <c r="E77">
-        <v>2442515.278350085</v>
+        <v>1420734.514286746</v>
       </c>
       <c r="F77">
-        <v>-122286.667427277</v>
+        <v>-68608.35117917947</v>
       </c>
       <c r="G77">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="78" spans="1:7">
+        <v>6710.782259383277</v>
+      </c>
+      <c r="H77">
+        <v>253503.5099770779</v>
+      </c>
+      <c r="I77">
+        <v>1333619.523605649</v>
+      </c>
+    </row>
+    <row r="78" spans="1:9">
       <c r="A78" s="1">
         <v>76</v>
       </c>
-      <c r="B78" s="2">
-        <v>41753</v>
+      <c r="B78">
+        <v>813</v>
       </c>
       <c r="C78">
-        <v>-1633567.808866825</v>
+        <v>-6448000.39373813</v>
       </c>
       <c r="D78">
-        <v>6163.520419599754</v>
+        <v>3610.965851535762</v>
       </c>
       <c r="E78">
-        <v>2328886.190545767</v>
+        <v>1420734.514286746</v>
       </c>
       <c r="F78">
-        <v>6163.520419599754</v>
+        <v>3610.965851535762</v>
       </c>
       <c r="G78">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="79" spans="1:7">
+        <v>6827.761769401176</v>
+      </c>
+      <c r="H78">
+        <v>253503.5099770779</v>
+      </c>
+      <c r="I78">
+        <v>1337347.468967203</v>
+      </c>
+    </row>
+    <row r="79" spans="1:9">
       <c r="A79" s="1">
         <v>77</v>
       </c>
-      <c r="B79" s="2">
-        <v>41754</v>
+      <c r="B79">
+        <v>814</v>
       </c>
       <c r="C79">
-        <v>-1627404.288447226</v>
+        <v>-6444389.427886594</v>
       </c>
       <c r="D79">
-        <v>6440.018960062622</v>
+        <v>3610.965851535762</v>
       </c>
       <c r="E79">
-        <v>2451715.21809584</v>
+        <v>1420734.514286746</v>
       </c>
       <c r="F79">
-        <v>-38640.11376037573</v>
+        <v>-21665.79510921457</v>
       </c>
       <c r="G79">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="80" spans="1:7">
+        <v>6943.554112563776</v>
+      </c>
+      <c r="H79">
+        <v>253503.5099770779</v>
+      </c>
+      <c r="I79">
+        <v>1315797.466201151</v>
+      </c>
+    </row>
+    <row r="80" spans="1:9">
       <c r="A80" s="1">
         <v>78</v>
       </c>
-      <c r="B80" s="2">
-        <v>41757</v>
+      <c r="B80">
+        <v>815</v>
       </c>
       <c r="C80">
-        <v>-1666044.402207601</v>
+        <v>-6466055.222995808</v>
       </c>
       <c r="D80">
-        <v>9747.977129947947</v>
+        <v>3610.965851535762</v>
       </c>
       <c r="E80">
-        <v>3718365.876218644</v>
+        <v>1420734.514286746</v>
       </c>
       <c r="F80">
-        <v>-77983.81703958358</v>
+        <v>-28887.7268122861</v>
       </c>
       <c r="G80">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="81" spans="1:7">
+        <v>7057.763566585976</v>
+      </c>
+      <c r="H80">
+        <v>253503.5099770779</v>
+      </c>
+      <c r="I80">
+        <v>1287023.948842888</v>
+      </c>
+    </row>
+    <row r="81" spans="1:9">
       <c r="A81" s="1">
         <v>79</v>
       </c>
-      <c r="B81" s="2">
-        <v>41758</v>
+      <c r="B81">
+        <v>816</v>
       </c>
       <c r="C81">
-        <v>-1980624.557119501</v>
+        <v>-6494942.949808095</v>
       </c>
       <c r="D81">
-        <v>5016.050372501632</v>
+        <v>3610.965851535762</v>
       </c>
       <c r="E81">
-        <v>1897571.855917367</v>
+        <v>1420734.514286746</v>
       </c>
       <c r="F81">
-        <v>-125401.2593125408</v>
+        <v>-90274.14628839404</v>
       </c>
       <c r="G81">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="82" spans="1:7">
+        <v>7167.026492044429</v>
+      </c>
+      <c r="H81">
+        <v>253503.5099770779</v>
+      </c>
+      <c r="I81">
+        <v>1196859.065479952</v>
+      </c>
+    </row>
+    <row r="82" spans="1:9">
       <c r="A82" s="1">
         <v>80</v>
       </c>
-      <c r="B82" s="2">
-        <v>41759</v>
+      <c r="B82">
+        <v>817</v>
       </c>
       <c r="C82">
-        <v>-2106025.816432042</v>
+        <v>-6585217.096096489</v>
       </c>
       <c r="D82">
-        <v>6702.566026703455</v>
+        <v>3610.965851535762</v>
       </c>
       <c r="E82">
-        <v>2518489.184533823</v>
+        <v>1420734.514286746</v>
       </c>
       <c r="F82">
-        <v>-53620.52821362764</v>
+        <v>-28887.7268122861</v>
       </c>
       <c r="G82">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="83" spans="1:7">
+        <v>7274.706528362482</v>
+      </c>
+      <c r="H82">
+        <v>253503.5099770779</v>
+      </c>
+      <c r="I82">
+        <v>1168079.018703983</v>
+      </c>
+    </row>
+    <row r="83" spans="1:9">
       <c r="A83" s="1">
         <v>81</v>
       </c>
-      <c r="B83" s="2">
-        <v>41761</v>
+      <c r="B83">
+        <v>818</v>
       </c>
       <c r="C83">
-        <v>-2232680.504559922</v>
+        <v>-6614104.822908775</v>
       </c>
       <c r="D83">
-        <v>5881.957488341067</v>
+        <v>3610.965851535762</v>
       </c>
       <c r="E83">
-        <v>2163383.964211844</v>
+        <v>1420734.514286746</v>
       </c>
       <c r="F83">
-        <v>141166.9797201856</v>
+        <v>86663.18043685828</v>
       </c>
       <c r="G83">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="84" spans="1:7">
+        <v>7387.135232101734</v>
+      </c>
+      <c r="H83">
+        <v>253503.5099770779</v>
+      </c>
+      <c r="I83">
+        <v>1254854.627844581</v>
+      </c>
+    </row>
+    <row r="84" spans="1:9">
       <c r="A84" s="1">
         <v>82</v>
       </c>
-      <c r="B84" s="2">
-        <v>41764</v>
+      <c r="B84">
+        <v>819</v>
       </c>
       <c r="C84">
-        <v>-2091513.524839736</v>
+        <v>-6527441.642471917</v>
       </c>
       <c r="D84">
-        <v>6408.193240146453</v>
+        <v>3610.965851535762</v>
       </c>
       <c r="E84">
-        <v>2371351.908516195</v>
+        <v>1420734.514286746</v>
       </c>
       <c r="F84">
-        <v>-96122.89860219679</v>
+        <v>-54164.48777303643</v>
       </c>
       <c r="G84">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="85" spans="1:7">
+        <v>7496.596018702737</v>
+      </c>
+      <c r="H84">
+        <v>253503.5099770779</v>
+      </c>
+      <c r="I84">
+        <v>1200799.600858145</v>
+      </c>
+    </row>
+    <row r="85" spans="1:9">
       <c r="A85" s="1">
         <v>83</v>
       </c>
-      <c r="B85" s="2">
-        <v>41765</v>
+      <c r="B85">
+        <v>820</v>
       </c>
       <c r="C85">
-        <v>-2209011.679415587</v>
+        <v>-6581606.130244954</v>
       </c>
       <c r="D85">
-        <v>5989.070573996365</v>
+        <v>3610.965851535762</v>
       </c>
       <c r="E85">
-        <v>2195593.272427068</v>
+        <v>1420734.514286746</v>
       </c>
       <c r="F85">
-        <v>-83846.98803594911</v>
+        <v>-50553.52192150067</v>
       </c>
       <c r="G85">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="86" spans="1:7">
+        <v>7603.286749308041</v>
+      </c>
+      <c r="H85">
+        <v>253503.5099770779</v>
+      </c>
+      <c r="I85">
+        <v>1150352.76966725</v>
+      </c>
+    </row>
+    <row r="86" spans="1:9">
       <c r="A86" s="1">
         <v>84</v>
       </c>
-      <c r="B86" s="2">
-        <v>41766</v>
+      <c r="B86">
+        <v>821</v>
       </c>
       <c r="C86">
-        <v>-2292858.667451536</v>
+        <v>-6632159.652166454</v>
       </c>
       <c r="D86">
-        <v>6169.456367750859</v>
+        <v>3610.965851535762</v>
       </c>
       <c r="E86">
-        <v>2260797.285962302</v>
+        <v>1420734.514286746</v>
       </c>
       <c r="F86">
-        <v>-6169.456367750859</v>
+        <v>-3610.965851535762</v>
       </c>
       <c r="G86">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="87" spans="1:7">
+        <v>7709.779618770795</v>
+      </c>
+      <c r="H86">
+        <v>253503.5099770779</v>
+      </c>
+      <c r="I86">
+        <v>1146848.296685177</v>
+      </c>
+    </row>
+    <row r="87" spans="1:9">
       <c r="A87" s="1">
         <v>85</v>
       </c>
-      <c r="B87" s="2">
-        <v>41767</v>
+      <c r="B87">
+        <v>822</v>
       </c>
       <c r="C87">
-        <v>-2305567.402765294</v>
+        <v>-6635770.61801799</v>
       </c>
       <c r="D87">
-        <v>5971.296399690058</v>
+        <v>3610.965851535762</v>
       </c>
       <c r="E87">
-        <v>2187285.871206468</v>
+        <v>1420734.514286746</v>
       </c>
       <c r="F87">
-        <v>-47770.37119752046</v>
+        <v>-28887.7268122861</v>
       </c>
       <c r="G87">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="88" spans="1:7">
+        <v>7814.689599093151</v>
+      </c>
+      <c r="H87">
+        <v>253503.5099770779</v>
+      </c>
+      <c r="I87">
+        <v>1118065.479853213</v>
+      </c>
+    </row>
+    <row r="88" spans="1:9">
       <c r="A88" s="1">
         <v>86</v>
       </c>
-      <c r="B88" s="2">
-        <v>41768</v>
+      <c r="B88">
+        <v>823</v>
       </c>
       <c r="C88">
-        <v>-2353337.773962814</v>
+        <v>-6664658.344830276</v>
       </c>
       <c r="D88">
-        <v>6131.822248700033</v>
+        <v>3610.965851535762</v>
       </c>
       <c r="E88">
-        <v>2254364.449734567</v>
+        <v>1420734.514286746</v>
       </c>
       <c r="F88">
-        <v>36790.9334922002</v>
+        <v>21665.79510921457</v>
       </c>
       <c r="G88">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="89" spans="1:7">
+        <v>7920.786746270805</v>
+      </c>
+      <c r="H88">
+        <v>253503.5099770779</v>
+      </c>
+      <c r="I88">
+        <v>1139837.372109605</v>
+      </c>
+    </row>
+    <row r="89" spans="1:9">
       <c r="A89" s="1">
         <v>87</v>
       </c>
-      <c r="B89" s="2">
-        <v>41771</v>
+      <c r="B89">
+        <v>824</v>
       </c>
       <c r="C89">
-        <v>-2323878.166636509</v>
+        <v>-6642992.549721062</v>
       </c>
       <c r="D89">
-        <v>5838.56920206422</v>
+        <v>3610.965851535762</v>
       </c>
       <c r="E89">
-        <v>2145674.181758601</v>
+        <v>1420734.514286746</v>
       </c>
       <c r="F89">
-        <v>110932.8148392202</v>
+        <v>68608.35117917947</v>
       </c>
       <c r="G89">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="90" spans="1:7">
+        <v>8030.643255156908</v>
+      </c>
+      <c r="H89">
+        <v>253503.5099770779</v>
+      </c>
+      <c r="I89">
+        <v>1208555.57979767</v>
+      </c>
+    </row>
+    <row r="90" spans="1:9">
       <c r="A90" s="1">
         <v>88</v>
       </c>
-      <c r="B90" s="2">
-        <v>41773</v>
+      <c r="B90">
+        <v>825</v>
       </c>
       <c r="C90">
-        <v>-2212945.351797289</v>
+        <v>-6574384.198541882</v>
       </c>
       <c r="D90">
-        <v>8986.797872643434</v>
+        <v>3610.965851535762</v>
       </c>
       <c r="E90">
-        <v>3332304.651176185</v>
+        <v>1420734.514286746</v>
       </c>
       <c r="F90">
-        <v>107841.5744717212</v>
+        <v>43331.59021842914</v>
       </c>
       <c r="G90">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="91" spans="1:7">
+        <v>8142.874097753609</v>
+      </c>
+      <c r="H90">
+        <v>253503.5099770779</v>
+      </c>
+      <c r="I90">
+        <v>1251999.400858697</v>
+      </c>
+    </row>
+    <row r="91" spans="1:9">
       <c r="A91" s="1">
         <v>89</v>
       </c>
-      <c r="B91" s="2">
-        <v>41774</v>
+      <c r="B91">
+        <v>826</v>
       </c>
       <c r="C91">
-        <v>-2155340.127141478</v>
+        <v>-6531052.608323453</v>
       </c>
       <c r="D91">
-        <v>4419.85698028793</v>
+        <v>3610.965851535762</v>
       </c>
       <c r="E91">
-        <v>1649490.625043456</v>
+        <v>1420734.514286746</v>
       </c>
       <c r="F91">
-        <v>101656.7105466224</v>
+        <v>83052.21458532252</v>
       </c>
       <c r="G91">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="92" spans="1:7">
+        <v>8259.655746628958</v>
+      </c>
+      <c r="H91">
+        <v>253503.5099770779</v>
+      </c>
+      <c r="I91">
+        <v>1335168.397092895</v>
+      </c>
+    </row>
+    <row r="92" spans="1:9">
       <c r="A92" s="1">
         <v>90</v>
       </c>
-      <c r="B92" s="2">
-        <v>41775</v>
+      <c r="B92">
+        <v>827</v>
       </c>
       <c r="C92">
-        <v>-2053683.416594856</v>
+        <v>-6448000.39373813</v>
       </c>
       <c r="D92">
-        <v>5719.211714562462</v>
+        <v>3610.965851535762</v>
       </c>
       <c r="E92">
-        <v>2127546.757817236</v>
+        <v>1420734.514286746</v>
       </c>
       <c r="F92">
-        <v>-97226.59914756186</v>
+        <v>-61386.41947610795</v>
       </c>
       <c r="G92">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="93" spans="1:7">
+        <v>8373.073756080959</v>
+      </c>
+      <c r="H92">
+        <v>253503.5099770779</v>
+      </c>
+      <c r="I92">
+        <v>1273895.395626239</v>
+      </c>
+    </row>
+    <row r="93" spans="1:9">
       <c r="A93" s="1">
         <v>91</v>
       </c>
-      <c r="B93" s="2">
-        <v>41778</v>
+      <c r="B93">
+        <v>828</v>
       </c>
       <c r="C93">
-        <v>-2224057.344917546</v>
+        <v>-6509386.813214238</v>
       </c>
       <c r="D93">
-        <v>4703.276587130122</v>
+        <v>3610.965851535762</v>
       </c>
       <c r="E93">
-        <v>1724926.688329972</v>
+        <v>1420734.514286746</v>
       </c>
       <c r="F93">
-        <v>-136395.0210267735</v>
+        <v>-104718.0096945371</v>
       </c>
       <c r="G93">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="94" spans="1:7">
+        <v>8480.753792399013</v>
+      </c>
+      <c r="H93">
+        <v>253503.5099770779</v>
+      </c>
+      <c r="I93">
+        <v>1169285.06596802</v>
+      </c>
+    </row>
+    <row r="94" spans="1:9">
       <c r="A94" s="1">
         <v>92</v>
       </c>
-      <c r="B94" s="2">
-        <v>41779</v>
+      <c r="B94">
+        <v>829</v>
       </c>
       <c r="C94">
-        <v>-2360452.36594432</v>
+        <v>-6614104.822908775</v>
       </c>
       <c r="D94">
-        <v>4921.845697308886</v>
+        <v>3610.965851535762</v>
       </c>
       <c r="E94">
-        <v>1785153.434413933</v>
+        <v>1420734.514286746</v>
       </c>
       <c r="F94">
-        <v>-103358.7596434866</v>
+        <v>-75830.28288225101</v>
       </c>
       <c r="G94">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="95" spans="1:7">
+        <v>8584.278744723519</v>
+      </c>
+      <c r="H94">
+        <v>253503.5099770779</v>
+      </c>
+      <c r="I94">
+        <v>1093558.308038094</v>
+      </c>
+    </row>
+    <row r="95" spans="1:9">
       <c r="A95" s="1">
         <v>93</v>
       </c>
-      <c r="B95" s="2">
-        <v>41780</v>
+      <c r="B95">
+        <v>830</v>
       </c>
       <c r="C95">
-        <v>-2474611.267015045</v>
+        <v>-6689935.105791026</v>
       </c>
       <c r="D95">
-        <v>4710.078218343428</v>
+        <v>3610.965851535762</v>
       </c>
       <c r="E95">
-        <v>1694921.646870882</v>
+        <v>1420734.514286746</v>
       </c>
       <c r="F95">
-        <v>-80071.32971183828</v>
+        <v>-61386.41947610795</v>
       </c>
       <c r="G95">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="96" spans="1:7">
+        <v>8684.440057624675</v>
+      </c>
+      <c r="H95">
+        <v>253503.5099770779</v>
+      </c>
+      <c r="I95">
+        <v>1032272.049874887</v>
+      </c>
+    </row>
+    <row r="96" spans="1:9">
       <c r="A96" s="1">
         <v>94</v>
       </c>
-      <c r="B96" s="2">
-        <v>41781</v>
+      <c r="B96">
+        <v>831</v>
       </c>
       <c r="C96">
-        <v>-2554682.596726883</v>
+        <v>-6751321.525267133</v>
       </c>
       <c r="D96">
-        <v>5193.759070290271</v>
+        <v>3610.965851535762</v>
       </c>
       <c r="E96">
-        <v>1872090.456886128</v>
+        <v>1420734.514286746</v>
       </c>
       <c r="F96">
         <v>0</v>
       </c>
       <c r="G96">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="97" spans="1:7">
+        <v>8784.601370525832</v>
+      </c>
+      <c r="H96">
+        <v>253503.5099770779</v>
+      </c>
+      <c r="I96">
+        <v>1032372.211187789</v>
+      </c>
+    </row>
+    <row r="97" spans="1:9">
       <c r="A97" s="1">
         <v>95</v>
       </c>
-      <c r="B97" s="2">
-        <v>41782</v>
+      <c r="B97">
+        <v>832</v>
       </c>
       <c r="C97">
-        <v>-2554822.351143227</v>
+        <v>-6751321.525267133</v>
       </c>
       <c r="D97">
-        <v>5186.771349473056</v>
+        <v>3610.965851535762</v>
       </c>
       <c r="E97">
-        <v>1874239.827132089</v>
+        <v>1420734.514286746</v>
       </c>
       <c r="F97">
-        <v>-57054.48484420362</v>
+        <v>-39720.62436689338</v>
       </c>
       <c r="G97">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="98" spans="1:7">
+        <v>8882.586210858941</v>
+      </c>
+      <c r="H97">
+        <v>253503.5099770779</v>
+      </c>
+      <c r="I97">
+        <v>992749.5716612281</v>
+      </c>
+    </row>
+    <row r="98" spans="1:9">
       <c r="A98" s="1">
         <v>96</v>
       </c>
-      <c r="B98" s="2">
-        <v>41785</v>
+      <c r="B98">
+        <v>833</v>
       </c>
       <c r="C98">
-        <v>-2611876.835987431</v>
+        <v>-6791042.149634027</v>
       </c>
       <c r="D98">
-        <v>8058.069757652229</v>
+        <v>3610.965851535762</v>
       </c>
       <c r="E98">
-        <v>2885191.87672738</v>
+        <v>1420734.514286746</v>
       </c>
       <c r="F98">
-        <v>32232.27903060892</v>
+        <v>14443.86340614305</v>
       </c>
       <c r="G98">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="99" spans="1:7">
+        <v>8981.362495762249</v>
+      </c>
+      <c r="H98">
+        <v>253503.5099770779</v>
+      </c>
+      <c r="I98">
+        <v>1007292.211352275</v>
+      </c>
+    </row>
+    <row r="99" spans="1:9">
       <c r="A99" s="1">
         <v>97</v>
       </c>
-      <c r="B99" s="2">
-        <v>41786</v>
+      <c r="B99">
+        <v>834</v>
       </c>
       <c r="C99">
-        <v>-2618889.195237925</v>
+        <v>-6776598.286227884</v>
       </c>
       <c r="D99">
-        <v>6095.837843597084</v>
+        <v>3610.965851535762</v>
       </c>
       <c r="E99">
-        <v>2183529.115576475</v>
+        <v>1420734.514286746</v>
       </c>
       <c r="F99">
-        <v>-30479.18921798542</v>
+        <v>-18054.82925767881</v>
       </c>
       <c r="G99">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="100" spans="1:7">
+        <v>9079.149474952806</v>
+      </c>
+      <c r="H99">
+        <v>253503.5099770779</v>
+      </c>
+      <c r="I99">
+        <v>989335.1690737859</v>
+      </c>
+    </row>
+    <row r="100" spans="1:9">
       <c r="A100" s="1">
         <v>98</v>
       </c>
-      <c r="B100" s="2">
-        <v>41787</v>
+      <c r="B100">
+        <v>835</v>
       </c>
       <c r="C100">
-        <v>-2649368.38445591</v>
+        <v>-6794653.115485563</v>
       </c>
       <c r="D100">
-        <v>6592.224913340944</v>
+        <v>3610.965851535762</v>
       </c>
       <c r="E100">
-        <v>2377156.303750745</v>
+        <v>1420734.514286746</v>
       </c>
       <c r="F100">
-        <v>-13184.44982668189</v>
+        <v>-7221.931703071524</v>
       </c>
       <c r="G100">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="101" spans="1:7">
+        <v>9176.540731858266</v>
+      </c>
+      <c r="H100">
+        <v>253503.5099770779</v>
+      </c>
+      <c r="I100">
+        <v>982210.6286276204</v>
+      </c>
+    </row>
+    <row r="101" spans="1:9">
       <c r="A101" s="1">
         <v>99</v>
       </c>
-      <c r="B101" s="2">
-        <v>41788</v>
+      <c r="B101">
+        <v>836</v>
       </c>
       <c r="C101">
-        <v>-2744303.047468165</v>
+        <v>-6801875.047188634</v>
       </c>
       <c r="D101">
-        <v>5407.439214999305</v>
+        <v>3610.965851535762</v>
       </c>
       <c r="E101">
-        <v>1922344.640932253</v>
+        <v>1420734.514286746</v>
       </c>
       <c r="F101">
-        <v>-173038.0548799778</v>
+        <v>-115550.9072491444</v>
       </c>
       <c r="G101">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="102" spans="1:7">
+        <v>9267.600432202127</v>
+      </c>
+      <c r="H101">
+        <v>253503.5099770779</v>
+      </c>
+      <c r="I101">
+        <v>866750.7810788199</v>
+      </c>
+    </row>
+    <row r="102" spans="1:9">
       <c r="A102" s="1">
         <v>100</v>
       </c>
-      <c r="B102" s="2">
-        <v>41789</v>
+      <c r="B102">
+        <v>837</v>
       </c>
       <c r="C102">
-        <v>-2989019.746857022</v>
+        <v>-6917425.954437778</v>
       </c>
       <c r="D102">
-        <v>3521.159096344601</v>
+        <v>3610.965851535762</v>
       </c>
       <c r="E102">
-        <v>1235398.668952503</v>
+        <v>1420734.514286746</v>
       </c>
       <c r="F102">
-        <v>-137325.2047574394</v>
+        <v>-140827.6682098947</v>
       </c>
       <c r="G102">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="103" spans="1:7">
+        <v>9350.943547986542</v>
+      </c>
+      <c r="H102">
+        <v>253503.5099770779</v>
+      </c>
+      <c r="I102">
+        <v>726006.4559847096</v>
+      </c>
+    </row>
+    <row r="103" spans="1:9">
       <c r="A103" s="1">
         <v>101</v>
       </c>
-      <c r="B103" s="2">
-        <v>41792</v>
+      <c r="B103">
+        <v>838</v>
       </c>
       <c r="C103">
-        <v>-3142496.496819611</v>
+        <v>-7058253.622647673</v>
       </c>
       <c r="D103">
-        <v>3031.718332552178</v>
+        <v>3610.965851535762</v>
       </c>
       <c r="E103">
-        <v>1043669.035981087</v>
+        <v>1420734.514286746</v>
       </c>
       <c r="F103">
-        <v>6063.436665104356</v>
+        <v>7221.931703071524</v>
       </c>
       <c r="G103">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="104" spans="1:7">
+        <v>9434.682386056058</v>
+      </c>
+      <c r="H103">
+        <v>253503.5099770779</v>
+      </c>
+      <c r="I103">
+        <v>733312.1265258503</v>
+      </c>
+    </row>
+    <row r="104" spans="1:9">
       <c r="A104" s="1">
         <v>102</v>
       </c>
-      <c r="B104" s="2">
-        <v>41793</v>
+      <c r="B104">
+        <v>839</v>
       </c>
       <c r="C104">
-        <v>-3138609.818930138</v>
+        <v>-7051031.690944602</v>
       </c>
       <c r="D104">
-        <v>2886.601080843405</v>
+        <v>3610.965851535762</v>
       </c>
       <c r="E104">
-        <v>998042.3237016071</v>
+        <v>1420734.514286746</v>
       </c>
       <c r="F104">
-        <v>-75051.62810192852</v>
+        <v>-93885.11213992981</v>
       </c>
       <c r="G104">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="105" spans="1:7">
+        <v>9513.276834419275</v>
+      </c>
+      <c r="H104">
+        <v>253503.5099770779</v>
+      </c>
+      <c r="I104">
+        <v>639505.6088342837</v>
+      </c>
+    </row>
+    <row r="105" spans="1:9">
       <c r="A105" s="1">
         <v>103</v>
       </c>
-      <c r="B105" s="2">
-        <v>41794</v>
+      <c r="B105">
+        <v>840</v>
       </c>
       <c r="C105">
-        <v>-3213661.447032067</v>
+        <v>-7144916.803084532</v>
       </c>
       <c r="D105">
-        <v>3731.039511386239</v>
+        <v>3610.965851535762</v>
       </c>
       <c r="E105">
-        <v>1292245.534768624</v>
+        <v>1420734.514286746</v>
       </c>
       <c r="F105">
-        <v>115662.2248529734</v>
+        <v>111939.9413976086</v>
       </c>
       <c r="G105">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="106" spans="1:7">
+        <v>9598.004978201539</v>
+      </c>
+      <c r="H105">
+        <v>253503.5099770779</v>
+      </c>
+      <c r="I105">
+        <v>751530.2783756738</v>
+      </c>
+    </row>
+    <row r="106" spans="1:9">
       <c r="A106" s="1">
         <v>104</v>
       </c>
-      <c r="B106" s="2">
-        <v>41795</v>
+      <c r="B106">
+        <v>841</v>
       </c>
       <c r="C106">
-        <v>-3113742.735995782</v>
+        <v>-7032976.861686924</v>
       </c>
       <c r="D106">
-        <v>3206.255717496614</v>
+        <v>3610.965851535762</v>
       </c>
       <c r="E106">
-        <v>1120586.373265067</v>
+        <v>1420734.514286746</v>
       </c>
       <c r="F106">
-        <v>-125043.972982368</v>
+        <v>-140827.6682098947</v>
       </c>
       <c r="G106">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="107" spans="1:7">
+        <v>9675.016537424357</v>
+      </c>
+      <c r="H106">
+        <v>253503.5099770779</v>
+      </c>
+      <c r="I106">
+        <v>610779.6217250021</v>
+      </c>
+    </row>
+    <row r="107" spans="1:9">
       <c r="A107" s="1">
         <v>105</v>
       </c>
-      <c r="B107" s="2">
-        <v>41796</v>
+      <c r="B107">
+        <v>842</v>
       </c>
       <c r="C107">
-        <v>-3242766.548452944</v>
+        <v>-7173804.529896818</v>
       </c>
       <c r="D107">
-        <v>2808.271770017175</v>
+        <v>3610.965851535762</v>
       </c>
       <c r="E107">
-        <v>966326.3160629098</v>
+        <v>1420734.514286746</v>
       </c>
       <c r="F107">
-        <v>25274.44593015457</v>
+        <v>32498.69266382186</v>
       </c>
       <c r="G107">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="108" spans="1:7">
+        <v>9753.808846930124</v>
+      </c>
+      <c r="H107">
+        <v>253503.5099770779</v>
+      </c>
+      <c r="I107">
+        <v>643357.1066983303</v>
+      </c>
+    </row>
+    <row r="108" spans="1:9">
       <c r="A108" s="1">
         <v>106</v>
       </c>
-      <c r="B108" s="2">
-        <v>41799</v>
+      <c r="B108">
+        <v>843</v>
       </c>
       <c r="C108">
-        <v>-3218165.583058673</v>
+        <v>-7141305.837232996</v>
       </c>
       <c r="D108">
-        <v>2134.791234133948</v>
+        <v>3610.965851535762</v>
       </c>
       <c r="E108">
-        <v>735862.5384059718</v>
+        <v>1420734.514286746</v>
       </c>
       <c r="F108">
-        <v>-8539.164936535792</v>
+        <v>-14443.86340614305</v>
       </c>
       <c r="G108">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="109" spans="1:7">
+        <v>9831.809711865691</v>
+      </c>
+      <c r="H108">
+        <v>253503.5099770779</v>
+      </c>
+      <c r="I108">
+        <v>628991.2441571227</v>
+      </c>
+    </row>
+    <row r="109" spans="1:9">
       <c r="A109" s="1">
         <v>107</v>
       </c>
-      <c r="B109" s="2">
-        <v>41800</v>
+      <c r="B109">
+        <v>844</v>
       </c>
       <c r="C109">
-        <v>-3239830.906189751</v>
+        <v>-8290790.716490785</v>
       </c>
       <c r="D109">
-        <v>1197.208505952367</v>
+        <v>150.4749495490356</v>
       </c>
       <c r="E109">
-        <v>411420.7030705309</v>
+        <v>51710.71641252608</v>
       </c>
       <c r="F109">
-        <v>-29930.21264880917</v>
+        <v>-3761.87373872589</v>
       </c>
       <c r="G109">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="110" spans="1:7">
+        <v>9922.425421090786</v>
+      </c>
+      <c r="H109">
+        <v>269103.4029632341</v>
+      </c>
+      <c r="I109">
+        <v>1413462.893226657</v>
+      </c>
+    </row>
+    <row r="110" spans="1:9">
       <c r="A110" s="1">
         <v>108</v>
       </c>
-      <c r="B110" s="2">
-        <v>41801</v>
+      <c r="B110">
+        <v>845</v>
       </c>
       <c r="C110">
-        <v>-3286522.037921893</v>
+        <v>-8294552.59022951</v>
       </c>
       <c r="D110">
-        <v>-6.78237508455459</v>
+        <v>230.6028091871463</v>
       </c>
       <c r="E110">
-        <v>2298.207797401323</v>
+        <v>78139.76189306453</v>
       </c>
       <c r="F110">
-        <v>13.56475016910918</v>
+        <v>-461.2056183742927</v>
       </c>
       <c r="G110">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="111" spans="1:7">
+        <v>10011.5676918995</v>
+      </c>
+      <c r="H110">
+        <v>269465.4206330791</v>
+      </c>
+      <c r="I110">
+        <v>1394107.924762203</v>
+      </c>
+    </row>
+    <row r="111" spans="1:9">
       <c r="A111" s="1">
         <v>109</v>
       </c>
-      <c r="B111" s="2">
-        <v>41802</v>
+      <c r="B111">
+        <v>846</v>
       </c>
       <c r="C111">
-        <v>-3286508.473171724</v>
+        <v>-8295013.795847884</v>
       </c>
       <c r="D111">
-        <v>-942.7512988565099</v>
+        <v>492.6359261568185</v>
       </c>
       <c r="E111">
-        <v>321996.706124441</v>
+        <v>168259.8005788614</v>
       </c>
       <c r="F111">
-        <v>-33939.04675883436</v>
+        <v>17734.89334164547</v>
       </c>
       <c r="G111">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="112" spans="1:7">
+        <v>10096.74365337429</v>
+      </c>
+      <c r="H111">
+        <v>270658.719447759</v>
+      </c>
+      <c r="I111">
+        <v>1343433.863495583</v>
+      </c>
+    </row>
+    <row r="112" spans="1:9">
       <c r="A112" s="1">
         <v>110</v>
       </c>
-      <c r="B112" s="2">
-        <v>41803</v>
+      <c r="B112">
+        <v>847</v>
       </c>
       <c r="C112">
-        <v>-3320447.519930559</v>
+        <v>-8277278.902506239</v>
       </c>
       <c r="D112">
-        <v>-1234.4784928928</v>
+        <v>492.6359261568185</v>
       </c>
       <c r="E112">
-        <v>429968.8590745622</v>
+        <v>168259.8005788614</v>
       </c>
       <c r="F112">
-        <v>-29627.4838294272</v>
+        <v>11823.26222776364</v>
       </c>
       <c r="G112">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="113" spans="1:7">
+        <v>10182.56746483416</v>
+      </c>
+      <c r="H112">
+        <v>270658.719447759</v>
+      </c>
+      <c r="I112">
+        <v>1355342.949534806</v>
+      </c>
+    </row>
+    <row r="113" spans="1:9">
       <c r="A113" s="1">
         <v>111</v>
       </c>
-      <c r="B113" s="2">
-        <v>41806</v>
+      <c r="B113">
+        <v>848</v>
       </c>
       <c r="C113">
-        <v>-3350075.003759986</v>
+        <v>-8265455.640278475</v>
       </c>
       <c r="D113">
-        <v>-1569.951019892284</v>
+        <v>492.6359261568185</v>
       </c>
       <c r="E113">
-        <v>546813.9402284824</v>
+        <v>168259.8005788614</v>
       </c>
       <c r="F113">
-        <v>18839.41223870741</v>
+        <v>-5911.631113881822</v>
       </c>
       <c r="G113">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="114" spans="1:7">
+        <v>10268.06735130149</v>
+      </c>
+      <c r="H113">
+        <v>270658.719447759</v>
+      </c>
+      <c r="I113">
+        <v>1349516.818307392</v>
+      </c>
+    </row>
+    <row r="114" spans="1:9">
       <c r="A114" s="1">
         <v>112</v>
       </c>
-      <c r="B114" s="2">
-        <v>41807</v>
+      <c r="B114">
+        <v>849</v>
       </c>
       <c r="C114">
-        <v>-3331235.591521278</v>
+        <v>-8271367.271392358</v>
       </c>
       <c r="D114">
-        <v>-2606.454699527155</v>
+        <v>492.6359261568185</v>
       </c>
       <c r="E114">
-        <v>910955.9174847406</v>
+        <v>168259.8005788614</v>
       </c>
       <c r="F114">
-        <v>-41703.27519243448</v>
+        <v>7882.174818509096</v>
       </c>
       <c r="G114">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="115" spans="1:7">
+        <v>10353.99913775888</v>
+      </c>
+      <c r="H114">
+        <v>270658.719447759</v>
+      </c>
+      <c r="I114">
+        <v>1357484.924912358</v>
+      </c>
+    </row>
+    <row r="115" spans="1:9">
       <c r="A115" s="1">
         <v>113</v>
       </c>
-      <c r="B115" s="2">
-        <v>41808</v>
+      <c r="B115">
+        <v>850</v>
       </c>
       <c r="C115">
-        <v>-3372938.866713713</v>
+        <v>-8263485.096573848</v>
       </c>
       <c r="D115">
-        <v>-3442.90409487181</v>
+        <v>492.6359261568185</v>
       </c>
       <c r="E115">
-        <v>1213623.693442313</v>
+        <v>168259.8005788614</v>
       </c>
       <c r="F115">
-        <v>-61972.27370769258</v>
+        <v>8867.446670822734</v>
       </c>
       <c r="G115">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="116" spans="1:7">
+        <v>10440.41681170508</v>
+      </c>
+      <c r="H115">
+        <v>270658.719447759</v>
+      </c>
+      <c r="I115">
+        <v>1366438.789257127</v>
+      </c>
+    </row>
+    <row r="116" spans="1:9">
       <c r="A116" s="1">
         <v>114</v>
       </c>
-      <c r="B116" s="2">
-        <v>41809</v>
+      <c r="B116">
+        <v>851</v>
       </c>
       <c r="C116">
-        <v>-3468781.1448758</v>
+        <v>-8254617.649903025</v>
       </c>
       <c r="D116">
-        <v>-2416.540323526529</v>
+        <v>492.6359261568185</v>
       </c>
       <c r="E116">
-        <v>853280.3882372173</v>
+        <v>168259.8005788614</v>
       </c>
       <c r="F116">
-        <v>41081.18549995099</v>
+        <v>-8374.810744665914</v>
       </c>
       <c r="G116">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="117" spans="1:7">
+        <v>10526.37559191184</v>
+      </c>
+      <c r="H116">
+        <v>270658.719447759</v>
+      </c>
+      <c r="I116">
+        <v>1358149.937292669</v>
+      </c>
+    </row>
+    <row r="117" spans="1:9">
       <c r="A117" s="1">
         <v>115</v>
       </c>
-      <c r="B117" s="2">
-        <v>41810</v>
+      <c r="B117">
+        <v>852</v>
       </c>
       <c r="C117">
-        <v>-3427699.959375849</v>
+        <v>-8262992.460647691</v>
       </c>
       <c r="D117">
-        <v>-3164.132683468074</v>
+        <v>492.6359261568185</v>
       </c>
       <c r="E117">
-        <v>1115831.390825016</v>
+        <v>168259.8005788614</v>
       </c>
       <c r="F117">
-        <v>72775.05171976572</v>
+        <v>-11330.62630160683</v>
       </c>
       <c r="G117">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="118" spans="1:7">
+        <v>10611.7135158829</v>
+      </c>
+      <c r="H117">
+        <v>270658.719447759</v>
+      </c>
+      <c r="I117">
+        <v>1346904.648915032</v>
+      </c>
+    </row>
+    <row r="118" spans="1:9">
       <c r="A118" s="1">
         <v>116</v>
       </c>
-      <c r="B118" s="2">
-        <v>41813</v>
+      <c r="B118">
+        <v>853</v>
       </c>
       <c r="C118">
-        <v>-3359310.265017791</v>
+        <v>-8274323.086949298</v>
       </c>
       <c r="D118">
-        <v>-2906.170485720549</v>
+        <v>492.6359261568185</v>
       </c>
       <c r="E118">
-        <v>1030963.979809365</v>
+        <v>168259.8005788614</v>
       </c>
       <c r="F118">
-        <v>-61029.58020013152</v>
+        <v>10345.35444929319</v>
       </c>
       <c r="G118">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="119" spans="1:7">
+        <v>10697.61830859091</v>
+      </c>
+      <c r="H118">
+        <v>270658.719447759</v>
+      </c>
+      <c r="I118">
+        <v>1357335.908157034</v>
+      </c>
+    </row>
+    <row r="119" spans="1:9">
       <c r="A119" s="1">
         <v>117</v>
       </c>
-      <c r="B119" s="2">
-        <v>41814</v>
+      <c r="B119">
+        <v>854</v>
       </c>
       <c r="C119">
-        <v>-3420339.845217923</v>
+        <v>-8263977.732500005</v>
       </c>
       <c r="D119">
-        <v>-3204.511417554209</v>
+        <v>492.6359261568185</v>
       </c>
       <c r="E119">
-        <v>1138723.132227888</v>
+        <v>168259.8005788614</v>
       </c>
       <c r="F119">
-        <v>-22431.57992287946</v>
+        <v>3448.45148309773</v>
       </c>
       <c r="G119">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="120" spans="1:7">
+        <v>10783.71205754457</v>
+      </c>
+      <c r="H119">
+        <v>270658.719447759</v>
+      </c>
+      <c r="I119">
+        <v>1360870.453389086</v>
+      </c>
+    </row>
+    <row r="120" spans="1:9">
       <c r="A120" s="1">
         <v>118</v>
       </c>
-      <c r="B120" s="2">
-        <v>41815</v>
+      <c r="B120">
+        <v>855</v>
       </c>
       <c r="C120">
-        <v>-3452721.021691268</v>
+        <v>-8260529.281016907</v>
       </c>
       <c r="D120">
-        <v>-2300.002640239178</v>
+        <v>492.6359261568185</v>
       </c>
       <c r="E120">
-        <v>823860.9457336736</v>
+        <v>168259.8005788614</v>
       </c>
       <c r="F120">
-        <v>27600.03168287014</v>
+        <v>-5911.631113881822</v>
       </c>
       <c r="G120">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="121" spans="1:7">
+        <v>10869.48188150568</v>
+      </c>
+      <c r="H120">
+        <v>270658.719447759</v>
+      </c>
+      <c r="I120">
+        <v>1355044.592099164</v>
+      </c>
+    </row>
+    <row r="121" spans="1:9">
       <c r="A121" s="1">
         <v>119</v>
       </c>
-      <c r="B121" s="2">
-        <v>41816</v>
+      <c r="B121">
+        <v>856</v>
       </c>
       <c r="C121">
-        <v>-3425120.990008397</v>
+        <v>-8266440.912130789</v>
       </c>
       <c r="D121">
-        <v>-4834.664305725973</v>
+        <v>492.6359261568185</v>
       </c>
       <c r="E121">
-        <v>1725249.957498313</v>
+        <v>168259.8005788614</v>
       </c>
       <c r="F121">
-        <v>67685.30028016362</v>
+        <v>-6896.902966195459</v>
       </c>
       <c r="G121">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="122" spans="1:7">
+        <v>10954.8737929755</v>
+      </c>
+      <c r="H121">
+        <v>270658.719447759</v>
+      </c>
+      <c r="I121">
+        <v>1348233.081044439</v>
+      </c>
+    </row>
+    <row r="122" spans="1:9">
       <c r="A122" s="1">
         <v>120</v>
       </c>
-      <c r="B122" s="2">
-        <v>41817</v>
+      <c r="B122">
+        <v>857</v>
       </c>
       <c r="C122">
-        <v>-3404445.059149706</v>
+        <v>-8273337.815096985</v>
       </c>
       <c r="D122">
-        <v>-4122.401132673365</v>
+        <v>492.6359261568185</v>
       </c>
       <c r="E122">
-        <v>1450672.958587757</v>
+        <v>168259.8005788614</v>
       </c>
       <c r="F122">
-        <v>98937.62718416077</v>
+        <v>-11823.26222776364</v>
       </c>
       <c r="G122">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="123" spans="1:7">
+        <v>11039.61785446023</v>
+      </c>
+      <c r="H122">
+        <v>270658.719447759</v>
+      </c>
+      <c r="I122">
+        <v>1336494.56287816</v>
+      </c>
+    </row>
+    <row r="123" spans="1:9">
       <c r="A123" s="1">
         <v>121</v>
       </c>
-      <c r="B123" s="2">
-        <v>41820</v>
+      <c r="B123">
+        <v>858</v>
       </c>
       <c r="C123">
-        <v>-3305507.431965545</v>
+        <v>-8285161.077324748</v>
       </c>
       <c r="D123">
-        <v>-4142.960111836583</v>
+        <v>492.6359261568185</v>
       </c>
       <c r="E123">
-        <v>1440507.23088558</v>
+        <v>168259.8005788614</v>
       </c>
       <c r="F123">
-        <v>24857.7606710195</v>
+        <v>-2955.815556940911</v>
       </c>
       <c r="G123">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="124" spans="1:7">
+        <v>11124.19995344869</v>
+      </c>
+      <c r="H123">
+        <v>270658.719447759</v>
+      </c>
+      <c r="I123">
+        <v>1333623.329420208</v>
+      </c>
+    </row>
+    <row r="124" spans="1:9">
       <c r="A124" s="1">
         <v>122</v>
       </c>
-      <c r="B124" s="2">
-        <v>41821</v>
+      <c r="B124">
+        <v>859</v>
       </c>
       <c r="C124">
-        <v>-3309118.459969112</v>
+        <v>-8288116.892881689</v>
       </c>
       <c r="D124">
-        <v>-3634.588885504688</v>
+        <v>492.6359261568185</v>
       </c>
       <c r="E124">
-        <v>1255023.542164769</v>
+        <v>168259.8005788614</v>
       </c>
       <c r="F124">
-        <v>-87230.13325211252</v>
+        <v>11823.26222776364</v>
       </c>
       <c r="G124">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="125" spans="1:7">
+        <v>11209.42990242224</v>
+      </c>
+      <c r="H124">
+        <v>270658.719447759</v>
+      </c>
+      <c r="I124">
+        <v>1345531.821596945</v>
+      </c>
+    </row>
+    <row r="125" spans="1:9">
       <c r="A125" s="1">
         <v>123</v>
       </c>
-      <c r="B125" s="2">
-        <v>41822</v>
+      <c r="B125">
+        <v>860</v>
       </c>
       <c r="C125">
-        <v>-3383848.757356236</v>
+        <v>-8276293.630653925</v>
       </c>
       <c r="D125">
-        <v>-3009.597092255281</v>
+        <v>492.6359261568185</v>
       </c>
       <c r="E125">
-        <v>1044179.71115797</v>
+        <v>168259.8005788614</v>
       </c>
       <c r="F125">
-        <v>-33105.56801480809</v>
+        <v>5418.995187725004</v>
       </c>
       <c r="G125">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="126" spans="1:7">
+        <v>11294.95678263895</v>
+      </c>
+      <c r="H125">
+        <v>270658.719447759</v>
+      </c>
+      <c r="I125">
+        <v>1351036.343664886</v>
+      </c>
+    </row>
+    <row r="126" spans="1:9">
       <c r="A126" s="1">
         <v>124</v>
       </c>
-      <c r="B126" s="2">
-        <v>41823</v>
+      <c r="B126">
+        <v>861</v>
       </c>
       <c r="C126">
-        <v>-3412792.62438705</v>
+        <v>-8270874.6354662</v>
       </c>
       <c r="D126">
-        <v>-2315.980261589623</v>
+        <v>492.6359261568185</v>
       </c>
       <c r="E126">
-        <v>800750.1754446122</v>
+        <v>168259.8005788614</v>
       </c>
       <c r="F126">
-        <v>-30107.7434006651</v>
+        <v>6404.267040038641</v>
       </c>
       <c r="G126">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="127" spans="1:7">
+        <v>11380.83458159758</v>
+      </c>
+      <c r="H126">
+        <v>270658.719447759</v>
+      </c>
+      <c r="I126">
+        <v>1357526.488503883</v>
+      </c>
+    </row>
+    <row r="127" spans="1:9">
       <c r="A127" s="1">
         <v>125</v>
       </c>
-      <c r="B127" s="2">
-        <v>41824</v>
+      <c r="B127">
+        <v>862</v>
       </c>
       <c r="C127">
-        <v>-3453591.180625604</v>
+        <v>-8264470.368426162</v>
       </c>
       <c r="D127">
-        <v>-1425.079191765513</v>
+        <v>492.6359261568185</v>
       </c>
       <c r="E127">
-        <v>493789.9399467501</v>
+        <v>168259.8005788614</v>
       </c>
       <c r="F127">
-        <v>34201.90060237231</v>
+        <v>-11823.26222776364</v>
       </c>
       <c r="G127">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="128" spans="1:7">
+        <v>11466.06453057112</v>
+      </c>
+      <c r="H127">
+        <v>270658.719447759</v>
+      </c>
+      <c r="I127">
+        <v>1345788.456225094</v>
+      </c>
+    </row>
+    <row r="128" spans="1:9">
       <c r="A128" s="1">
         <v>126</v>
       </c>
-      <c r="B128" s="2">
-        <v>41827</v>
+      <c r="B128">
+        <v>863</v>
       </c>
       <c r="C128">
-        <v>-3420729.820898864</v>
+        <v>-8276293.630653925</v>
       </c>
       <c r="D128">
-        <v>-754.808753949353</v>
+        <v>492.6359261568185</v>
       </c>
       <c r="E128">
-        <v>260522.2414256192</v>
+        <v>168259.8005788614</v>
       </c>
       <c r="F128">
-        <v>-8302.896293442884</v>
+        <v>5418.995187725004</v>
       </c>
       <c r="G128">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="129" spans="1:7">
+        <v>11551.59141078783</v>
+      </c>
+      <c r="H128">
+        <v>270658.719447759</v>
+      </c>
+      <c r="I128">
+        <v>1351292.978293035</v>
+      </c>
+    </row>
+    <row r="129" spans="1:9">
       <c r="A129" s="1">
         <v>127</v>
       </c>
-      <c r="B129" s="2">
-        <v>41828</v>
+      <c r="B129">
+        <v>864</v>
       </c>
       <c r="C129">
-        <v>-3434247.038316781</v>
+        <v>-8270874.6354662</v>
       </c>
       <c r="D129">
-        <v>-407.1873456511012</v>
+        <v>492.6359261568185</v>
       </c>
       <c r="E129">
-        <v>140052.0875366962</v>
+        <v>168259.8005788614</v>
       </c>
       <c r="F129">
-        <v>10586.87098692863</v>
+        <v>-12808.53408007728</v>
       </c>
       <c r="G129">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="130" spans="1:7">
+        <v>11636.4164535207</v>
+      </c>
+      <c r="H129">
+        <v>270658.719447759</v>
+      </c>
+      <c r="I129">
+        <v>1338569.269255691</v>
+      </c>
+    </row>
+    <row r="130" spans="1:9">
       <c r="A130" s="1">
         <v>128</v>
       </c>
-      <c r="B130" s="2">
-        <v>41829</v>
+      <c r="B130">
+        <v>865</v>
       </c>
       <c r="C130">
-        <v>-3425386.05272704</v>
+        <v>-8283683.169546277</v>
       </c>
       <c r="D130">
-        <v>-325.002326737402</v>
+        <v>492.6359261568185</v>
       </c>
       <c r="E130">
-        <v>110078.2880659581</v>
+        <v>168259.8005788614</v>
       </c>
       <c r="F130">
-        <v>-325.002326737402</v>
+        <v>492.6359261568185</v>
       </c>
       <c r="G130">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="131" spans="1:7">
+        <v>11721.26849000295</v>
+      </c>
+      <c r="H130">
+        <v>270658.719447759</v>
+      </c>
+      <c r="I130">
+        <v>1339146.757218331</v>
+      </c>
+    </row>
+    <row r="131" spans="1:9">
       <c r="A131" s="1">
         <v>129</v>
       </c>
-      <c r="B131" s="2">
-        <v>41830</v>
+      <c r="B131">
+        <v>866</v>
       </c>
       <c r="C131">
-        <v>-3425711.055053778</v>
+        <v>-8283190.53362012</v>
       </c>
       <c r="D131">
-        <v>-485.5407438214597</v>
+        <v>492.6359261568185</v>
       </c>
       <c r="E131">
-        <v>165545.1166059267</v>
+        <v>168259.8005788614</v>
       </c>
       <c r="F131">
-        <v>-17479.46677757255</v>
+        <v>17734.89334164547</v>
       </c>
       <c r="G131">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="132" spans="1:7">
+        <v>11807.09230146282</v>
+      </c>
+      <c r="H131">
+        <v>270658.719447759</v>
+      </c>
+      <c r="I131">
+        <v>1356967.474371436</v>
+      </c>
+    </row>
+    <row r="132" spans="1:9">
       <c r="A132" s="1">
         <v>130</v>
       </c>
-      <c r="B132" s="2">
-        <v>41831</v>
+      <c r="B132">
+        <v>867</v>
       </c>
       <c r="C132">
-        <v>-3443190.52183135</v>
+        <v>-8265455.640278474</v>
       </c>
       <c r="D132">
-        <v>-834.2591710964061</v>
+        <v>492.6359261568185</v>
       </c>
       <c r="E132">
-        <v>284315.5255096552</v>
+        <v>168259.8005788614</v>
       </c>
       <c r="F132">
-        <v>37541.66269933827</v>
+        <v>-22168.61667705683</v>
       </c>
       <c r="G132">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="133" spans="1:7">
+        <v>11891.70139420066</v>
+      </c>
+      <c r="H132">
+        <v>270658.719447759</v>
+      </c>
+      <c r="I132">
+        <v>1334883.466787117</v>
+      </c>
+    </row>
+    <row r="133" spans="1:9">
       <c r="A133" s="1">
         <v>131</v>
       </c>
-      <c r="B133" s="2">
-        <v>41834</v>
+      <c r="B133">
+        <v>868</v>
       </c>
       <c r="C133">
-        <v>-3405648.859132012</v>
+        <v>-8287624.256955531</v>
       </c>
       <c r="D133">
-        <v>-996.9104664428827</v>
+        <v>492.6359261568185</v>
       </c>
       <c r="E133">
-        <v>330176.7464858827</v>
+        <v>168259.8005788614</v>
       </c>
       <c r="F133">
-        <v>26916.58259395783</v>
+        <v>-13301.1700062341</v>
       </c>
       <c r="G133">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="134" spans="1:7">
+        <v>11975.58165570528</v>
+      </c>
+      <c r="H133">
+        <v>270658.719447759</v>
+      </c>
+      <c r="I133">
+        <v>1321666.177042387</v>
+      </c>
+    </row>
+    <row r="134" spans="1:9">
       <c r="A134" s="1">
         <v>132</v>
       </c>
-      <c r="B134" s="2">
-        <v>41836</v>
+      <c r="B134">
+        <v>869</v>
       </c>
       <c r="C134">
-        <v>-3378732.276538054</v>
+        <v>-8300925.426961766</v>
       </c>
       <c r="D134">
-        <v>-1015.091271980315</v>
+        <v>492.6359261568185</v>
       </c>
       <c r="E134">
-        <v>336655.0203522715</v>
+        <v>168259.8005788614</v>
       </c>
       <c r="F134">
-        <v>-11166.00399178347</v>
+        <v>5418.995187725004</v>
       </c>
       <c r="G134">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="135" spans="1:7">
+        <v>12059.75884845307</v>
+      </c>
+      <c r="H134">
+        <v>270658.719447759</v>
+      </c>
+      <c r="I134">
+        <v>1327169.34942286</v>
+      </c>
+    </row>
+    <row r="135" spans="1:9">
       <c r="A135" s="1">
         <v>133</v>
       </c>
-      <c r="B135" s="2">
-        <v>41837</v>
+      <c r="B135">
+        <v>870</v>
       </c>
       <c r="C135">
-        <v>-3389898.280529838</v>
+        <v>-8295506.431774041</v>
       </c>
       <c r="D135">
-        <v>-1026.88865724339</v>
+        <v>492.6359261568185</v>
       </c>
       <c r="E135">
-        <v>342107.9561606355</v>
+        <v>168259.8005788614</v>
       </c>
       <c r="F135">
-        <v>6161.331943460342</v>
+        <v>-2955.815556940911</v>
       </c>
       <c r="G135">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="136" spans="1:7">
+        <v>12143.77407870458</v>
+      </c>
+      <c r="H135">
+        <v>270658.719447759</v>
+      </c>
+      <c r="I135">
+        <v>1324297.549096171</v>
+      </c>
+    </row>
+    <row r="136" spans="1:9">
       <c r="A136" s="1">
         <v>134</v>
       </c>
-      <c r="B136" s="2">
-        <v>41838</v>
+      <c r="B136">
+        <v>871</v>
       </c>
       <c r="C136">
-        <v>-3383736.948586377</v>
+        <v>-8298462.247330981</v>
       </c>
       <c r="D136">
-        <v>-1075.004185955038</v>
+        <v>492.6359261568185</v>
       </c>
       <c r="E136">
-        <v>355557.6345046287</v>
+        <v>168259.8005788614</v>
       </c>
       <c r="F136">
-        <v>-24725.09627696587</v>
+        <v>11330.62630160683</v>
       </c>
       <c r="G136">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="137" spans="1:7">
+        <v>12228.4101651918</v>
+      </c>
+      <c r="H136">
+        <v>270658.719447759</v>
+      </c>
+      <c r="I136">
+        <v>1335712.811484265</v>
+      </c>
+    </row>
+    <row r="137" spans="1:9">
       <c r="A137" s="1">
         <v>135</v>
       </c>
-      <c r="B137" s="2">
-        <v>41841</v>
+      <c r="B137">
+        <v>872</v>
       </c>
       <c r="C137">
-        <v>-3408462.044863343</v>
+        <v>-8287131.621029374</v>
       </c>
       <c r="D137">
-        <v>-1182.900730771554</v>
+        <v>492.6359261568185</v>
       </c>
       <c r="E137">
-        <v>390002.3709353812</v>
+        <v>168259.8005788614</v>
       </c>
       <c r="F137">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="G137">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="138" spans="1:7">
+        <v>12313.04625167902</v>
+      </c>
+      <c r="H137">
+        <v>270658.719447759</v>
+      </c>
+      <c r="I137">
+        <v>1335797.447570753</v>
+      </c>
+    </row>
+    <row r="138" spans="1:9">
       <c r="A138" s="1">
         <v>136</v>
       </c>
-      <c r="B138" s="2">
-        <v>41842</v>
+      <c r="B138">
+        <v>873</v>
       </c>
       <c r="C138">
-        <v>-3408462.044863343</v>
+        <v>-8287131.621029374</v>
       </c>
       <c r="D138">
-        <v>-2898.018220075998</v>
+        <v>492.6359261568185</v>
       </c>
       <c r="E138">
-        <v>950694.877095931</v>
+        <v>168259.8005788614</v>
       </c>
       <c r="F138">
-        <v>34776.21864091197</v>
+        <v>-5911.631113881822</v>
       </c>
       <c r="G138">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="139" spans="1:7">
+        <v>12397.3584131737</v>
+      </c>
+      <c r="H138">
+        <v>270658.719447759</v>
+      </c>
+      <c r="I138">
+        <v>1329970.128618365</v>
+      </c>
+    </row>
+    <row r="139" spans="1:9">
       <c r="A139" s="1">
         <v>137</v>
       </c>
-      <c r="B139" s="2">
-        <v>41843</v>
+      <c r="B139">
+        <v>874</v>
       </c>
       <c r="C139">
-        <v>-3373685.826222431</v>
+        <v>-8293043.252143256</v>
       </c>
       <c r="D139">
-        <v>-3748.158198636287</v>
+        <v>492.6359261568185</v>
       </c>
       <c r="E139">
-        <v>1221712.164845498</v>
+        <v>168259.8005788614</v>
       </c>
       <c r="F139">
-        <v>82459.4803699983</v>
+        <v>-10837.99037545001</v>
       </c>
       <c r="G139">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="140" spans="1:7">
+        <v>12481.07671218206</v>
+      </c>
+      <c r="H139">
+        <v>270658.719447759</v>
+      </c>
+      <c r="I139">
+        <v>1319215.856541923</v>
+      </c>
+    </row>
+    <row r="140" spans="1:9">
       <c r="A140" s="1">
         <v>138</v>
       </c>
-      <c r="B140" s="2">
-        <v>41844</v>
+      <c r="B140">
+        <v>875</v>
       </c>
       <c r="C140">
-        <v>-3291226.345852433</v>
+        <v>-8303881.242518706</v>
       </c>
       <c r="D140">
-        <v>-3944.104536232623</v>
+        <v>492.6359261568185</v>
       </c>
       <c r="E140">
-        <v>1288538.951987198</v>
+        <v>168259.8005788614</v>
       </c>
       <c r="F140">
-        <v>-43385.14989855886</v>
+        <v>5418.995187725004</v>
       </c>
       <c r="G140">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="141" spans="1:7">
+        <v>12565.09194243357</v>
+      </c>
+      <c r="H140">
+        <v>270658.719447759</v>
+      </c>
+      <c r="I140">
+        <v>1324718.8669599</v>
+      </c>
+    </row>
+    <row r="141" spans="1:9">
       <c r="A141" s="1">
         <v>139</v>
       </c>
-      <c r="B141" s="2">
-        <v>41845</v>
+      <c r="B141">
+        <v>876</v>
       </c>
       <c r="C141">
-        <v>-3334611.495750992</v>
+        <v>-8298462.247330981</v>
       </c>
       <c r="D141">
-        <v>-6456.789084665181</v>
+        <v>492.6359261568185</v>
       </c>
       <c r="E141">
-        <v>2120086.695949812</v>
+        <v>168259.8005788614</v>
       </c>
       <c r="F141">
-        <v>148506.1489472992</v>
+        <v>-11330.62630160683</v>
       </c>
       <c r="G141">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="142" spans="1:7">
+        <v>12648.48631644938</v>
+      </c>
+      <c r="H141">
+        <v>270658.719447759</v>
+      </c>
+      <c r="I141">
+        <v>1313471.635032309</v>
+      </c>
+    </row>
+    <row r="142" spans="1:9">
       <c r="A142" s="1">
         <v>140</v>
       </c>
-      <c r="B142" s="2">
-        <v>41850</v>
+      <c r="B142">
+        <v>877</v>
       </c>
       <c r="C142">
-        <v>-3186105.346803693</v>
+        <v>-8309792.873632588</v>
       </c>
       <c r="D142">
-        <v>-7094.418637867278</v>
+        <v>492.6359261568185</v>
       </c>
       <c r="E142">
-        <v>2322003.22017396</v>
+        <v>168259.8005788614</v>
       </c>
       <c r="F142">
-        <v>148982.7913952128</v>
+        <v>-10345.35444929319</v>
       </c>
       <c r="G142">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="143" spans="1:7">
+        <v>12731.31382172824</v>
+      </c>
+      <c r="H142">
+        <v>270658.719447759</v>
+      </c>
+      <c r="I142">
+        <v>1303209.108088294</v>
+      </c>
+    </row>
+    <row r="143" spans="1:9">
       <c r="A143" s="1">
         <v>141</v>
       </c>
-      <c r="B143" s="2">
-        <v>41851</v>
+      <c r="B143">
+        <v>878</v>
       </c>
       <c r="C143">
-        <v>-3041266.630662666</v>
+        <v>-8320138.228081882</v>
       </c>
       <c r="D143">
-        <v>-6988.16029801636</v>
+        <v>492.6359261568185</v>
       </c>
       <c r="E143">
-        <v>2278839.073183135</v>
+        <v>168259.8005788614</v>
       </c>
       <c r="F143">
-        <v>111810.5647682618</v>
+        <v>-7882.174818509096</v>
       </c>
       <c r="G143">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="144" spans="1:7">
+        <v>12813.70942701705</v>
+      </c>
+      <c r="H143">
+        <v>270658.719447759</v>
+      </c>
+      <c r="I143">
+        <v>1295409.328875073</v>
+      </c>
+    </row>
+    <row r="144" spans="1:9">
       <c r="A144" s="1">
         <v>142</v>
       </c>
-      <c r="B144" s="2">
-        <v>41852</v>
+      <c r="B144">
+        <v>879</v>
       </c>
       <c r="C144">
-        <v>-2929456.065894404</v>
+        <v>-8328020.402900391</v>
       </c>
       <c r="D144">
-        <v>-7857.67988681681</v>
+        <v>492.6359261568185</v>
       </c>
       <c r="E144">
-        <v>2571818.626955142</v>
+        <v>168259.8005788614</v>
       </c>
       <c r="F144">
-        <v>-165011.277623153</v>
+        <v>10345.35444929319</v>
       </c>
       <c r="G144">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="145" spans="1:7">
+        <v>12896.67190104281</v>
+      </c>
+      <c r="H144">
+        <v>270658.719447759</v>
+      </c>
+      <c r="I144">
+        <v>1305837.645798393</v>
+      </c>
+    </row>
+    <row r="145" spans="1:9">
       <c r="A145" s="1">
         <v>143</v>
       </c>
-      <c r="B145" s="2">
-        <v>41855</v>
+      <c r="B145">
+        <v>880</v>
       </c>
       <c r="C145">
-        <v>-3116322.002980758</v>
+        <v>-8317675.048451098</v>
       </c>
       <c r="D145">
-        <v>-7214.895784957934</v>
+        <v>492.6359261568185</v>
       </c>
       <c r="E145">
-        <v>2340872.937429601</v>
+        <v>168259.8005788614</v>
       </c>
       <c r="F145">
-        <v>-36074.47892478967</v>
+        <v>2463.179630784093</v>
       </c>
       <c r="G145">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="146" spans="1:7">
+        <v>12979.76934381546</v>
+      </c>
+      <c r="H145">
+        <v>270658.719447759</v>
+      </c>
+      <c r="I145">
+        <v>1308383.92287195</v>
+      </c>
+    </row>
+    <row r="146" spans="1:9">
       <c r="A146" s="1">
         <v>144</v>
       </c>
-      <c r="B146" s="2">
-        <v>41856</v>
+      <c r="B146">
+        <v>881</v>
       </c>
       <c r="C146">
-        <v>-3152396.481905548</v>
+        <v>-8315211.868820313</v>
       </c>
       <c r="D146">
-        <v>-7780.361406538196</v>
+        <v>492.6359261568185</v>
       </c>
       <c r="E146">
-        <v>2536008.800461125</v>
+        <v>168259.8005788614</v>
       </c>
       <c r="F146">
-        <v>155607.2281307639</v>
+        <v>-9852.718523136371</v>
       </c>
       <c r="G146">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="147" spans="1:7">
+        <v>13062.32691160054</v>
+      </c>
+      <c r="H146">
+        <v>270658.719447759</v>
+      </c>
+      <c r="I146">
+        <v>1298613.761916599</v>
+      </c>
+    </row>
+    <row r="147" spans="1:9">
       <c r="A147" s="1">
         <v>145</v>
       </c>
-      <c r="B147" s="2">
-        <v>41857</v>
+      <c r="B147">
+        <v>882</v>
       </c>
       <c r="C147">
-        <v>-2996789.253774784</v>
+        <v>-8325064.58734345</v>
       </c>
       <c r="D147">
-        <v>-8015.010153052607</v>
+        <v>492.6359261568185</v>
       </c>
       <c r="E147">
-        <v>2590852.031974255</v>
+        <v>168259.8005788614</v>
       </c>
       <c r="F147">
-        <v>64120.08122442086</v>
+        <v>-3941.087409254548</v>
       </c>
       <c r="G147">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="148" spans="1:7">
+        <v>13144.66852939059</v>
+      </c>
+      <c r="H147">
+        <v>270658.719447759</v>
+      </c>
+      <c r="I147">
+        <v>1294755.016125134</v>
+      </c>
+    </row>
+    <row r="148" spans="1:9">
       <c r="A148" s="1">
         <v>146</v>
       </c>
-      <c r="B148" s="2">
-        <v>41858</v>
+      <c r="B148">
+        <v>883</v>
       </c>
       <c r="C148">
-        <v>-2932669.172550363</v>
+        <v>-8329005.674752704</v>
       </c>
       <c r="D148">
-        <v>-8132.90971553163</v>
+        <v>492.6359261568185</v>
       </c>
       <c r="E148">
-        <v>2628963.065545599</v>
+        <v>168259.8005788614</v>
       </c>
       <c r="F148">
-        <v>8132.90971553163</v>
+        <v>-492.6359261568185</v>
       </c>
       <c r="G148">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="149" spans="1:7">
+        <v>13226.98315343126</v>
+      </c>
+      <c r="H148">
+        <v>270658.719447759</v>
+      </c>
+      <c r="I148">
+        <v>1294344.694823018</v>
+      </c>
+    </row>
+    <row r="149" spans="1:9">
       <c r="A149" s="1">
         <v>147</v>
       </c>
-      <c r="B149" s="2">
-        <v>41859</v>
+      <c r="B149">
+        <v>884</v>
       </c>
       <c r="C149">
-        <v>-2926732.032266917</v>
+        <v>-8329498.310678861</v>
       </c>
       <c r="D149">
-        <v>-8062.078443528872</v>
+        <v>492.6359261568185</v>
       </c>
       <c r="E149">
-        <v>2613322.727469883</v>
+        <v>168259.8005788614</v>
       </c>
       <c r="F149">
-        <v>153179.4904270486</v>
+        <v>-9360.082596979551</v>
       </c>
       <c r="G149">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="150" spans="1:7">
+        <v>13308.78489623374</v>
+      </c>
+      <c r="H149">
+        <v>270658.719447759</v>
+      </c>
+      <c r="I149">
+        <v>1285066.413968841</v>
+      </c>
+    </row>
+    <row r="150" spans="1:9">
       <c r="A150" s="1">
         <v>148</v>
       </c>
-      <c r="B150" s="2">
-        <v>41862</v>
+      <c r="B150">
+        <v>885</v>
       </c>
       <c r="C150">
-        <v>-2773552.541839868</v>
+        <v>-8338858.39327584</v>
       </c>
       <c r="D150">
-        <v>-8512.016748857504</v>
+        <v>492.6359261568185</v>
       </c>
       <c r="E150">
-        <v>2720866.153772302</v>
+        <v>168259.8005788614</v>
       </c>
       <c r="F150">
-        <v>519233.0216803077</v>
+        <v>-30050.79149556593</v>
       </c>
       <c r="G150">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="151" spans="1:7">
+        <v>13388.94002032414</v>
+      </c>
+      <c r="H150">
+        <v>270658.719447759</v>
+      </c>
+      <c r="I150">
+        <v>1255095.777597365</v>
+      </c>
+    </row>
+    <row r="151" spans="1:9">
       <c r="A151" s="1">
         <v>149</v>
       </c>
-      <c r="B151" s="2">
-        <v>41863</v>
+      <c r="B151">
+        <v>886</v>
       </c>
       <c r="C151">
-        <v>-2254319.520159561</v>
+        <v>-8368909.184771406</v>
       </c>
       <c r="D151">
-        <v>-9479.192552958913</v>
+        <v>492.6359261568185</v>
       </c>
       <c r="E151">
-        <v>2966039.349820844</v>
+        <v>168259.8005788614</v>
       </c>
       <c r="F151">
-        <v>-161146.2734003015</v>
+        <v>8374.810744665914</v>
       </c>
       <c r="G151">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="152" spans="1:7">
+        <v>13469.55403815397</v>
+      </c>
+      <c r="H151">
+        <v>270658.719447759</v>
+      </c>
+      <c r="I151">
+        <v>1263551.202359861</v>
+      </c>
+    </row>
+    <row r="152" spans="1:9">
       <c r="A152" s="1">
         <v>150</v>
       </c>
-      <c r="B152" s="2">
-        <v>41864</v>
+      <c r="B152">
+        <v>887</v>
       </c>
       <c r="C152">
-        <v>-2439649.616889784</v>
+        <v>-8360534.374026741</v>
       </c>
       <c r="D152">
-        <v>-8673.065108628191</v>
+        <v>492.6359261568185</v>
       </c>
       <c r="E152">
-        <v>2722908.79085382</v>
+        <v>168259.8005788614</v>
       </c>
       <c r="F152">
-        <v>95403.7161949101</v>
+        <v>-5418.995187725004</v>
       </c>
       <c r="G152">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="153" spans="1:7">
+        <v>13549.87112474063</v>
+      </c>
+      <c r="H152">
+        <v>270658.719447759</v>
+      </c>
+      <c r="I152">
+        <v>1258212.524258723</v>
+      </c>
+    </row>
+    <row r="153" spans="1:9">
       <c r="A153" s="1">
         <v>151</v>
       </c>
-      <c r="B153" s="2">
-        <v>41865</v>
+      <c r="B153">
+        <v>888</v>
       </c>
       <c r="C153">
-        <v>-2344245.900694874</v>
+        <v>-8365953.369214466</v>
       </c>
       <c r="D153">
-        <v>-9492.711124551837</v>
+        <v>492.6359261568185</v>
       </c>
       <c r="E153">
-        <v>2910465.230787593</v>
+        <v>168259.8005788614</v>
       </c>
       <c r="F153">
-        <v>132897.9557437257</v>
+        <v>-6896.902966195459</v>
       </c>
       <c r="G153">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="154" spans="1:7">
+        <v>13629.810298836</v>
+      </c>
+      <c r="H153">
+        <v>270658.719447759</v>
+      </c>
+      <c r="I153">
+        <v>1251395.560466622</v>
+      </c>
+    </row>
+    <row r="154" spans="1:9">
       <c r="A154" s="1">
         <v>152</v>
       </c>
-      <c r="B154" s="2">
-        <v>41866</v>
+      <c r="B154">
+        <v>889</v>
       </c>
       <c r="C154">
-        <v>-2216516.920595104</v>
+        <v>-8372850.272180662</v>
       </c>
       <c r="D154">
-        <v>-9410.663892108096</v>
+        <v>492.6359261568185</v>
       </c>
       <c r="E154">
-        <v>2872605.153065996</v>
+        <v>168259.8005788614</v>
       </c>
       <c r="F154">
-        <v>244677.2611948105</v>
+        <v>-12808.53408007728</v>
       </c>
       <c r="G154">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="155" spans="1:7">
+        <v>13709.04763544753</v>
+      </c>
+      <c r="H154">
+        <v>270658.719447759</v>
+      </c>
+      <c r="I154">
+        <v>1238666.263723157</v>
+      </c>
+    </row>
+    <row r="155" spans="1:9">
       <c r="A155" s="1">
         <v>153</v>
       </c>
-      <c r="B155" s="2">
-        <v>41869</v>
+      <c r="B155">
+        <v>890</v>
       </c>
       <c r="C155">
-        <v>-1971839.659400293</v>
+        <v>-8385658.806260739</v>
       </c>
       <c r="D155">
-        <v>-9978.102664468863</v>
+        <v>492.6359261568185</v>
       </c>
       <c r="E155">
-        <v>2984450.506942637</v>
+        <v>168259.8005788614</v>
       </c>
       <c r="F155">
-        <v>-9978.102664468863</v>
+        <v>492.6359261568185</v>
       </c>
       <c r="G155">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="156" spans="1:7">
+        <v>13788.31196580844</v>
+      </c>
+      <c r="H155">
+        <v>270658.719447759</v>
+      </c>
+      <c r="I155">
+        <v>1239238.163979675</v>
+      </c>
+    </row>
+    <row r="156" spans="1:9">
       <c r="A156" s="1">
         <v>154</v>
       </c>
-      <c r="B156" s="2">
-        <v>41870</v>
+      <c r="B156">
+        <v>891</v>
       </c>
       <c r="C156">
-        <v>-1990019.866748086</v>
+        <v>-8385166.170334581</v>
       </c>
       <c r="D156">
-        <v>-9721.786893115002</v>
+        <v>492.6359261568185</v>
       </c>
       <c r="E156">
-        <v>2907786.459730697</v>
+        <v>168259.8005788614</v>
       </c>
       <c r="F156">
-        <v>204157.524755415</v>
+        <v>-10345.35444929319</v>
       </c>
       <c r="G156">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="157" spans="1:7">
+        <v>13867.0094274324</v>
+      </c>
+      <c r="H156">
+        <v>270658.719447759</v>
+      </c>
+      <c r="I156">
+        <v>1228971.506992006</v>
+      </c>
+    </row>
+    <row r="157" spans="1:9">
       <c r="A157" s="1">
         <v>155</v>
       </c>
-      <c r="B157" s="2">
-        <v>41871</v>
+      <c r="B157">
+        <v>892</v>
       </c>
       <c r="C157">
-        <v>-1873657.899719087</v>
+        <v>-8395511.524783874</v>
       </c>
       <c r="D157">
-        <v>-5541.046048999948</v>
+        <v>492.6359261568185</v>
       </c>
       <c r="E157">
-        <v>1638210.264386835</v>
+        <v>168259.8005788614</v>
       </c>
       <c r="F157">
-        <v>127444.0591269988</v>
+        <v>-11330.62630160683</v>
       </c>
       <c r="G157">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="158" spans="1:7">
+        <v>13945.08603282065</v>
+      </c>
+      <c r="H157">
+        <v>270658.719447759</v>
+      </c>
+      <c r="I157">
+        <v>1217718.957295787</v>
+      </c>
+    </row>
+    <row r="158" spans="1:9">
       <c r="A158" s="1">
         <v>156</v>
       </c>
-      <c r="B158" s="2">
-        <v>41872</v>
+      <c r="B158">
+        <v>893</v>
       </c>
       <c r="C158">
-        <v>-1746213.840592088</v>
+        <v>-8406842.151085481</v>
       </c>
       <c r="D158">
-        <v>-6665.203443540583</v>
+        <v>492.6359261568185</v>
       </c>
       <c r="E158">
-        <v>1964568.714983587</v>
+        <v>168259.8005788614</v>
       </c>
       <c r="F158">
-        <v>153299.6792014334</v>
+        <v>-11330.62630160683</v>
       </c>
       <c r="G158">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="159" spans="1:7">
+        <v>14022.5417819732</v>
+      </c>
+      <c r="H158">
+        <v>270658.719447759</v>
+      </c>
+      <c r="I158">
+        <v>1206465.786743333</v>
+      </c>
+    </row>
+    <row r="159" spans="1:9">
       <c r="A159" s="1">
         <v>157</v>
       </c>
-      <c r="B159" s="2">
-        <v>41873</v>
+      <c r="B159">
+        <v>894</v>
       </c>
       <c r="C159">
-        <v>-1635211.967153989</v>
+        <v>-8418172.777387088</v>
       </c>
       <c r="D159">
-        <v>-6136.48087149891</v>
+        <v>492.6359261568185</v>
       </c>
       <c r="E159">
-        <v>1785715.933606183</v>
+        <v>168259.8005788614</v>
       </c>
       <c r="F159">
-        <v>263868.6774744532</v>
+        <v>-21183.3448247432</v>
       </c>
       <c r="G159">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="160" spans="1:7">
+        <v>14098.83679990248</v>
+      </c>
+      <c r="H159">
+        <v>270658.719447759</v>
+      </c>
+      <c r="I159">
+        <v>1185358.736936519</v>
+      </c>
+    </row>
+    <row r="160" spans="1:9">
       <c r="A160" s="1">
         <v>158</v>
       </c>
-      <c r="B160" s="2">
-        <v>41876</v>
+      <c r="B160">
+        <v>895</v>
       </c>
       <c r="C160">
-        <v>-1371343.289679535</v>
+        <v>-8439356.122211831</v>
       </c>
       <c r="D160">
-        <v>-7032.902098105809</v>
+        <v>492.6359261568185</v>
       </c>
       <c r="E160">
-        <v>2047629.445863506</v>
+        <v>168259.8005788614</v>
       </c>
       <c r="F160">
-        <v>-175822.5524526452</v>
+        <v>12315.89815392046</v>
       </c>
       <c r="G160">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="161" spans="1:7">
+        <v>14175.80666156622</v>
+      </c>
+      <c r="H160">
+        <v>270658.719447759</v>
+      </c>
+      <c r="I160">
+        <v>1197751.604952103</v>
+      </c>
+    </row>
+    <row r="161" spans="1:9">
       <c r="A161" s="1">
         <v>159</v>
       </c>
-      <c r="B161" s="2">
-        <v>41877</v>
+      <c r="B161">
+        <v>896</v>
       </c>
       <c r="C161">
-        <v>-1603726.179998011</v>
+        <v>-8427040.224057911</v>
       </c>
       <c r="D161">
-        <v>-6105.683444567608</v>
+        <v>492.6359261568185</v>
       </c>
       <c r="E161">
-        <v>1762100.242102212</v>
+        <v>168259.8005788614</v>
       </c>
       <c r="F161">
-        <v>79373.8847793789</v>
+        <v>-6404.267040038641</v>
       </c>
       <c r="G161">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="162" spans="1:7">
+        <v>14252.42560448804</v>
+      </c>
+      <c r="H161">
+        <v>270658.719447759</v>
+      </c>
+      <c r="I161">
+        <v>1191423.956854986</v>
+      </c>
+    </row>
+    <row r="162" spans="1:9">
       <c r="A162" s="1">
         <v>160</v>
       </c>
-      <c r="B162" s="2">
-        <v>41878</v>
+      <c r="B162">
+        <v>897</v>
       </c>
       <c r="C162">
-        <v>-1525276.743438517</v>
+        <v>-8433444.491097949</v>
       </c>
       <c r="D162">
-        <v>-6021.642697305339</v>
+        <v>492.6359261568185</v>
       </c>
       <c r="E162">
-        <v>1759523.99615262</v>
+        <v>168259.8005788614</v>
       </c>
       <c r="F162">
-        <v>301082.134865267</v>
+        <v>-24631.79630784093</v>
       </c>
       <c r="G162">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="163" spans="1:7">
+        <v>14327.69485994093</v>
+      </c>
+      <c r="H162">
+        <v>270658.719447759</v>
+      </c>
+      <c r="I162">
+        <v>1166867.429802598</v>
+      </c>
+    </row>
+    <row r="163" spans="1:9">
       <c r="A163" s="1">
         <v>161</v>
       </c>
-      <c r="B163" s="2">
-        <v>41879</v>
+      <c r="B163">
+        <v>898</v>
       </c>
       <c r="C163">
-        <v>-1232617.99502428</v>
+        <v>-8458076.287405791</v>
       </c>
       <c r="D163">
-        <v>-4968.719390926638</v>
+        <v>492.6359261568185</v>
       </c>
       <c r="E163">
-        <v>1413849.102688175</v>
+        <v>168259.8005788614</v>
       </c>
       <c r="F163">
-        <v>-59624.63269111965</v>
+        <v>5911.631113881822</v>
       </c>
       <c r="G163">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="164" spans="1:7">
+        <v>14403.28804038637</v>
+      </c>
+      <c r="H163">
+        <v>270658.719447759</v>
+      </c>
+      <c r="I163">
+        <v>1172854.654096924</v>
+      </c>
+    </row>
+    <row r="164" spans="1:9">
       <c r="A164" s="1">
         <v>162</v>
       </c>
-      <c r="B164" s="2">
-        <v>41880</v>
+      <c r="B164">
+        <v>899</v>
       </c>
       <c r="C164">
-        <v>-1292242.627715399</v>
+        <v>-8452164.65629191</v>
       </c>
       <c r="D164">
-        <v>-5362.812948119429</v>
+        <v>492.6359261568185</v>
       </c>
       <c r="E164">
-        <v>1512313.251369679</v>
+        <v>168259.8005788614</v>
       </c>
       <c r="F164">
-        <v>268140.6474059715</v>
+        <v>-24631.79630784093</v>
       </c>
       <c r="G164">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="165" spans="1:7">
+        <v>14477.53153336289</v>
+      </c>
+      <c r="H164">
+        <v>270658.719447759</v>
+      </c>
+      <c r="I164">
+        <v>1148297.10128206</v>
+      </c>
+    </row>
+    <row r="165" spans="1:9">
       <c r="A165" s="1">
         <v>163</v>
       </c>
-      <c r="B165" s="2">
-        <v>41884</v>
+      <c r="B165">
+        <v>900</v>
       </c>
       <c r="C165">
-        <v>-1054387.927123167</v>
+        <v>-8476796.452599751</v>
       </c>
       <c r="D165">
-        <v>-4930.156565066017</v>
+        <v>492.6359261568185</v>
       </c>
       <c r="E165">
-        <v>1374774.158168659</v>
+        <v>168259.8005788614</v>
       </c>
       <c r="F165">
-        <v>-157765.0100821125</v>
+        <v>15764.34963701819</v>
       </c>
       <c r="G165">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="166" spans="1:7">
+        <v>14552.63882631951</v>
+      </c>
+      <c r="H165">
+        <v>270658.719447759</v>
+      </c>
+      <c r="I165">
+        <v>1164136.558212035</v>
+      </c>
+    </row>
+    <row r="166" spans="1:9">
       <c r="A166" s="1">
         <v>164</v>
       </c>
-      <c r="B166" s="2">
-        <v>41885</v>
+      <c r="B166">
+        <v>901</v>
       </c>
       <c r="C166">
-        <v>-1199553.925819996</v>
+        <v>-8461032.102962732</v>
       </c>
       <c r="D166">
-        <v>-4463.526513759234</v>
+        <v>492.6359261568185</v>
       </c>
       <c r="E166">
-        <v>1260053.534834232</v>
+        <v>168259.8005788614</v>
       </c>
       <c r="F166">
-        <v>-151759.901467814</v>
+        <v>16749.62148933183</v>
       </c>
       <c r="G166">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="167" spans="1:7">
+        <v>14628.663906755</v>
+      </c>
+      <c r="H166">
+        <v>270658.719447759</v>
+      </c>
+      <c r="I166">
+        <v>1180962.204781801</v>
+      </c>
+    </row>
+    <row r="167" spans="1:9">
       <c r="A167" s="1">
         <v>165</v>
       </c>
-      <c r="B167" s="2">
-        <v>41886</v>
+      <c r="B167">
+        <v>902</v>
       </c>
       <c r="C167">
-        <v>-1336490.765633767</v>
+        <v>-8444282.481473401</v>
       </c>
       <c r="D167">
-        <v>-3845.898944840787</v>
+        <v>492.6359261568185</v>
       </c>
       <c r="E167">
-        <v>1112810.859689682</v>
+        <v>168259.8005788614</v>
       </c>
       <c r="F167">
-        <v>-203832.6440765617</v>
+        <v>26109.70408631138</v>
       </c>
       <c r="G167">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="168" spans="1:7">
+        <v>14706.11965590755</v>
+      </c>
+      <c r="H167">
+        <v>270658.719447759</v>
+      </c>
+      <c r="I167">
+        <v>1207149.364617265</v>
+      </c>
+    </row>
+    <row r="168" spans="1:9">
       <c r="A168" s="1">
         <v>166</v>
       </c>
-      <c r="B168" s="2">
-        <v>41887</v>
+      <c r="B168">
+        <v>903</v>
       </c>
       <c r="C168">
-        <v>-1518097.635305653</v>
+        <v>-8418172.77738709</v>
       </c>
       <c r="D168">
-        <v>-3105.039798018239</v>
+        <v>492.6359261568185</v>
       </c>
       <c r="E168">
-        <v>902169.3133141993</v>
+        <v>168259.8005788614</v>
       </c>
       <c r="F168">
-        <v>21735.27858612767</v>
+        <v>-3448.45148309773</v>
       </c>
       <c r="G168">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="169" spans="1:7">
+        <v>14783.38644881446</v>
+      </c>
+      <c r="H168">
+        <v>270658.719447759</v>
+      </c>
+      <c r="I168">
+        <v>1203778.179927075</v>
+      </c>
+    </row>
+    <row r="169" spans="1:9">
       <c r="A169" s="1">
         <v>167</v>
       </c>
-      <c r="B169" s="2">
-        <v>41890</v>
+      <c r="B169">
+        <v>904</v>
       </c>
       <c r="C169">
-        <v>-1496362.356719525</v>
+        <v>-8421621.228870187</v>
       </c>
       <c r="D169">
-        <v>-4069.908171574758</v>
+        <v>492.6359261568185</v>
       </c>
       <c r="E169">
-        <v>1198994.947345924</v>
+        <v>168259.8005788614</v>
       </c>
       <c r="F169">
-        <v>4069.908171574758</v>
+        <v>-492.6359261568185</v>
       </c>
       <c r="G169">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="170" spans="1:7">
+        <v>14860.62624797198</v>
+      </c>
+      <c r="H169">
+        <v>270658.719447759</v>
+      </c>
+      <c r="I169">
+        <v>1203362.783800076</v>
+      </c>
+    </row>
+    <row r="170" spans="1:9">
       <c r="A170" s="1">
         <v>168</v>
       </c>
-      <c r="B170" s="2">
-        <v>41891</v>
+      <c r="B170">
+        <v>905</v>
       </c>
       <c r="C170">
-        <v>-1500129.027126616</v>
+        <v>-8422113.864796344</v>
       </c>
       <c r="D170">
-        <v>-3943.511742886604</v>
+        <v>492.6359261568185</v>
       </c>
       <c r="E170">
-        <v>1148744.970702868</v>
+        <v>168259.8005788614</v>
       </c>
       <c r="F170">
-        <v>15774.04697154642</v>
+        <v>-1970.543704627274</v>
       </c>
       <c r="G170">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="171" spans="1:7">
+        <v>14937.75807213199</v>
+      </c>
+      <c r="H170">
+        <v>270658.719447759</v>
+      </c>
+      <c r="I170">
+        <v>1201469.371919608</v>
+      </c>
+    </row>
+    <row r="171" spans="1:9">
       <c r="A171" s="1">
         <v>169</v>
       </c>
-      <c r="B171" s="2">
-        <v>41892</v>
+      <c r="B171">
+        <v>906</v>
       </c>
       <c r="C171">
-        <v>-1485705.866156093</v>
+        <v>-8424084.408500971</v>
       </c>
       <c r="D171">
-        <v>-3793.413298328467</v>
+        <v>492.6359261568185</v>
       </c>
       <c r="E171">
-        <v>1098762.16186084</v>
+        <v>168259.8005788614</v>
       </c>
       <c r="F171">
-        <v>-22760.4797899708</v>
+        <v>2955.815556940911</v>
       </c>
       <c r="G171">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="172" spans="1:7">
+        <v>15015.05185878827</v>
+      </c>
+      <c r="H171">
+        <v>270658.719447759</v>
+      </c>
+      <c r="I171">
+        <v>1204502.481263206</v>
+      </c>
+    </row>
+    <row r="172" spans="1:9">
       <c r="A172" s="1">
         <v>170</v>
       </c>
-      <c r="B172" s="2">
-        <v>41893</v>
+      <c r="B172">
+        <v>907</v>
       </c>
       <c r="C172">
-        <v>-1507903.828917844</v>
+        <v>-8421128.59294403</v>
       </c>
       <c r="D172">
-        <v>-3737.161595506479</v>
+        <v>492.6359261568185</v>
       </c>
       <c r="E172">
-        <v>1103770.677232838</v>
+        <v>168259.8005788614</v>
       </c>
       <c r="F172">
-        <v>-119589.1710562073</v>
+        <v>15764.34963701819</v>
       </c>
       <c r="G172">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="173" spans="1:7">
+        <v>15093.20944542466</v>
+      </c>
+      <c r="H172">
+        <v>270658.719447759</v>
+      </c>
+      <c r="I172">
+        <v>1220344.988486861</v>
+      </c>
+    </row>
+    <row r="173" spans="1:9">
       <c r="A173" s="1">
         <v>171</v>
       </c>
-      <c r="B173" s="2">
-        <v>41894</v>
+      <c r="B173">
+        <v>908</v>
       </c>
       <c r="C173">
-        <v>-1618164.15364442</v>
+        <v>-8405364.243307011</v>
       </c>
       <c r="D173">
-        <v>-3525.142360742124</v>
+        <v>492.6359261568185</v>
       </c>
       <c r="E173">
-        <v>1049082.366556856</v>
+        <v>168259.8005788614</v>
       </c>
       <c r="F173">
-        <v>-21150.85416445275</v>
+        <v>2955.815556940911</v>
       </c>
       <c r="G173">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="174" spans="1:7">
+        <v>15171.52899455732</v>
+      </c>
+      <c r="H173">
+        <v>270658.719447759</v>
+      </c>
+      <c r="I173">
+        <v>1223379.123592935</v>
+      </c>
+    </row>
+    <row r="174" spans="1:9">
       <c r="A174" s="1">
         <v>172</v>
       </c>
-      <c r="B174" s="2">
-        <v>41897</v>
+      <c r="B174">
+        <v>909</v>
       </c>
       <c r="C174">
-        <v>-1639315.007808872</v>
+        <v>-8402408.42775007</v>
       </c>
       <c r="D174">
-        <v>-3798.623102053237</v>
+        <v>492.6359261568185</v>
       </c>
       <c r="E174">
-        <v>1150982.799922131</v>
+        <v>168259.8005788614</v>
       </c>
       <c r="F174">
-        <v>-22791.73861231942</v>
+        <v>2955.815556940911</v>
       </c>
       <c r="G174">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="175" spans="1:7">
+        <v>15250.01050618625</v>
+      </c>
+      <c r="H174">
+        <v>270658.719447759</v>
+      </c>
+      <c r="I174">
+        <v>1226413.420661506</v>
+      </c>
+    </row>
+    <row r="175" spans="1:9">
       <c r="A175" s="1">
         <v>173</v>
       </c>
-      <c r="B175" s="2">
-        <v>41899</v>
+      <c r="B175">
+        <v>910</v>
       </c>
       <c r="C175">
-        <v>-1662106.746421192</v>
+        <v>-8399452.612193128</v>
       </c>
       <c r="D175">
-        <v>-4060.419349576699</v>
+        <v>492.6359261568185</v>
       </c>
       <c r="E175">
-        <v>1240661.13226316</v>
+        <v>168259.8005788614</v>
       </c>
       <c r="F175">
-        <v>-121812.580487301</v>
+        <v>14779.07778470456</v>
       </c>
       <c r="G175">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="176" spans="1:7">
+        <v>15329.30183029654</v>
+      </c>
+      <c r="H175">
+        <v>270658.719447759</v>
+      </c>
+      <c r="I175">
+        <v>1241271.789770321</v>
+      </c>
+    </row>
+    <row r="176" spans="1:9">
       <c r="A176" s="1">
         <v>174</v>
       </c>
-      <c r="B176" s="2">
-        <v>41900</v>
+      <c r="B176">
+        <v>911</v>
       </c>
       <c r="C176">
-        <v>-1783919.326908492</v>
+        <v>-8384673.534408423</v>
       </c>
       <c r="D176">
-        <v>-4210.072926144834</v>
+        <v>492.6359261568185</v>
       </c>
       <c r="E176">
-        <v>1302175.556056597</v>
+        <v>168259.8005788614</v>
       </c>
       <c r="F176">
-        <v>25260.437556869</v>
+        <v>-2955.815556940911</v>
       </c>
       <c r="G176">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="177" spans="1:7">
+        <v>15408.43119191055</v>
+      </c>
+      <c r="H176">
+        <v>270658.719447759</v>
+      </c>
+      <c r="I176">
+        <v>1238395.103574994</v>
+      </c>
+    </row>
+    <row r="177" spans="1:9">
       <c r="A177" s="1">
         <v>175</v>
       </c>
-      <c r="B177" s="2">
-        <v>41901</v>
+      <c r="B177">
+        <v>912</v>
       </c>
       <c r="C177">
-        <v>-1767009.558511165</v>
+        <v>-8387629.349965364</v>
       </c>
       <c r="D177">
-        <v>-4100.195700361398</v>
+        <v>492.6359261568185</v>
       </c>
       <c r="E177">
-        <v>1239284.150434233</v>
+        <v>168259.8005788614</v>
       </c>
       <c r="F177">
-        <v>102504.892509035</v>
+        <v>-12315.89815392046</v>
       </c>
       <c r="G177">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="178" spans="1:7">
+        <v>15486.88570979011</v>
+      </c>
+      <c r="H177">
+        <v>270658.719447759</v>
+      </c>
+      <c r="I177">
+        <v>1226157.659938954</v>
+      </c>
+    </row>
+    <row r="178" spans="1:9">
       <c r="A178" s="1">
         <v>176</v>
       </c>
-      <c r="B178" s="2">
-        <v>41904</v>
+      <c r="B178">
+        <v>913</v>
       </c>
       <c r="C178">
-        <v>-1664504.66600213</v>
+        <v>-8399945.248119283</v>
       </c>
       <c r="D178">
-        <v>-4869.422645199934</v>
+        <v>492.6359261568185</v>
       </c>
       <c r="E178">
-        <v>1444757.69883082</v>
+        <v>168259.8005788614</v>
       </c>
       <c r="F178">
-        <v>-53563.64909719928</v>
+        <v>5418.995187725004</v>
       </c>
       <c r="G178">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="179" spans="1:7">
+        <v>15565.63715891282</v>
+      </c>
+      <c r="H178">
+        <v>270658.719447759</v>
+      </c>
+      <c r="I178">
+        <v>1231655.406575803</v>
+      </c>
+    </row>
+    <row r="179" spans="1:9">
       <c r="A179" s="1">
         <v>177</v>
       </c>
-      <c r="B179" s="2">
-        <v>41905</v>
+      <c r="B179">
+        <v>914</v>
       </c>
       <c r="C179">
-        <v>-1718068.315099329</v>
+        <v>-8394526.252931558</v>
       </c>
       <c r="D179">
-        <v>-6349.967953674888</v>
+        <v>492.6359261568185</v>
       </c>
       <c r="E179">
-        <v>1918325.318805184</v>
+        <v>168259.8005788614</v>
       </c>
       <c r="F179">
-        <v>-171449.134749222</v>
+        <v>13301.1700062341</v>
       </c>
       <c r="G179">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="180" spans="1:7">
+        <v>15645.11743926876</v>
+      </c>
+      <c r="H179">
+        <v>270658.719447759</v>
+      </c>
+      <c r="I179">
+        <v>1245036.056862393</v>
+      </c>
+    </row>
+    <row r="180" spans="1:9">
       <c r="A180" s="1">
         <v>178</v>
       </c>
-      <c r="B180" s="2">
-        <v>41906</v>
+      <c r="B180">
+        <v>915</v>
       </c>
       <c r="C180">
-        <v>-1891606.662461687</v>
+        <v>-8381225.082925323</v>
       </c>
       <c r="D180">
-        <v>-6088.816377032883</v>
+        <v>492.6359261568185</v>
       </c>
       <c r="E180">
-        <v>1865004.456285172</v>
+        <v>168259.8005788614</v>
       </c>
       <c r="F180">
-        <v>-140042.7766717563</v>
+        <v>11330.62630160683</v>
       </c>
       <c r="G180">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="181" spans="1:7">
+        <v>15725.2185758604</v>
+      </c>
+      <c r="H180">
+        <v>270658.719447759</v>
+      </c>
+      <c r="I180">
+        <v>1256446.784300592</v>
+      </c>
+    </row>
+    <row r="181" spans="1:9">
       <c r="A181" s="1">
         <v>179</v>
       </c>
-      <c r="B181" s="2">
-        <v>41907</v>
+      <c r="B181">
+        <v>916</v>
       </c>
       <c r="C181">
-        <v>-2031649.439133443</v>
+        <v>-8369894.456623716</v>
       </c>
       <c r="D181">
-        <v>-6737.864491482491</v>
+        <v>492.6359261568185</v>
       </c>
       <c r="E181">
-        <v>2111309.838406038</v>
+        <v>168259.8005788614</v>
       </c>
       <c r="F181">
-        <v>-175184.4767785448</v>
+        <v>12808.53408007728</v>
       </c>
       <c r="G181">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="182" spans="1:7">
+        <v>15806.02154993588</v>
+      </c>
+      <c r="H181">
+        <v>270658.719447759</v>
+      </c>
+      <c r="I181">
+        <v>1269336.121354744</v>
+      </c>
+    </row>
+    <row r="182" spans="1:9">
       <c r="A182" s="1">
         <v>180</v>
       </c>
-      <c r="B182" s="2">
-        <v>41908</v>
+      <c r="B182">
+        <v>917</v>
       </c>
       <c r="C182">
-        <v>-2213919.025680996</v>
+        <v>-8357085.922543639</v>
       </c>
       <c r="D182">
-        <v>-6509.312563449975</v>
+        <v>492.6359261568185</v>
       </c>
       <c r="E182">
-        <v>2033834.710449945</v>
+        <v>168259.8005788614</v>
       </c>
       <c r="F182">
-        <v>-26037.2502537999</v>
+        <v>1970.543704627274</v>
       </c>
       <c r="G182">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="183" spans="1:7">
+        <v>15886.93249900887</v>
+      </c>
+      <c r="H182">
+        <v>270658.719447759</v>
+      </c>
+      <c r="I182">
+        <v>1271387.576008444</v>
+      </c>
+    </row>
+    <row r="183" spans="1:9">
       <c r="A183" s="1">
         <v>181</v>
       </c>
-      <c r="B183" s="2">
-        <v>41911</v>
+      <c r="B183">
+        <v>918</v>
       </c>
       <c r="C183">
-        <v>-2239956.275934796</v>
+        <v>-8355115.378839012</v>
       </c>
       <c r="D183">
-        <v>-6613.171856910576</v>
+        <v>492.6359261568185</v>
       </c>
       <c r="E183">
-        <v>2061325.667799026</v>
+        <v>168259.8005788614</v>
       </c>
       <c r="F183">
-        <v>-198395.1557073173</v>
+        <v>14779.07778470456</v>
       </c>
       <c r="G183">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="184" spans="1:7">
+        <v>15968.65326056322</v>
+      </c>
+      <c r="H183">
+        <v>270658.719447759</v>
+      </c>
+      <c r="I183">
+        <v>1286248.374554704</v>
+      </c>
+    </row>
+    <row r="184" spans="1:9">
       <c r="A184" s="1">
         <v>182</v>
       </c>
-      <c r="B184" s="2">
-        <v>41912</v>
+      <c r="B184">
+        <v>919</v>
       </c>
       <c r="C184">
-        <v>-2412138.63484073</v>
+        <v>-8340336.301054307</v>
       </c>
       <c r="D184">
-        <v>-2868.486599570148</v>
+        <v>492.6359261568185</v>
       </c>
       <c r="E184">
-        <v>904003.5518545321</v>
+        <v>168259.8005788614</v>
       </c>
       <c r="F184">
-        <v>-31553.35259527163</v>
+        <v>5418.995187725004</v>
       </c>
       <c r="G184">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="185" spans="1:7">
+        <v>16050.67095336073</v>
+      </c>
+      <c r="H184">
+        <v>270658.719447759</v>
+      </c>
+      <c r="I184">
+        <v>1291749.387435226</v>
+      </c>
+    </row>
+    <row r="185" spans="1:9">
       <c r="A185" s="1">
         <v>183</v>
       </c>
-      <c r="B185" s="2">
-        <v>41913</v>
+      <c r="B185">
+        <v>920</v>
       </c>
       <c r="C185">
-        <v>-2468066.499763245</v>
+        <v>-8334917.305866582</v>
       </c>
       <c r="D185">
-        <v>-1243.519111087234</v>
+        <v>492.6359261568185</v>
       </c>
       <c r="E185">
-        <v>391895.0478591417</v>
+        <v>168259.8005788614</v>
       </c>
       <c r="F185">
-        <v>12435.19111087234</v>
+        <v>-4926.359261568186</v>
       </c>
       <c r="G185">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="186" spans="1:7">
+        <v>16132.41870866446</v>
+      </c>
+      <c r="H185">
+        <v>270658.719447759</v>
+      </c>
+      <c r="I185">
+        <v>1286904.775928961</v>
+      </c>
+    </row>
+    <row r="186" spans="1:9">
       <c r="A186" s="1">
         <v>184</v>
       </c>
-      <c r="B186" s="2">
-        <v>41914</v>
+      <c r="B186">
+        <v>921</v>
       </c>
       <c r="C186">
-        <v>-2512511.065717948</v>
+        <v>-8339843.665128151</v>
       </c>
       <c r="D186">
-        <v>-170.3161475858264</v>
+        <v>492.6359261568185</v>
       </c>
       <c r="E186">
-        <v>53394.11226815657</v>
+        <v>168259.8005788614</v>
       </c>
       <c r="F186">
-        <v>9878.33655997793</v>
+        <v>-28572.88371709548</v>
       </c>
       <c r="G186">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="187" spans="1:7">
+        <v>16212.60082650423</v>
+      </c>
+      <c r="H186">
+        <v>270658.719447759</v>
+      </c>
+      <c r="I186">
+        <v>1258412.074329705</v>
+      </c>
+    </row>
+    <row r="187" spans="1:9">
       <c r="A187" s="1">
         <v>185</v>
       </c>
-      <c r="B187" s="2">
-        <v>41915</v>
+      <c r="B187">
+        <v>922</v>
       </c>
       <c r="C187">
-        <v>-2500776.291111527</v>
+        <v>-8368416.548845246</v>
       </c>
       <c r="D187">
-        <v>-46.55361115634454</v>
+        <v>492.6359261568185</v>
       </c>
       <c r="E187">
-        <v>14357.13368061666</v>
+        <v>168259.8005788614</v>
       </c>
       <c r="F187">
-        <v>-465.5361115634454</v>
+        <v>4926.359261568186</v>
       </c>
       <c r="G187">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="188" spans="1:7">
+        <v>16293.05288183779</v>
+      </c>
+      <c r="H187">
+        <v>270658.719447759</v>
+      </c>
+      <c r="I187">
+        <v>1263418.885646608</v>
+      </c>
+    </row>
+    <row r="188" spans="1:9">
       <c r="A188" s="1">
         <v>186</v>
       </c>
-      <c r="B188" s="2">
-        <v>41919</v>
+      <c r="B188">
+        <v>923</v>
       </c>
       <c r="C188">
-        <v>-2501241.827223091</v>
+        <v>-8363490.189583678</v>
       </c>
       <c r="D188">
-        <v>-1397.032455008653</v>
+        <v>492.6359261568185</v>
       </c>
       <c r="E188">
-        <v>436502.7905674537</v>
+        <v>168259.8005788614</v>
       </c>
       <c r="F188">
-        <v>25146.58419015576</v>
+        <v>-8867.446670822734</v>
       </c>
       <c r="G188">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="189" spans="1:7">
+        <v>16373.01904968254</v>
+      </c>
+      <c r="H188">
+        <v>270658.719447759</v>
+      </c>
+      <c r="I188">
+        <v>1254631.40514363</v>
+      </c>
+    </row>
+    <row r="189" spans="1:9">
       <c r="A189" s="1">
         <v>187</v>
       </c>
-      <c r="B189" s="2">
-        <v>41920</v>
+      <c r="B189">
+        <v>924</v>
       </c>
       <c r="C189">
-        <v>-2476095.243032935</v>
+        <v>-8372357.636254501</v>
       </c>
       <c r="D189">
-        <v>-2108.749769918926</v>
+        <v>492.6359261568185</v>
       </c>
       <c r="E189">
-        <v>658562.5531456805</v>
+        <v>168259.8005788614</v>
       </c>
       <c r="F189">
-        <v>-31631.24654878389</v>
+        <v>7389.538892352278</v>
       </c>
       <c r="G189">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="190" spans="1:7">
+        <v>16453.39012376796</v>
+      </c>
+      <c r="H189">
+        <v>270658.719447759</v>
+      </c>
+      <c r="I189">
+        <v>1262101.315110067</v>
+      </c>
+    </row>
+    <row r="190" spans="1:9">
       <c r="A190" s="1">
         <v>188</v>
       </c>
-      <c r="B190" s="2">
-        <v>41921</v>
+      <c r="B190">
+        <v>925</v>
       </c>
       <c r="C190">
-        <v>-2507726.489581719</v>
+        <v>-8364968.097362149</v>
       </c>
       <c r="D190">
-        <v>-2135.686853866914</v>
+        <v>492.6359261568185</v>
       </c>
       <c r="E190">
-        <v>669217.4756591975</v>
+        <v>168259.8005788614</v>
       </c>
       <c r="F190">
-        <v>-17085.49483093531</v>
+        <v>3941.087409254548</v>
       </c>
       <c r="G190">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="191" spans="1:7">
+        <v>16533.97714784841</v>
+      </c>
+      <c r="H190">
+        <v>270658.719447759</v>
+      </c>
+      <c r="I190">
+        <v>1266122.989543402</v>
+      </c>
+    </row>
+    <row r="191" spans="1:9">
       <c r="A191" s="1">
         <v>189</v>
       </c>
-      <c r="B191" s="2">
-        <v>41922</v>
+      <c r="B191">
+        <v>926</v>
       </c>
       <c r="C191">
-        <v>-2558254.180370735</v>
+        <v>-8361027.009952894</v>
       </c>
       <c r="D191">
-        <v>-1516.386928717284</v>
+        <v>492.6359261568185</v>
       </c>
       <c r="E191">
-        <v>470838.1413667165</v>
+        <v>168259.8005788614</v>
       </c>
       <c r="F191">
-        <v>15163.86928717284</v>
+        <v>-4926.359261568186</v>
       </c>
       <c r="G191">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="192" spans="1:7">
+        <v>16614.29423443508</v>
+      </c>
+      <c r="H191">
+        <v>270658.719447759</v>
+      </c>
+      <c r="I191">
+        <v>1261276.94736842</v>
+      </c>
+    </row>
+    <row r="192" spans="1:9">
       <c r="A192" s="1">
         <v>190</v>
       </c>
-      <c r="B192" s="2">
-        <v>41925</v>
+      <c r="B192">
+        <v>927</v>
       </c>
       <c r="C192">
-        <v>-2543090.311083562</v>
+        <v>-8365953.369214463</v>
       </c>
       <c r="D192">
-        <v>-2483.11416257057</v>
+        <v>492.6359261568185</v>
       </c>
       <c r="E192">
-        <v>768772.1447318483</v>
+        <v>168259.8005788614</v>
       </c>
       <c r="F192">
-        <v>64560.96822683481</v>
+        <v>-12808.53408007728</v>
       </c>
       <c r="G192">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="193" spans="1:7">
+        <v>16693.9094835379</v>
+      </c>
+      <c r="H192">
+        <v>270658.719447759</v>
+      </c>
+      <c r="I192">
+        <v>1248548.028537446</v>
+      </c>
+    </row>
+    <row r="193" spans="1:9">
       <c r="A193" s="1">
         <v>191</v>
       </c>
-      <c r="B193" s="2">
-        <v>41926</v>
+      <c r="B193">
+        <v>928</v>
       </c>
       <c r="C193">
-        <v>-2478529.342856727</v>
+        <v>-8378761.90329454</v>
       </c>
       <c r="D193">
-        <v>-3115.779855641184</v>
+        <v>492.6359261568185</v>
       </c>
       <c r="E193">
-        <v>960439.1405013948</v>
+        <v>168259.8005788614</v>
       </c>
       <c r="F193">
-        <v>28042.01870077065</v>
+        <v>-4433.723335411367</v>
       </c>
       <c r="G193">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="194" spans="1:7">
+        <v>16773.28178889633</v>
+      </c>
+      <c r="H193">
+        <v>270658.719447759</v>
+      </c>
+      <c r="I193">
+        <v>1244193.677507393</v>
+      </c>
+    </row>
+    <row r="194" spans="1:9">
       <c r="A194" s="1">
         <v>192</v>
       </c>
-      <c r="B194" s="2">
-        <v>41927</v>
+      <c r="B194">
+        <v>929</v>
       </c>
       <c r="C194">
-        <v>-2461143.558137723</v>
+        <v>-8383195.626629951</v>
       </c>
       <c r="D194">
-        <v>-2975.566250617939</v>
+        <v>492.6359261568185</v>
       </c>
       <c r="E194">
-        <v>906059.9233131624</v>
+        <v>168259.8005788614</v>
       </c>
       <c r="F194">
-        <v>77364.72251606641</v>
+        <v>-12808.53408007728</v>
       </c>
       <c r="G194">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="195" spans="1:7">
+        <v>16851.95225677091</v>
+      </c>
+      <c r="H194">
+        <v>270658.719447759</v>
+      </c>
+      <c r="I194">
+        <v>1231463.813895189</v>
+      </c>
+    </row>
+    <row r="195" spans="1:9">
       <c r="A195" s="1">
         <v>193</v>
       </c>
-      <c r="B195" s="2">
-        <v>41928</v>
+      <c r="B195">
+        <v>930</v>
       </c>
       <c r="C195">
-        <v>-2394067.773340704</v>
+        <v>-8396004.160710029</v>
       </c>
       <c r="D195">
-        <v>-1946.67247871318</v>
+        <v>492.6359261568185</v>
       </c>
       <c r="E195">
-        <v>582833.7401267262</v>
+        <v>168259.8005788614</v>
       </c>
       <c r="F195">
-        <v>7786.689914852721</v>
+        <v>-1970.543704627274</v>
       </c>
       <c r="G195">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="196" spans="1:7">
+        <v>16930.51474964797</v>
+      </c>
+      <c r="H195">
+        <v>270658.719447759</v>
+      </c>
+      <c r="I195">
+        <v>1229571.832683439</v>
+      </c>
+    </row>
+    <row r="196" spans="1:9">
       <c r="A196" s="1">
         <v>194</v>
       </c>
-      <c r="B196" s="2">
-        <v>41929</v>
+      <c r="B196">
+        <v>931</v>
       </c>
       <c r="C196">
-        <v>-2385832.239715197</v>
+        <v>-8397974.704414656</v>
       </c>
       <c r="D196">
-        <v>-1927.970657435901</v>
+        <v>492.6359261568185</v>
       </c>
       <c r="E196">
-        <v>582150.7400127703</v>
+        <v>168259.8005788614</v>
       </c>
       <c r="F196">
-        <v>-19279.70657435901</v>
+        <v>4926.359261568186</v>
       </c>
       <c r="G196">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="197" spans="1:7">
+        <v>17009.34718001882</v>
+      </c>
+      <c r="H196">
+        <v>270658.719447759</v>
+      </c>
+      <c r="I196">
+        <v>1234577.024375379</v>
+      </c>
+    </row>
+    <row r="197" spans="1:9">
       <c r="A197" s="1">
         <v>195</v>
       </c>
-      <c r="B197" s="2">
-        <v>41932</v>
+      <c r="B197">
+        <v>932</v>
       </c>
       <c r="C197">
-        <v>-2411273.191710731</v>
+        <v>-8393048.345153088</v>
       </c>
       <c r="D197">
-        <v>-1542.892818612466</v>
+        <v>492.6359261568185</v>
       </c>
       <c r="E197">
-        <v>462173.5438153643</v>
+        <v>168259.8005788614</v>
       </c>
       <c r="F197">
-        <v>-29314.96355363686</v>
+        <v>9360.082596979551</v>
       </c>
       <c r="G197">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="198" spans="1:7">
+        <v>17088.69249162787</v>
+      </c>
+      <c r="H197">
+        <v>270658.719447759</v>
+      </c>
+      <c r="I197">
+        <v>1244016.452283967</v>
+      </c>
+    </row>
+    <row r="198" spans="1:9">
       <c r="A198" s="1">
         <v>196</v>
       </c>
-      <c r="B198" s="2">
-        <v>41933</v>
+      <c r="B198">
+        <v>933</v>
       </c>
       <c r="C198">
-        <v>-2440588.155264367</v>
+        <v>-8383688.262556109</v>
       </c>
       <c r="D198">
-        <v>-1674.190471378043</v>
+        <v>492.6359261568185</v>
       </c>
       <c r="E198">
-        <v>503763.912837653</v>
+        <v>168259.8005788614</v>
       </c>
       <c r="F198">
-        <v>-13393.52377102434</v>
+        <v>3941.087409254548</v>
       </c>
       <c r="G198">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="199" spans="1:7">
+        <v>17168.25375323194</v>
+      </c>
+      <c r="H198">
+        <v>270658.719447759</v>
+      </c>
+      <c r="I198">
+        <v>1248037.100954825</v>
+      </c>
+    </row>
+    <row r="199" spans="1:9">
       <c r="A199" s="1">
         <v>197</v>
       </c>
-      <c r="B199" s="2">
-        <v>41935</v>
+      <c r="B199">
+        <v>934</v>
       </c>
       <c r="C199">
-        <v>-2453981.679035392</v>
+        <v>-8379747.175146854</v>
       </c>
       <c r="D199">
-        <v>-2473.45866895853</v>
+        <v>492.6359261568185</v>
       </c>
       <c r="E199">
-        <v>759475.4843037167</v>
+        <v>168259.8005788614</v>
       </c>
       <c r="F199">
-        <v>-54416.09071708767</v>
+        <v>10837.99037545001</v>
       </c>
       <c r="G199">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="200" spans="1:7">
+        <v>17248.40887732233</v>
+      </c>
+      <c r="H199">
+        <v>270658.719447759</v>
+      </c>
+      <c r="I199">
+        <v>1258955.246454366</v>
+      </c>
+    </row>
+    <row r="200" spans="1:9">
       <c r="A200" s="1">
         <v>198</v>
       </c>
-      <c r="B200" s="2">
-        <v>41936</v>
+      <c r="B200">
+        <v>935</v>
       </c>
       <c r="C200">
-        <v>-2508397.769752479</v>
+        <v>-8368909.184771405</v>
       </c>
       <c r="D200">
-        <v>-2846.604687413143</v>
+        <v>492.6359261568185</v>
       </c>
       <c r="E200">
-        <v>879173.8577075492</v>
+        <v>168259.8005788614</v>
       </c>
       <c r="F200">
-        <v>5693.209374826287</v>
+        <v>-985.2718523136371</v>
       </c>
       <c r="G200">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="201" spans="1:7">
+        <v>17328.51001391397</v>
+      </c>
+      <c r="H200">
+        <v>270658.719447759</v>
+      </c>
+      <c r="I200">
+        <v>1258050.075738644</v>
+      </c>
+    </row>
+    <row r="201" spans="1:9">
       <c r="A201" s="1">
         <v>199</v>
       </c>
-      <c r="B201" s="2">
-        <v>41939</v>
+      <c r="B201">
+        <v>936</v>
       </c>
       <c r="C201">
-        <v>-2517589.526094011</v>
+        <v>-8369894.456623718</v>
       </c>
       <c r="D201">
-        <v>-2350.439163534536</v>
+        <v>492.6359261568185</v>
       </c>
       <c r="E201">
-        <v>719586.949916098</v>
+        <v>168259.8005788614</v>
       </c>
       <c r="F201">
-        <v>2350.439163534536</v>
+        <v>-492.6359261568185</v>
       </c>
       <c r="G201">
-        <v>2</v>
+        <v>17408.58415675623</v>
+      </c>
+      <c r="H201">
+        <v>270658.719447759</v>
+      </c>
+      <c r="I201">
+        <v>1257637.513955329</v>
       </c>
     </row>
   </sheetData>

--- a/HoldingPlot936.xlsx
+++ b/HoldingPlot936.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="214" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="212" uniqueCount="13">
   <si>
     <t>index</t>
   </si>
@@ -410,7 +410,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L204"/>
+  <dimension ref="A1:L202"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -465,25 +465,25 @@
         <v>0</v>
       </c>
       <c r="E2">
-        <v>599</v>
+        <v>28</v>
       </c>
       <c r="F2">
-        <v>2995000</v>
+        <v>140000</v>
       </c>
       <c r="G2">
-        <v>383.6728197260274</v>
+        <v>540.266362739726</v>
       </c>
       <c r="H2">
-        <v>2971.04</v>
+        <v>138.88</v>
       </c>
       <c r="I2">
-        <v>-344425</v>
+        <v>-16100</v>
       </c>
       <c r="J2">
-        <v>9652987.632819727</v>
+        <v>9984301.386362739</v>
       </c>
       <c r="K2">
-        <v>7002412.632819727</v>
+        <v>9860401.386362739</v>
       </c>
       <c r="L2">
         <v>2480</v>
@@ -500,28 +500,28 @@
         <v>11</v>
       </c>
       <c r="D3">
-        <v>-7876</v>
+        <v>0</v>
       </c>
       <c r="E3">
-        <v>420</v>
+        <v>28</v>
       </c>
       <c r="F3">
-        <v>2100000</v>
+        <v>140000</v>
       </c>
       <c r="G3">
-        <v>815.9284112229986</v>
+        <v>1080.562329115766</v>
       </c>
       <c r="H3">
-        <v>3843.128</v>
+        <v>138.88</v>
       </c>
       <c r="I3">
-        <v>-462000</v>
+        <v>-30800</v>
       </c>
       <c r="J3">
-        <v>9527096.800411223</v>
+        <v>9970141.682329115</v>
       </c>
       <c r="K3">
-        <v>7889096.800411223</v>
+        <v>9860941.682329115</v>
       </c>
       <c r="L3">
         <v>2480</v>
@@ -538,31 +538,31 @@
         <v>11</v>
       </c>
       <c r="D4">
-        <v>-7876</v>
+        <v>0</v>
       </c>
       <c r="E4">
-        <v>472</v>
+        <v>28</v>
       </c>
       <c r="F4">
-        <v>2360000</v>
+        <v>140000</v>
       </c>
       <c r="G4">
-        <v>1233.94720795786</v>
+        <v>1620.887900750238</v>
       </c>
       <c r="H4">
-        <v>4096.888</v>
+        <v>138.88</v>
       </c>
       <c r="I4">
-        <v>-903799.9999999991</v>
+        <v>-56700</v>
       </c>
       <c r="J4">
-        <v>9085461.059207957</v>
+        <v>9944782.00790075</v>
       </c>
       <c r="K4">
-        <v>7629261.059207957</v>
+        <v>9861482.00790075</v>
       </c>
       <c r="L4">
-        <v>2475.593220338983</v>
+        <v>2480</v>
       </c>
     </row>
     <row r="5" spans="1:12">
@@ -576,31 +576,31 @@
         <v>11</v>
       </c>
       <c r="D5">
-        <v>-9368.305084745762</v>
+        <v>0</v>
       </c>
       <c r="E5">
-        <v>458</v>
+        <v>28</v>
       </c>
       <c r="F5">
-        <v>2290000</v>
+        <v>140000</v>
       </c>
       <c r="G5">
-        <v>1655.739121498858</v>
+        <v>2161.243079265348</v>
       </c>
       <c r="H5">
-        <v>4163.22</v>
+        <v>138.88</v>
       </c>
       <c r="I5">
-        <v>-1220492.372881355</v>
+        <v>-77700</v>
       </c>
       <c r="J5">
-        <v>8767631.841155397</v>
+        <v>9924322.363079265</v>
       </c>
       <c r="K5">
-        <v>7698124.214036752</v>
+        <v>9862022.363079265</v>
       </c>
       <c r="L5">
-        <v>2475.593220338983</v>
+        <v>2480</v>
       </c>
     </row>
     <row r="6" spans="1:12">
@@ -614,31 +614,31 @@
         <v>11</v>
       </c>
       <c r="D6">
-        <v>-9368.305084745762</v>
+        <v>0</v>
       </c>
       <c r="E6">
-        <v>459</v>
+        <v>28</v>
       </c>
       <c r="F6">
-        <v>2295000</v>
+        <v>140000</v>
       </c>
       <c r="G6">
-        <v>2077.278530487173</v>
+        <v>2701.62786628339</v>
       </c>
       <c r="H6">
-        <v>4193.22</v>
+        <v>138.88</v>
       </c>
       <c r="I6">
-        <v>-1541942.372881352</v>
+        <v>-97300</v>
       </c>
       <c r="J6">
-        <v>8446573.380564388</v>
+        <v>9905262.747866282</v>
       </c>
       <c r="K6">
-        <v>7693515.753445741</v>
+        <v>9862562.747866282</v>
       </c>
       <c r="L6">
-        <v>2475.374062996196</v>
+        <v>2480</v>
       </c>
     </row>
     <row r="7" spans="1:12">
@@ -652,31 +652,31 @@
         <v>11</v>
       </c>
       <c r="D7">
-        <v>-9368.305084745762</v>
+        <v>0</v>
       </c>
       <c r="E7">
-        <v>461</v>
+        <v>28</v>
       </c>
       <c r="F7">
-        <v>2305000</v>
+        <v>140000</v>
       </c>
       <c r="G7">
-        <v>2498.2914484842</v>
+        <v>3242.042263426748</v>
       </c>
       <c r="H7">
-        <v>4223.22</v>
+        <v>138.88</v>
       </c>
       <c r="I7">
-        <v>-1704542.372881352</v>
+        <v>-107100</v>
       </c>
       <c r="J7">
-        <v>8284364.393482386</v>
+        <v>9896003.162263425</v>
       </c>
       <c r="K7">
-        <v>7683906.766363738</v>
+        <v>9863103.162263425</v>
       </c>
       <c r="L7">
-        <v>2474.899555130703</v>
+        <v>2480</v>
       </c>
     </row>
     <row r="8" spans="1:12">
@@ -690,31 +690,31 @@
         <v>11</v>
       </c>
       <c r="D8">
-        <v>-10132.80286039928</v>
+        <v>0</v>
       </c>
       <c r="E8">
-        <v>456</v>
+        <v>28</v>
       </c>
       <c r="F8">
-        <v>2280000</v>
+        <v>140000</v>
       </c>
       <c r="G8">
-        <v>2920.653764571218</v>
+        <v>3782.486272317894</v>
       </c>
       <c r="H8">
-        <v>4253.22</v>
+        <v>138.88</v>
       </c>
       <c r="I8">
-        <v>-1743054.928490014</v>
+        <v>-110600</v>
       </c>
       <c r="J8">
-        <v>8245479.702414158</v>
+        <v>9893043.606272317</v>
       </c>
       <c r="K8">
-        <v>7708534.630904172</v>
+        <v>9863643.606272317</v>
       </c>
       <c r="L8">
-        <v>2474.899555130703</v>
+        <v>2480</v>
       </c>
     </row>
     <row r="9" spans="1:12">
@@ -728,31 +728,31 @@
         <v>11</v>
       </c>
       <c r="D9">
-        <v>-10132.80286039928</v>
+        <v>0</v>
       </c>
       <c r="E9">
-        <v>460</v>
+        <v>28</v>
       </c>
       <c r="F9">
-        <v>2300000</v>
+        <v>140000</v>
       </c>
       <c r="G9">
-        <v>3341.941689552269</v>
+        <v>4322.959894579391</v>
       </c>
       <c r="H9">
-        <v>4283.22</v>
+        <v>138.88</v>
       </c>
       <c r="I9">
-        <v>-2009254.928490016</v>
+        <v>-126700</v>
       </c>
       <c r="J9">
-        <v>7979670.990339137</v>
+        <v>9877484.079894578</v>
       </c>
       <c r="K9">
-        <v>7688925.918829152</v>
+        <v>9864184.079894578</v>
       </c>
       <c r="L9">
-        <v>2473.717819868697</v>
+        <v>2480</v>
       </c>
     </row>
     <row r="10" spans="1:12">
@@ -766,31 +766,31 @@
         <v>11</v>
       </c>
       <c r="D10">
-        <v>-11163.10977961146</v>
+        <v>0</v>
       </c>
       <c r="E10">
-        <v>454</v>
+        <v>28</v>
       </c>
       <c r="F10">
-        <v>2270000</v>
+        <v>140000</v>
       </c>
       <c r="G10">
-        <v>3764.838435410348</v>
+        <v>4863.463131833889</v>
       </c>
       <c r="H10">
-        <v>4313.22</v>
+        <v>138.88</v>
       </c>
       <c r="I10">
-        <v>-1948997.255509711</v>
+        <v>-124600</v>
       </c>
       <c r="J10">
-        <v>8039291.253146087</v>
+        <v>9880124.583131833</v>
       </c>
       <c r="K10">
-        <v>7718288.508655798</v>
+        <v>9864724.583131833</v>
       </c>
       <c r="L10">
-        <v>2473.717819868697</v>
+        <v>2480</v>
       </c>
     </row>
     <row r="11" spans="1:12">
@@ -804,31 +804,31 @@
         <v>11</v>
       </c>
       <c r="D11">
-        <v>-11163.10977961146</v>
+        <v>0</v>
       </c>
       <c r="E11">
-        <v>460</v>
+        <v>28</v>
       </c>
       <c r="F11">
-        <v>2300000</v>
+        <v>140000</v>
       </c>
       <c r="G11">
-        <v>4186.112874240803</v>
+        <v>5403.995985704127</v>
       </c>
       <c r="H11">
-        <v>4343.22</v>
+        <v>138.88</v>
       </c>
       <c r="I11">
-        <v>-1565347.255509711</v>
+        <v>-100800</v>
       </c>
       <c r="J11">
-        <v>8423332.527584918</v>
+        <v>9904465.115985703</v>
       </c>
       <c r="K11">
-        <v>7688679.78309463</v>
+        <v>9865265.115985703</v>
       </c>
       <c r="L11">
-        <v>2472.117152653018</v>
+        <v>2480</v>
       </c>
     </row>
     <row r="12" spans="1:12">
@@ -842,31 +842,31 @@
         <v>11</v>
       </c>
       <c r="D12">
-        <v>-11947.92984818259</v>
+        <v>0</v>
       </c>
       <c r="E12">
-        <v>453</v>
+        <v>28</v>
       </c>
       <c r="F12">
-        <v>2265000</v>
+        <v>140000</v>
       </c>
       <c r="G12">
-        <v>4609.283390570998</v>
+        <v>5944.558457812933</v>
       </c>
       <c r="H12">
-        <v>4376.26</v>
+        <v>138.88</v>
       </c>
       <c r="I12">
-        <v>-1269726.753795433</v>
+        <v>-84000</v>
       </c>
       <c r="J12">
-        <v>8718558.339746954</v>
+        <v>9921805.678457811</v>
       </c>
       <c r="K12">
-        <v>7723285.093542388</v>
+        <v>9865805.678457811</v>
       </c>
       <c r="L12">
-        <v>2472.117152653018</v>
+        <v>2480</v>
       </c>
     </row>
     <row r="13" spans="1:12">
@@ -880,31 +880,31 @@
         <v>11</v>
       </c>
       <c r="D13">
-        <v>-11947.92984818259</v>
+        <v>0</v>
       </c>
       <c r="E13">
-        <v>460</v>
+        <v>28</v>
       </c>
       <c r="F13">
-        <v>2300000</v>
+        <v>140000</v>
       </c>
       <c r="G13">
-        <v>5030.557456518526</v>
+        <v>6485.150549783224</v>
       </c>
       <c r="H13">
-        <v>4409.650000000001</v>
+        <v>138.88</v>
       </c>
       <c r="I13">
-        <v>-1354601.753795432</v>
+        <v>-88900</v>
       </c>
       <c r="J13">
-        <v>8634071.223812904</v>
+        <v>9917446.270549782</v>
       </c>
       <c r="K13">
-        <v>7688672.977608336</v>
+        <v>9866346.270549782</v>
       </c>
       <c r="L13">
-        <v>2470.791456851777</v>
+        <v>2480</v>
       </c>
     </row>
     <row r="14" spans="1:12">
@@ -918,31 +918,31 @@
         <v>11</v>
       </c>
       <c r="D14">
-        <v>-12630.67858929325</v>
+        <v>0</v>
       </c>
       <c r="E14">
-        <v>454</v>
+        <v>28</v>
       </c>
       <c r="F14">
-        <v>2270000</v>
+        <v>140000</v>
       </c>
       <c r="G14">
-        <v>5453.459386867416</v>
+        <v>7025.772263238006</v>
       </c>
       <c r="H14">
-        <v>4439.650000000001</v>
+        <v>138.88</v>
       </c>
       <c r="I14">
-        <v>-1291533.035267666</v>
+        <v>-86100</v>
       </c>
       <c r="J14">
-        <v>8696850.095529906</v>
+        <v>9920786.892263237</v>
       </c>
       <c r="K14">
-        <v>7718383.130797572</v>
+        <v>9866886.892263237</v>
       </c>
       <c r="L14">
-        <v>2470.791456851777</v>
+        <v>2480</v>
       </c>
     </row>
     <row r="15" spans="1:12">
@@ -956,31 +956,31 @@
         <v>11</v>
       </c>
       <c r="D15">
-        <v>-12630.67858929325</v>
+        <v>0</v>
       </c>
       <c r="E15">
-        <v>461</v>
+        <v>28</v>
       </c>
       <c r="F15">
-        <v>2305000</v>
+        <v>140000</v>
       </c>
       <c r="G15">
-        <v>5874.464842911118</v>
+        <v>7566.423599800376</v>
       </c>
       <c r="H15">
-        <v>4473.208000000001</v>
+        <v>138.88</v>
       </c>
       <c r="I15">
-        <v>-1183283.03526767</v>
+        <v>-79100</v>
       </c>
       <c r="J15">
-        <v>8805487.542985948</v>
+        <v>9928327.543599799</v>
       </c>
       <c r="K15">
-        <v>7683770.578253618</v>
+        <v>9867427.543599799</v>
       </c>
       <c r="L15">
-        <v>2469.67097919893</v>
+        <v>2480</v>
       </c>
     </row>
     <row r="16" spans="1:12">
@@ -994,31 +994,31 @@
         <v>11</v>
       </c>
       <c r="D16">
-        <v>-13094.0334852879</v>
+        <v>0</v>
       </c>
       <c r="E16">
-        <v>456</v>
+        <v>28</v>
       </c>
       <c r="F16">
-        <v>2280000</v>
+        <v>140000</v>
       </c>
       <c r="G16">
-        <v>6296.836197615646</v>
+        <v>8107.104561093516</v>
       </c>
       <c r="H16">
-        <v>4503.208000000001</v>
+        <v>138.88</v>
       </c>
       <c r="I16">
-        <v>-1056449.162867803</v>
+        <v>-72100</v>
       </c>
       <c r="J16">
-        <v>8932250.431844525</v>
+        <v>9935868.224561093</v>
       </c>
       <c r="K16">
-        <v>7708699.594712328</v>
+        <v>9867968.224561093</v>
       </c>
       <c r="L16">
-        <v>2469.67097919893</v>
+        <v>2480</v>
       </c>
     </row>
     <row r="17" spans="1:12">
@@ -1032,31 +1032,31 @@
         <v>11</v>
       </c>
       <c r="D17">
-        <v>-13094.0334852879</v>
+        <v>0</v>
       </c>
       <c r="E17">
-        <v>461</v>
+        <v>28</v>
       </c>
       <c r="F17">
-        <v>2305000</v>
+        <v>140000</v>
       </c>
       <c r="G17">
-        <v>6717.859189106732</v>
+        <v>8647.815148740699</v>
       </c>
       <c r="H17">
-        <v>4533.208000000001</v>
+        <v>138.88</v>
       </c>
       <c r="I17">
-        <v>-1459449.162867805</v>
+        <v>-96600</v>
       </c>
       <c r="J17">
-        <v>8529641.454836013</v>
+        <v>9911908.93514874</v>
       </c>
       <c r="K17">
-        <v>7684090.617703818</v>
+        <v>9868508.93514874</v>
       </c>
       <c r="L17">
-        <v>2468.633333003714</v>
+        <v>2480</v>
       </c>
     </row>
     <row r="18" spans="1:12">
@@ -1070,31 +1070,31 @@
         <v>11</v>
       </c>
       <c r="D18">
-        <v>-13872.20015030647</v>
+        <v>0</v>
       </c>
       <c r="E18">
-        <v>456</v>
+        <v>28</v>
       </c>
       <c r="F18">
-        <v>2280000</v>
+        <v>140000</v>
       </c>
       <c r="G18">
-        <v>7140.230830259543</v>
+        <v>9188.555364365287</v>
       </c>
       <c r="H18">
-        <v>4563.208000000001</v>
+        <v>138.88</v>
       </c>
       <c r="I18">
-        <v>-1774219.996242341</v>
+        <v>-116900</v>
       </c>
       <c r="J18">
-        <v>8214484.826437611</v>
+        <v>9892149.675364364</v>
       </c>
       <c r="K18">
-        <v>7708704.822679952</v>
+        <v>9869049.675364364</v>
       </c>
       <c r="L18">
-        <v>2468.633333003714</v>
+        <v>2480</v>
       </c>
     </row>
     <row r="19" spans="1:12">
@@ -1108,31 +1108,31 @@
         <v>11</v>
       </c>
       <c r="D19">
-        <v>-13872.20015030647</v>
+        <v>0</v>
       </c>
       <c r="E19">
-        <v>461</v>
+        <v>28</v>
       </c>
       <c r="F19">
-        <v>2305000</v>
+        <v>140000</v>
       </c>
       <c r="G19">
-        <v>7561.254108214609</v>
+        <v>9729.325209590732</v>
       </c>
       <c r="H19">
-        <v>4593.208000000001</v>
+        <v>138.88</v>
       </c>
       <c r="I19">
-        <v>-1721219.996242343</v>
+        <v>-113400</v>
       </c>
       <c r="J19">
-        <v>8267875.849715564</v>
+        <v>9896190.445209591</v>
       </c>
       <c r="K19">
-        <v>7684095.845957907</v>
+        <v>9869590.445209591</v>
       </c>
       <c r="L19">
-        <v>2467.346637417991</v>
+        <v>2480</v>
       </c>
     </row>
     <row r="20" spans="1:12">
@@ -1146,31 +1146,31 @@
         <v>11</v>
       </c>
       <c r="D20">
-        <v>-14750.27997481442</v>
+        <v>0</v>
       </c>
       <c r="E20">
-        <v>455</v>
+        <v>28</v>
       </c>
       <c r="F20">
-        <v>2275000</v>
+        <v>140000</v>
       </c>
       <c r="G20">
-        <v>7983.894533756165</v>
+        <v>10270.12468604057</v>
       </c>
       <c r="H20">
-        <v>4623.208000000001</v>
+        <v>138.88</v>
       </c>
       <c r="I20">
-        <v>-1664693.000629644</v>
+        <v>-111300</v>
       </c>
       <c r="J20">
-        <v>8323917.405929296</v>
+        <v>9898831.244686039</v>
       </c>
       <c r="K20">
-        <v>7713610.40655894</v>
+        <v>9870131.244686039</v>
       </c>
       <c r="L20">
-        <v>2467.346637417991</v>
+        <v>2480</v>
       </c>
     </row>
     <row r="21" spans="1:12">
@@ -1184,31 +1184,31 @@
         <v>11</v>
       </c>
       <c r="D21">
-        <v>-14750.27997481442</v>
+        <v>0</v>
       </c>
       <c r="E21">
-        <v>460</v>
+        <v>28</v>
       </c>
       <c r="F21">
-        <v>2300000</v>
+        <v>140000</v>
       </c>
       <c r="G21">
-        <v>8405.186610827888</v>
+        <v>10810.95379533844</v>
       </c>
       <c r="H21">
-        <v>4653.208000000001</v>
+        <v>138.88</v>
       </c>
       <c r="I21">
-        <v>-1726443.000629641</v>
+        <v>-114800</v>
       </c>
       <c r="J21">
-        <v>8262558.698006371</v>
+        <v>9895872.073795337</v>
       </c>
       <c r="K21">
-        <v>7689001.698636012</v>
+        <v>9870672.073795337</v>
       </c>
       <c r="L21">
-        <v>2466.125478315621</v>
+        <v>2480</v>
       </c>
     </row>
     <row r="22" spans="1:12">
@@ -1222,31 +1222,31 @@
         <v>11</v>
       </c>
       <c r="D22">
-        <v>-15871.28380133938</v>
+        <v>0</v>
       </c>
       <c r="E22">
-        <v>452</v>
+        <v>28</v>
       </c>
       <c r="F22">
-        <v>2260000</v>
+        <v>140000</v>
       </c>
       <c r="G22">
-        <v>8828.630089118818</v>
+        <v>11351.81253910804</v>
       </c>
       <c r="H22">
-        <v>4690.424000000001</v>
+        <v>138.88</v>
       </c>
       <c r="I22">
-        <v>-1583417.904966517</v>
+        <v>-107800</v>
       </c>
       <c r="J22">
-        <v>8404849.017321263</v>
+        <v>9903412.932539107</v>
       </c>
       <c r="K22">
-        <v>7728266.922287779</v>
+        <v>9871212.932539107</v>
       </c>
       <c r="L22">
-        <v>2466.125478315621</v>
+        <v>2480</v>
       </c>
     </row>
     <row r="23" spans="1:12">
@@ -1260,31 +1260,31 @@
         <v>11</v>
       </c>
       <c r="D23">
-        <v>-15871.28380133938</v>
+        <v>0</v>
       </c>
       <c r="E23">
-        <v>457</v>
+        <v>28</v>
       </c>
       <c r="F23">
-        <v>2285000</v>
+        <v>140000</v>
       </c>
       <c r="G23">
-        <v>9250.725262942806</v>
+        <v>11892.7009189732</v>
       </c>
       <c r="H23">
-        <v>4720.424000000001</v>
+        <v>138.88</v>
       </c>
       <c r="I23">
-        <v>-1371342.904966518</v>
+        <v>-94500</v>
       </c>
       <c r="J23">
-        <v>8617316.112495085</v>
+        <v>9917253.820918972</v>
       </c>
       <c r="K23">
-        <v>7703659.017461604</v>
+        <v>9871753.820918972</v>
       </c>
       <c r="L23">
-        <v>2465.030013563809</v>
+        <v>2480</v>
       </c>
     </row>
     <row r="24" spans="1:12">
@@ -1298,31 +1298,31 @@
         <v>11</v>
       </c>
       <c r="D24">
-        <v>-16993.61395054128</v>
+        <v>0</v>
       </c>
       <c r="E24">
-        <v>446</v>
+        <v>28</v>
       </c>
       <c r="F24">
-        <v>2230000</v>
+        <v>140000</v>
       </c>
       <c r="G24">
-        <v>9675.792917809238</v>
+        <v>12433.6189365578</v>
       </c>
       <c r="H24">
-        <v>4772.410000000001</v>
+        <v>138.88</v>
       </c>
       <c r="I24">
-        <v>-1137634.65123647</v>
+        <v>-81900</v>
       </c>
       <c r="J24">
-        <v>8850275.117730796</v>
+        <v>9930394.738936557</v>
       </c>
       <c r="K24">
-        <v>7757909.768967267</v>
+        <v>9872294.738936557</v>
       </c>
       <c r="L24">
-        <v>2465.030013563809</v>
+        <v>2480</v>
       </c>
     </row>
     <row r="25" spans="1:12">
@@ -1336,31 +1336,31 @@
         <v>11</v>
       </c>
       <c r="D25">
-        <v>-16993.61395054128</v>
+        <v>0</v>
       </c>
       <c r="E25">
-        <v>452</v>
+        <v>28</v>
       </c>
       <c r="F25">
-        <v>2260000</v>
+        <v>140000</v>
       </c>
       <c r="G25">
-        <v>10099.23838460197</v>
+        <v>12974.56659348583</v>
       </c>
       <c r="H25">
-        <v>4802.410000000001</v>
+        <v>138.88</v>
       </c>
       <c r="I25">
-        <v>-974584.6512364699</v>
+        <v>-71400</v>
       </c>
       <c r="J25">
-        <v>9013718.56319759</v>
+        <v>9941435.686593484</v>
       </c>
       <c r="K25">
-        <v>7728303.214434061</v>
+        <v>9872835.686593484</v>
       </c>
       <c r="L25">
-        <v>2464.246429312962</v>
+        <v>2480</v>
       </c>
     </row>
     <row r="26" spans="1:12">
@@ -1374,31 +1374,31 @@
         <v>11</v>
       </c>
       <c r="D26">
-        <v>-18117.06396092275</v>
+        <v>0</v>
       </c>
       <c r="E26">
-        <v>438</v>
+        <v>28</v>
       </c>
       <c r="F26">
-        <v>2190000</v>
+        <v>140000</v>
       </c>
       <c r="G26">
-        <v>10526.47745377587</v>
+        <v>13515.54389138137</v>
       </c>
       <c r="H26">
-        <v>4869.162000000001</v>
+        <v>138.88</v>
       </c>
       <c r="I26">
-        <v>-878698.4009769332</v>
+        <v>-67200</v>
       </c>
       <c r="J26">
-        <v>9108841.850515919</v>
+        <v>9946176.663891381</v>
       </c>
       <c r="K26">
-        <v>7797540.251492852</v>
+        <v>9873376.663891381</v>
       </c>
       <c r="L26">
-        <v>2464.246429312962</v>
+        <v>2480</v>
       </c>
     </row>
     <row r="27" spans="1:12">
@@ -1412,31 +1412,31 @@
         <v>11</v>
       </c>
       <c r="D27">
-        <v>-18117.06396092275</v>
+        <v>0</v>
       </c>
       <c r="E27">
-        <v>448</v>
+        <v>28</v>
       </c>
       <c r="F27">
-        <v>2240000</v>
+        <v>140000</v>
       </c>
       <c r="G27">
-        <v>10950.99755084397</v>
+        <v>14056.55083186857</v>
       </c>
       <c r="H27">
-        <v>4917.642000000001</v>
+        <v>138.88</v>
       </c>
       <c r="I27">
-        <v>-743098.4009769324</v>
+        <v>-58100</v>
       </c>
       <c r="J27">
-        <v>9244817.890612988</v>
+        <v>9955817.670831868</v>
       </c>
       <c r="K27">
-        <v>7747916.291589919</v>
+        <v>9873917.670831868</v>
       </c>
       <c r="L27">
-        <v>2463.348071515798</v>
+        <v>2480</v>
       </c>
     </row>
     <row r="28" spans="1:12">
@@ -1450,31 +1450,31 @@
         <v>11</v>
       </c>
       <c r="D28">
-        <v>-18730.63310517551</v>
+        <v>0</v>
       </c>
       <c r="E28">
-        <v>432</v>
+        <v>28</v>
       </c>
       <c r="F28">
-        <v>2160000</v>
+        <v>140000</v>
       </c>
       <c r="G28">
-        <v>11379.88659864921</v>
+        <v>14597.58741657168</v>
       </c>
       <c r="H28">
-        <v>4995.242000000001</v>
+        <v>138.88</v>
       </c>
       <c r="I28">
-        <v>-414159.1723706133</v>
+        <v>-38500</v>
       </c>
       <c r="J28">
-        <v>9573494.83912286</v>
+        <v>9975958.707416572</v>
       </c>
       <c r="K28">
-        <v>7827654.011493472</v>
+        <v>9874458.707416572</v>
       </c>
       <c r="L28">
-        <v>2463.348071515798</v>
+        <v>2480</v>
       </c>
     </row>
     <row r="29" spans="1:12">
@@ -1488,31 +1488,31 @@
         <v>11</v>
       </c>
       <c r="D29">
-        <v>-18730.63310517551</v>
+        <v>0</v>
       </c>
       <c r="E29">
-        <v>445</v>
+        <v>28</v>
       </c>
       <c r="F29">
-        <v>2225000</v>
+        <v>140000</v>
       </c>
       <c r="G29">
-        <v>11805.23397451187</v>
+        <v>15138.65364711506</v>
       </c>
       <c r="H29">
-        <v>5059.644000000001</v>
+        <v>138.88</v>
       </c>
       <c r="I29">
-        <v>-208559.1723706107</v>
+        <v>-24500</v>
       </c>
       <c r="J29">
-        <v>9779455.784498727</v>
+        <v>9990499.773647115</v>
       </c>
       <c r="K29">
-        <v>7763014.956869338</v>
+        <v>9874999.773647115</v>
       </c>
       <c r="L29">
-        <v>2463.746891898482</v>
+        <v>2480</v>
       </c>
     </row>
     <row r="30" spans="1:12">
@@ -1526,31 +1526,31 @@
         <v>11</v>
       </c>
       <c r="D30">
-        <v>-19110.58337555122</v>
+        <v>0</v>
       </c>
       <c r="E30">
-        <v>429</v>
+        <v>28</v>
       </c>
       <c r="F30">
-        <v>2145000</v>
+        <v>140000</v>
       </c>
       <c r="G30">
-        <v>12234.96312117482</v>
+        <v>15679.74952512312</v>
       </c>
       <c r="H30">
-        <v>5137.724000000001</v>
+        <v>138.88</v>
       </c>
       <c r="I30">
-        <v>-254685.415611218</v>
+        <v>-28000</v>
       </c>
       <c r="J30">
-        <v>9733301.240134405</v>
+        <v>9987540.869525122</v>
       </c>
       <c r="K30">
-        <v>7842986.655745624</v>
+        <v>9875540.869525122</v>
       </c>
       <c r="L30">
-        <v>2463.746891898482</v>
+        <v>2480</v>
       </c>
     </row>
     <row r="31" spans="1:12">
@@ -1564,31 +1564,31 @@
         <v>11</v>
       </c>
       <c r="D31">
-        <v>-19110.58337555122</v>
+        <v>0</v>
       </c>
       <c r="E31">
-        <v>444</v>
+        <v>28</v>
       </c>
       <c r="F31">
-        <v>2220000</v>
+        <v>140000</v>
       </c>
       <c r="G31">
-        <v>12660.60209792801</v>
+        <v>16220.87505222038</v>
       </c>
       <c r="H31">
-        <v>5213.054000000001</v>
+        <v>138.88</v>
       </c>
       <c r="I31">
-        <v>173789.5843887812</v>
+        <v>700</v>
       </c>
       <c r="J31">
-        <v>10162126.54911116</v>
+        <v>10016781.99505222</v>
       </c>
       <c r="K31">
-        <v>7768336.964722378</v>
+        <v>9876081.99505222</v>
       </c>
       <c r="L31">
-        <v>2465.343280685695</v>
+        <v>2480</v>
       </c>
     </row>
     <row r="32" spans="1:12">
@@ -1602,31 +1602,31 @@
         <v>11</v>
       </c>
       <c r="D32">
-        <v>-18650.73258583665</v>
+        <v>0</v>
       </c>
       <c r="E32">
-        <v>429</v>
+        <v>28</v>
       </c>
       <c r="F32">
-        <v>2145000</v>
+        <v>140000</v>
       </c>
       <c r="G32">
-        <v>13090.39508069579</v>
+        <v>16762.03023003147</v>
       </c>
       <c r="H32">
-        <v>5287.934000000001</v>
+        <v>138.88</v>
       </c>
       <c r="I32">
-        <v>328793.3146459169</v>
+        <v>11200</v>
       </c>
       <c r="J32">
-        <v>10317945.04314077</v>
+        <v>10027823.15023003</v>
       </c>
       <c r="K32">
-        <v>7844151.728494858</v>
+        <v>9876623.150230031</v>
       </c>
       <c r="L32">
-        <v>2465.343280685695</v>
+        <v>2480</v>
       </c>
     </row>
     <row r="33" spans="1:12">
@@ -1640,31 +1640,31 @@
         <v>11</v>
       </c>
       <c r="D33">
-        <v>-18650.73258583665</v>
+        <v>0</v>
       </c>
       <c r="E33">
-        <v>443</v>
+        <v>28</v>
       </c>
       <c r="F33">
-        <v>2215000</v>
+        <v>140000</v>
       </c>
       <c r="G33">
-        <v>13516.37208499688</v>
+        <v>17303.21506018106</v>
       </c>
       <c r="H33">
-        <v>5359.334000000001</v>
+        <v>138.88</v>
       </c>
       <c r="I33">
-        <v>287743.3146459181</v>
+        <v>9800</v>
       </c>
       <c r="J33">
-        <v>10277249.62014508</v>
+        <v>10026964.33506018</v>
       </c>
       <c r="K33">
-        <v>7774506.305499161</v>
+        <v>9877164.335060181</v>
       </c>
       <c r="L33">
-        <v>2468.018662334454</v>
+        <v>2480</v>
       </c>
     </row>
     <row r="34" spans="1:12">
@@ -1678,31 +1678,31 @@
         <v>11</v>
       </c>
       <c r="D34">
-        <v>-18052.97519618456</v>
+        <v>0</v>
       </c>
       <c r="E34">
-        <v>430</v>
+        <v>28</v>
       </c>
       <c r="F34">
-        <v>2150000</v>
+        <v>140000</v>
       </c>
       <c r="G34">
-        <v>13945.96324657983</v>
+        <v>17844.42954429394</v>
       </c>
       <c r="H34">
-        <v>5424.698</v>
+        <v>138.88</v>
       </c>
       <c r="I34">
-        <v>494299.3799046158</v>
+        <v>23800</v>
       </c>
       <c r="J34">
-        <v>10484767.66995501</v>
+        <v>10041505.54954429</v>
       </c>
       <c r="K34">
-        <v>7840468.290050395</v>
+        <v>9877705.549544293</v>
       </c>
       <c r="L34">
-        <v>2468.018662334454</v>
+        <v>2480</v>
       </c>
     </row>
     <row r="35" spans="1:12">
@@ -1716,31 +1716,31 @@
         <v>11</v>
       </c>
       <c r="D35">
-        <v>-18052.97519618456</v>
+        <v>0</v>
       </c>
       <c r="E35">
-        <v>444</v>
+        <v>28</v>
       </c>
       <c r="F35">
-        <v>2220000</v>
+        <v>140000</v>
       </c>
       <c r="G35">
-        <v>14371.73838641821</v>
+        <v>18385.673683995</v>
       </c>
       <c r="H35">
-        <v>5496.686000000001</v>
+        <v>138.88</v>
       </c>
       <c r="I35">
-        <v>663049.3799046162</v>
+        <v>35700</v>
       </c>
       <c r="J35">
-        <v>10653871.45709485</v>
+        <v>10053946.79368399</v>
       </c>
       <c r="K35">
-        <v>7770822.077190233</v>
+        <v>9878246.793683995</v>
       </c>
       <c r="L35">
-        <v>2471.265821630215</v>
+        <v>2480</v>
       </c>
     </row>
     <row r="36" spans="1:12">
@@ -1754,31 +1754,31 @@
         <v>11</v>
       </c>
       <c r="D36">
-        <v>-17393.43087737735</v>
+        <v>0</v>
       </c>
       <c r="E36">
-        <v>431</v>
+        <v>28</v>
       </c>
       <c r="F36">
-        <v>2155000</v>
+        <v>140000</v>
       </c>
       <c r="G36">
-        <v>14801.13104666528</v>
+        <v>18926.9474809092</v>
       </c>
       <c r="H36">
-        <v>5562.258000000001</v>
+        <v>138.88</v>
       </c>
       <c r="I36">
-        <v>546660.7719344359</v>
+        <v>29400</v>
       </c>
       <c r="J36">
-        <v>10538506.21410372</v>
+        <v>10048188.06748091</v>
       </c>
       <c r="K36">
-        <v>7836845.442169288</v>
+        <v>9878788.067480909</v>
       </c>
       <c r="L36">
-        <v>2471.265821630215</v>
+        <v>2480</v>
       </c>
     </row>
     <row r="37" spans="1:12">
@@ -1792,31 +1792,31 @@
         <v>11</v>
       </c>
       <c r="D37">
-        <v>-17393.43087737735</v>
+        <v>0</v>
       </c>
       <c r="E37">
-        <v>445</v>
+        <v>28</v>
       </c>
       <c r="F37">
-        <v>2225000</v>
+        <v>140000</v>
       </c>
       <c r="G37">
-        <v>15226.70761138688</v>
+        <v>19468.25093666157</v>
       </c>
       <c r="H37">
-        <v>5635.394000000001</v>
+        <v>138.88</v>
       </c>
       <c r="I37">
-        <v>437285.7719344373</v>
+        <v>24500</v>
       </c>
       <c r="J37">
-        <v>10429483.65466845</v>
+        <v>10043829.37093666</v>
       </c>
       <c r="K37">
-        <v>7767197.88273401</v>
+        <v>9879329.37093666</v>
       </c>
       <c r="L37">
-        <v>2475.693413758702</v>
+        <v>2480</v>
       </c>
     </row>
     <row r="38" spans="1:12">
@@ -1830,31 +1830,31 @@
         <v>11</v>
       </c>
       <c r="D38">
-        <v>-16333.75184248178</v>
+        <v>0</v>
       </c>
       <c r="E38">
-        <v>433</v>
+        <v>28</v>
       </c>
       <c r="F38">
-        <v>2165000</v>
+        <v>140000</v>
       </c>
       <c r="G38">
-        <v>15655.64985937422</v>
+        <v>20009.58405287728</v>
       </c>
       <c r="H38">
-        <v>5696.930000000001</v>
+        <v>138.88</v>
       </c>
       <c r="I38">
-        <v>955918.7960620479</v>
+        <v>58800</v>
       </c>
       <c r="J38">
-        <v>10949543.76407894</v>
+        <v>10078670.70405288</v>
       </c>
       <c r="K38">
-        <v>7828624.968016893</v>
+        <v>9879870.704052877</v>
       </c>
       <c r="L38">
-        <v>2475.693413758702</v>
+        <v>2480</v>
       </c>
     </row>
     <row r="39" spans="1:12">
@@ -1868,31 +1868,31 @@
         <v>11</v>
       </c>
       <c r="D39">
-        <v>-16333.75184248178</v>
+        <v>0</v>
       </c>
       <c r="E39">
-        <v>448</v>
+        <v>28</v>
       </c>
       <c r="F39">
-        <v>2240000</v>
+        <v>140000</v>
       </c>
       <c r="G39">
-        <v>16080.50174803268</v>
+        <v>20550.94683118155</v>
       </c>
       <c r="H39">
-        <v>5774.930000000001</v>
+        <v>138.88</v>
       </c>
       <c r="I39">
-        <v>785618.7960620518</v>
+        <v>49000</v>
       </c>
       <c r="J39">
-        <v>10779590.6159676</v>
+        <v>10069412.06683118</v>
       </c>
       <c r="K39">
-        <v>7753971.819905551</v>
+        <v>9880412.066831181</v>
       </c>
       <c r="L39">
-        <v>2479.855464637317</v>
+        <v>2480</v>
       </c>
     </row>
     <row r="40" spans="1:12">
@@ -1906,31 +1906,31 @@
         <v>11</v>
       </c>
       <c r="D40">
-        <v>-15045.16195349226</v>
+        <v>0</v>
       </c>
       <c r="E40">
-        <v>437</v>
+        <v>28</v>
       </c>
       <c r="F40">
-        <v>2185000</v>
+        <v>140000</v>
       </c>
       <c r="G40">
-        <v>16508.45809191183</v>
+        <v>21092.3392731997</v>
       </c>
       <c r="H40">
-        <v>5832.064000000001</v>
+        <v>138.88</v>
       </c>
       <c r="I40">
-        <v>1279804.048837314</v>
+        <v>81900</v>
       </c>
       <c r="J40">
-        <v>11275435.28097573</v>
+        <v>10102853.4592732</v>
       </c>
       <c r="K40">
-        <v>7810631.23213842</v>
+        <v>9880953.459273199</v>
       </c>
       <c r="L40">
-        <v>2479.855464637317</v>
+        <v>2480</v>
       </c>
     </row>
     <row r="41" spans="1:12">
@@ -1944,31 +1944,31 @@
         <v>11</v>
       </c>
       <c r="D41">
-        <v>-15045.16195349226</v>
+        <v>0</v>
       </c>
       <c r="E41">
-        <v>452</v>
+        <v>28</v>
       </c>
       <c r="F41">
-        <v>2260000</v>
+        <v>140000</v>
       </c>
       <c r="G41">
-        <v>16932.32398463175</v>
+        <v>21633.76138055713</v>
       </c>
       <c r="H41">
-        <v>5910.754000000001</v>
+        <v>138.88</v>
       </c>
       <c r="I41">
-        <v>1100554.048837314</v>
+        <v>71400</v>
       </c>
       <c r="J41">
-        <v>11096530.45686845</v>
+        <v>10092894.88138056</v>
       </c>
       <c r="K41">
-        <v>7735976.40803114</v>
+        <v>9881494.881380556</v>
       </c>
       <c r="L41">
-        <v>2484.605836386078</v>
+        <v>2480</v>
       </c>
     </row>
     <row r="42" spans="1:12">
@@ -1982,31 +1982,31 @@
         <v>11</v>
       </c>
       <c r="D42">
-        <v>-14104.40280819481</v>
+        <v>0</v>
       </c>
       <c r="E42">
-        <v>445</v>
+        <v>28</v>
       </c>
       <c r="F42">
-        <v>2225000</v>
+        <v>140000</v>
       </c>
       <c r="G42">
-        <v>17358.18045044964</v>
+        <v>22175.21315487935</v>
       </c>
       <c r="H42">
-        <v>5947.420000000001</v>
+        <v>138.88</v>
       </c>
       <c r="I42">
-        <v>1495135.070204878</v>
+        <v>97300</v>
       </c>
       <c r="J42">
-        <v>11492441.42784713</v>
+        <v>10119336.33315488</v>
       </c>
       <c r="K42">
-        <v>7772306.357642254</v>
+        <v>9882036.333154878</v>
       </c>
       <c r="L42">
-        <v>2484.605836386078</v>
+        <v>2480</v>
       </c>
     </row>
     <row r="43" spans="1:12">
@@ -2020,31 +2020,31 @@
         <v>11</v>
       </c>
       <c r="D43">
-        <v>-14104.40280819481</v>
+        <v>0</v>
       </c>
       <c r="E43">
-        <v>458</v>
+        <v>28</v>
       </c>
       <c r="F43">
-        <v>2290000</v>
+        <v>140000</v>
       </c>
       <c r="G43">
-        <v>17780.49481316976</v>
+        <v>22716.69459779195</v>
       </c>
       <c r="H43">
-        <v>6016.658000000001</v>
+        <v>138.88</v>
       </c>
       <c r="I43">
-        <v>1286185.070204881</v>
+        <v>85400</v>
       </c>
       <c r="J43">
-        <v>11283844.50420986</v>
+        <v>10107977.81459779</v>
       </c>
       <c r="K43">
-        <v>7707659.434004975</v>
+        <v>9882577.814597791</v>
       </c>
       <c r="L43">
-        <v>2489.66942618298</v>
+        <v>2480</v>
       </c>
     </row>
     <row r="44" spans="1:12">
@@ -2058,31 +2058,31 @@
         <v>11</v>
       </c>
       <c r="D44">
-        <v>-13403.08051292673</v>
+        <v>0</v>
       </c>
       <c r="E44">
-        <v>454</v>
+        <v>28</v>
       </c>
       <c r="F44">
-        <v>2270000</v>
+        <v>140000</v>
       </c>
       <c r="G44">
-        <v>18203.96499159717</v>
+        <v>23258.2057109206</v>
       </c>
       <c r="H44">
-        <v>6046.658000000001</v>
+        <v>138.88</v>
       </c>
       <c r="I44">
-        <v>1990002.012823179</v>
+        <v>129500</v>
       </c>
       <c r="J44">
-        <v>11988756.23930185</v>
+        <v>10152619.32571092</v>
       </c>
       <c r="K44">
-        <v>7728754.226478672</v>
+        <v>9883119.325710921</v>
       </c>
       <c r="L44">
-        <v>2489.66942618298</v>
+        <v>2480</v>
       </c>
     </row>
     <row r="45" spans="1:12">
@@ -2096,31 +2096,31 @@
         <v>11</v>
       </c>
       <c r="D45">
-        <v>-13403.08051292673</v>
+        <v>0</v>
       </c>
       <c r="E45">
-        <v>462</v>
+        <v>28</v>
       </c>
       <c r="F45">
-        <v>2310000</v>
+        <v>140000</v>
       </c>
       <c r="G45">
-        <v>18625.26422241792</v>
+        <v>23799.74649589106</v>
       </c>
       <c r="H45">
-        <v>6089.922000000001</v>
+        <v>138.88</v>
       </c>
       <c r="I45">
-        <v>1866702.012823177</v>
+        <v>122500</v>
       </c>
       <c r="J45">
-        <v>11865834.27453267</v>
+        <v>10146160.86649589</v>
       </c>
       <c r="K45">
-        <v>7689132.261709491</v>
+        <v>9883660.866495891</v>
       </c>
       <c r="L45">
-        <v>2493.380778110547</v>
+        <v>2480</v>
       </c>
     </row>
     <row r="46" spans="1:12">
@@ -2134,31 +2134,31 @@
         <v>11</v>
       </c>
       <c r="D46">
-        <v>-12918.22284725837</v>
+        <v>0</v>
       </c>
       <c r="E46">
-        <v>459</v>
+        <v>28</v>
       </c>
       <c r="F46">
-        <v>2295000</v>
+        <v>140000</v>
       </c>
       <c r="G46">
-        <v>19047.43337964396</v>
+        <v>24341.31695432919</v>
       </c>
       <c r="H46">
-        <v>6119.922000000001</v>
+        <v>138.88</v>
       </c>
       <c r="I46">
-        <v>1854580.571181468</v>
+        <v>122500</v>
       </c>
       <c r="J46">
-        <v>11854589.85971385</v>
+        <v>10146702.43695433</v>
       </c>
       <c r="K46">
-        <v>7705009.288532386</v>
+        <v>9884202.436954329</v>
       </c>
       <c r="L46">
-        <v>2493.380778110547</v>
+        <v>2480</v>
       </c>
     </row>
     <row r="47" spans="1:12">
@@ -2172,31 +2172,31 @@
         <v>11</v>
       </c>
       <c r="D47">
-        <v>-12918.22284725837</v>
+        <v>0</v>
       </c>
       <c r="E47">
-        <v>461</v>
+        <v>28</v>
       </c>
       <c r="F47">
-        <v>2305000</v>
+        <v>140000</v>
       </c>
       <c r="G47">
-        <v>19469.07608038546</v>
+        <v>24882.91708786093</v>
       </c>
       <c r="H47">
-        <v>6149.922000000001</v>
+        <v>138.88</v>
       </c>
       <c r="I47">
-        <v>1243555.571181469</v>
+        <v>85400</v>
       </c>
       <c r="J47">
-        <v>11243956.5024146</v>
+        <v>10110144.03708786</v>
       </c>
       <c r="K47">
-        <v>7695400.931233127</v>
+        <v>9884744.03708786</v>
       </c>
       <c r="L47">
-        <v>2494.099299680567</v>
+        <v>2480</v>
       </c>
     </row>
     <row r="48" spans="1:12">
@@ -2210,31 +2210,31 @@
         <v>11</v>
       </c>
       <c r="D48">
-        <v>-12816.32214693894</v>
+        <v>0</v>
       </c>
       <c r="E48">
-        <v>460</v>
+        <v>28</v>
       </c>
       <c r="F48">
-        <v>2300000</v>
+        <v>140000</v>
       </c>
       <c r="G48">
-        <v>19891.01979720373</v>
+        <v>25424.54689811232</v>
       </c>
       <c r="H48">
-        <v>6179.922000000001</v>
+        <v>138.88</v>
       </c>
       <c r="I48">
-        <v>1171858.053673483</v>
+        <v>81200</v>
       </c>
       <c r="J48">
-        <v>11172752.82932375</v>
+        <v>10106485.66689811</v>
       </c>
       <c r="K48">
-        <v>7700894.775650265</v>
+        <v>9885285.666898111</v>
       </c>
       <c r="L48">
-        <v>2494.099299680567</v>
+        <v>2480</v>
       </c>
     </row>
     <row r="49" spans="1:12">
@@ -2248,31 +2248,31 @@
         <v>11</v>
       </c>
       <c r="D49">
-        <v>-12747.42144661951</v>
+        <v>0</v>
       </c>
       <c r="E49">
-        <v>459</v>
+        <v>28</v>
       </c>
       <c r="F49">
-        <v>2295000</v>
+        <v>140000</v>
       </c>
       <c r="G49">
-        <v>20313.26273837362</v>
+        <v>25966.20638670948</v>
       </c>
       <c r="H49">
-        <v>6209.922000000001</v>
+        <v>138.88</v>
       </c>
       <c r="I49">
-        <v>790635.5361654974</v>
+        <v>58100</v>
       </c>
       <c r="J49">
-        <v>10791991.45545725</v>
+        <v>10083927.32638671</v>
       </c>
       <c r="K49">
-        <v>7706355.919291753</v>
+        <v>9885827.326386709</v>
       </c>
       <c r="L49">
-        <v>2494.099299680567</v>
+        <v>2480</v>
       </c>
     </row>
     <row r="50" spans="1:12">
@@ -2286,31 +2286,31 @@
         <v>11</v>
       </c>
       <c r="D50">
-        <v>-12747.42144661951</v>
+        <v>0</v>
       </c>
       <c r="E50">
-        <v>459</v>
+        <v>28</v>
       </c>
       <c r="F50">
-        <v>2295000</v>
+        <v>140000</v>
       </c>
       <c r="G50">
-        <v>20735.52717230741</v>
+        <v>26507.89555527861</v>
       </c>
       <c r="H50">
-        <v>6239.922000000001</v>
+        <v>138.88</v>
       </c>
       <c r="I50">
-        <v>767685.5361654923</v>
+        <v>56700</v>
       </c>
       <c r="J50">
-        <v>10769433.71989118</v>
+        <v>10083069.01555528</v>
       </c>
       <c r="K50">
-        <v>7706748.183725687</v>
+        <v>9886369.015555277</v>
       </c>
       <c r="L50">
-        <v>2494.099299680567</v>
+        <v>2480</v>
       </c>
     </row>
     <row r="51" spans="1:12">
@@ -2324,31 +2324,31 @@
         <v>11</v>
       </c>
       <c r="D51">
-        <v>-12515.81864534178</v>
+        <v>0</v>
       </c>
       <c r="E51">
-        <v>455</v>
+        <v>28</v>
       </c>
       <c r="F51">
-        <v>2275000</v>
+        <v>140000</v>
       </c>
       <c r="G51">
-        <v>21158.92168115821</v>
+        <v>27049.61440544603</v>
       </c>
       <c r="H51">
-        <v>6269.922000000001</v>
+        <v>138.88</v>
       </c>
       <c r="I51">
-        <v>658620.4661335489</v>
+        <v>50400</v>
       </c>
       <c r="J51">
-        <v>10660993.64716937</v>
+        <v>10077310.73440544</v>
       </c>
       <c r="K51">
-        <v>7727373.181035817</v>
+        <v>9886910.734405445</v>
       </c>
       <c r="L51">
-        <v>2494.099299680567</v>
+        <v>2480</v>
       </c>
     </row>
     <row r="52" spans="1:12">
@@ -2362,31 +2362,31 @@
         <v>11</v>
       </c>
       <c r="D52">
-        <v>-12515.81864534178</v>
+        <v>0</v>
       </c>
       <c r="E52">
-        <v>456</v>
+        <v>28</v>
       </c>
       <c r="F52">
-        <v>2280000</v>
+        <v>140000</v>
       </c>
       <c r="G52">
-        <v>21582.06377326976</v>
+        <v>27591.36293883811</v>
       </c>
       <c r="H52">
-        <v>6299.922000000001</v>
+        <v>138.88</v>
       </c>
       <c r="I52">
-        <v>964920.4661335505</v>
+        <v>69300</v>
       </c>
       <c r="J52">
-        <v>10967686.78926148</v>
+        <v>10096752.48293884</v>
       </c>
       <c r="K52">
-        <v>7722766.323127927</v>
+        <v>9887452.482938837</v>
       </c>
       <c r="L52">
-        <v>2494.357853847934</v>
+        <v>2480</v>
       </c>
     </row>
     <row r="53" spans="1:12">
@@ -2400,31 +2400,31 @@
         <v>11</v>
       </c>
       <c r="D53">
-        <v>-12182.60791458145</v>
+        <v>0</v>
       </c>
       <c r="E53">
-        <v>451</v>
+        <v>28</v>
       </c>
       <c r="F53">
-        <v>2255000</v>
+        <v>140000</v>
       </c>
       <c r="G53">
-        <v>22006.61552854969</v>
+        <v>28133.14115708133</v>
       </c>
       <c r="H53">
-        <v>6329.922000000001</v>
+        <v>138.88</v>
       </c>
       <c r="I53">
-        <v>751390.1978645422</v>
+        <v>56700</v>
       </c>
       <c r="J53">
-        <v>10754884.28347851</v>
+        <v>10084694.26115708</v>
       </c>
       <c r="K53">
-        <v>7748494.085613968</v>
+        <v>9887994.261157081</v>
       </c>
       <c r="L53">
-        <v>2494.357853847934</v>
+        <v>2480</v>
       </c>
     </row>
     <row r="54" spans="1:12">
@@ -2438,31 +2438,31 @@
         <v>11</v>
       </c>
       <c r="D54">
-        <v>-12182.60791458145</v>
+        <v>0</v>
       </c>
       <c r="E54">
-        <v>452</v>
+        <v>28</v>
       </c>
       <c r="F54">
-        <v>2260000</v>
+        <v>140000</v>
       </c>
       <c r="G54">
-        <v>22430.91493050114</v>
+        <v>28674.94906180226</v>
       </c>
       <c r="H54">
-        <v>6359.922000000001</v>
+        <v>138.88</v>
       </c>
       <c r="I54">
-        <v>660190.1978645429</v>
+        <v>51100</v>
       </c>
       <c r="J54">
-        <v>10664078.58288046</v>
+        <v>10079636.0690618</v>
       </c>
       <c r="K54">
-        <v>7743888.38501592</v>
+        <v>9888536.069061801</v>
       </c>
       <c r="L54">
-        <v>2494.576088684554</v>
+        <v>2480</v>
       </c>
     </row>
     <row r="55" spans="1:12">
@@ -2476,31 +2476,31 @@
         <v>11</v>
       </c>
       <c r="D55">
-        <v>-11983.64053537332</v>
+        <v>0</v>
       </c>
       <c r="E55">
-        <v>445</v>
+        <v>28</v>
       </c>
       <c r="F55">
-        <v>2225000</v>
+        <v>140000</v>
       </c>
       <c r="G55">
-        <v>22857.16435682416</v>
+        <v>29216.78665462757</v>
       </c>
       <c r="H55">
-        <v>6395.244000000002</v>
+        <v>138.88</v>
       </c>
       <c r="I55">
-        <v>316216.0133843398</v>
+        <v>30100</v>
       </c>
       <c r="J55">
-        <v>10320694.29320579</v>
+        <v>10059177.90665463</v>
       </c>
       <c r="K55">
-        <v>7779478.27982145</v>
+        <v>9889077.906654626</v>
       </c>
       <c r="L55">
-        <v>2494.576088684554</v>
+        <v>2480</v>
       </c>
     </row>
     <row r="56" spans="1:12">
@@ -2514,31 +2514,31 @@
         <v>11</v>
       </c>
       <c r="D56">
-        <v>-11983.64053537332</v>
+        <v>0</v>
       </c>
       <c r="E56">
-        <v>447</v>
+        <v>28</v>
       </c>
       <c r="F56">
-        <v>2235000</v>
+        <v>140000</v>
       </c>
       <c r="G56">
-        <v>23282.88755023904</v>
+        <v>29758.65393718399</v>
       </c>
       <c r="H56">
-        <v>6425.244000000002</v>
+        <v>138.88</v>
       </c>
       <c r="I56">
-        <v>225266.0133843435</v>
+        <v>24500</v>
       </c>
       <c r="J56">
-        <v>10230140.01639921</v>
+        <v>10054119.77393718</v>
       </c>
       <c r="K56">
-        <v>7769874.003014864</v>
+        <v>9889619.773937183</v>
       </c>
       <c r="L56">
-        <v>2494.841967482385</v>
+        <v>2480</v>
       </c>
     </row>
     <row r="57" spans="1:12">
@@ -2552,31 +2552,31 @@
         <v>11</v>
       </c>
       <c r="D57">
-        <v>-11742.37627523241</v>
+        <v>0</v>
       </c>
       <c r="E57">
-        <v>439</v>
+        <v>28</v>
       </c>
       <c r="F57">
-        <v>2195000</v>
+        <v>140000</v>
       </c>
       <c r="G57">
-        <v>23710.83685803493</v>
+        <v>30300.55091109835</v>
       </c>
       <c r="H57">
-        <v>6465.644000000001</v>
+        <v>138.88</v>
       </c>
       <c r="I57">
-        <v>330984.4068808206</v>
+        <v>31500</v>
       </c>
       <c r="J57">
-        <v>10336487.22346362</v>
+        <v>10061661.6709111</v>
       </c>
       <c r="K57">
-        <v>7810502.816582803</v>
+        <v>9890161.670911098</v>
       </c>
       <c r="L57">
-        <v>2494.841967482385</v>
+        <v>2480</v>
       </c>
     </row>
     <row r="58" spans="1:12">
@@ -2590,31 +2590,31 @@
         <v>11</v>
       </c>
       <c r="D58">
-        <v>-11742.37627523241</v>
+        <v>0</v>
       </c>
       <c r="E58">
-        <v>442</v>
+        <v>28</v>
       </c>
       <c r="F58">
-        <v>2210000</v>
+        <v>140000</v>
       </c>
       <c r="G58">
-        <v>24137.98605346412</v>
+        <v>30842.47757799759</v>
       </c>
       <c r="H58">
-        <v>6495.644000000001</v>
+        <v>138.88</v>
       </c>
       <c r="I58">
-        <v>20609.40688081921</v>
+        <v>11900</v>
       </c>
       <c r="J58">
-        <v>10026509.37265905</v>
+        <v>10042603.597578</v>
       </c>
       <c r="K58">
-        <v>7795899.965778233</v>
+        <v>9890703.597577997</v>
       </c>
       <c r="L58">
-        <v>2495.134895304903</v>
+        <v>2480</v>
       </c>
     </row>
     <row r="59" spans="1:12">
@@ -2628,31 +2628,31 @@
         <v>11</v>
       </c>
       <c r="D59">
-        <v>-11799.45543767163</v>
+        <v>0</v>
       </c>
       <c r="E59">
-        <v>434</v>
+        <v>28</v>
       </c>
       <c r="F59">
-        <v>2170000</v>
+        <v>140000</v>
       </c>
       <c r="G59">
-        <v>24567.34512626499</v>
+        <v>31384.43393950871</v>
       </c>
       <c r="H59">
-        <v>6535.452000000001</v>
+        <v>138.88</v>
       </c>
       <c r="I59">
-        <v>-77413.61405820014</v>
+        <v>5600</v>
       </c>
       <c r="J59">
-        <v>9928818.823630394</v>
+        <v>10036845.55393951</v>
       </c>
       <c r="K59">
-        <v>7836232.437688595</v>
+        <v>9891245.553939508</v>
       </c>
       <c r="L59">
-        <v>2495.134895304903</v>
+        <v>2480</v>
       </c>
     </row>
     <row r="60" spans="1:12">
@@ -2666,31 +2666,31 @@
         <v>11</v>
       </c>
       <c r="D60">
-        <v>-11799.45543767163</v>
+        <v>0</v>
       </c>
       <c r="E60">
-        <v>438</v>
+        <v>28</v>
       </c>
       <c r="F60">
-        <v>2190000</v>
+        <v>140000</v>
       </c>
       <c r="G60">
-        <v>24995.63019134381</v>
+        <v>31926.41999725882</v>
       </c>
       <c r="H60">
-        <v>6565.452000000001</v>
+        <v>138.88</v>
       </c>
       <c r="I60">
-        <v>-298213.614058196</v>
+        <v>-8400</v>
       </c>
       <c r="J60">
-        <v>9708417.108695475</v>
+        <v>10023387.53999726</v>
       </c>
       <c r="K60">
-        <v>7816630.722753672</v>
+        <v>9891787.539997257</v>
       </c>
       <c r="L60">
-        <v>2495.234120005315</v>
+        <v>2480</v>
       </c>
     </row>
     <row r="61" spans="1:12">
@@ -2704,31 +2704,31 @@
         <v>11</v>
       </c>
       <c r="D61">
-        <v>-12113.32839771415</v>
+        <v>0</v>
       </c>
       <c r="E61">
-        <v>430</v>
+        <v>28</v>
       </c>
       <c r="F61">
-        <v>2150000</v>
+        <v>140000</v>
       </c>
       <c r="G61">
-        <v>25426.11115319552</v>
+        <v>32468.43575287511</v>
       </c>
       <c r="H61">
-        <v>6604.748000000001</v>
+        <v>138.88</v>
       </c>
       <c r="I61">
-        <v>-421766.7900571331</v>
+        <v>-16800</v>
       </c>
       <c r="J61">
-        <v>9584941.244698348</v>
+        <v>10015529.55575287</v>
       </c>
       <c r="K61">
-        <v>7856708.034755481</v>
+        <v>9892329.555752873</v>
       </c>
       <c r="L61">
-        <v>2495.234120005315</v>
+        <v>2480</v>
       </c>
     </row>
     <row r="62" spans="1:12">
@@ -2742,31 +2742,31 @@
         <v>11</v>
       </c>
       <c r="D62">
-        <v>-12113.32839771415</v>
+        <v>0</v>
       </c>
       <c r="E62">
-        <v>435</v>
+        <v>28</v>
       </c>
       <c r="F62">
-        <v>2175000</v>
+        <v>140000</v>
       </c>
       <c r="G62">
-        <v>25855.24419619582</v>
+        <v>33010.48120798486</v>
       </c>
       <c r="H62">
-        <v>6634.748000000001</v>
+        <v>138.88</v>
       </c>
       <c r="I62">
-        <v>-26891.79005713328</v>
+        <v>9100</v>
       </c>
       <c r="J62">
-        <v>9980215.377741348</v>
+        <v>10041971.60120798</v>
       </c>
       <c r="K62">
-        <v>7832107.167798482</v>
+        <v>9892871.601207985</v>
       </c>
       <c r="L62">
-        <v>2495.472808281116</v>
+        <v>2480</v>
       </c>
     </row>
     <row r="63" spans="1:12">
@@ -2780,31 +2780,31 @@
         <v>11</v>
       </c>
       <c r="D63">
-        <v>-12459.63805568196</v>
+        <v>0</v>
       </c>
       <c r="E63">
-        <v>428</v>
+        <v>28</v>
       </c>
       <c r="F63">
-        <v>2140000</v>
+        <v>140000</v>
       </c>
       <c r="G63">
-        <v>26286.29770929941</v>
+        <v>33552.55636421543</v>
       </c>
       <c r="H63">
-        <v>6668.992000000001</v>
+        <v>138.88</v>
       </c>
       <c r="I63">
-        <v>-529359.048607938</v>
+        <v>-23800</v>
       </c>
       <c r="J63">
-        <v>9477798.619045679</v>
+        <v>10009613.67636422</v>
       </c>
       <c r="K63">
-        <v>7867157.667653617</v>
+        <v>9893413.676364215</v>
       </c>
       <c r="L63">
-        <v>2495.472808281116</v>
+        <v>2480</v>
       </c>
     </row>
     <row r="64" spans="1:12">
@@ -2818,31 +2818,31 @@
         <v>11</v>
       </c>
       <c r="D64">
-        <v>-12459.63805568196</v>
+        <v>0</v>
       </c>
       <c r="E64">
-        <v>435</v>
+        <v>28</v>
       </c>
       <c r="F64">
-        <v>2175000</v>
+        <v>140000</v>
       </c>
       <c r="G64">
-        <v>26715.45510500646</v>
+        <v>34094.66122319429</v>
       </c>
       <c r="H64">
-        <v>6704.188000000001</v>
+        <v>138.88</v>
       </c>
       <c r="I64">
-        <v>-160634.0486079382</v>
+        <v>700</v>
       </c>
       <c r="J64">
-        <v>9846917.580441387</v>
+        <v>10034655.78122319</v>
       </c>
       <c r="K64">
-        <v>7832551.629049325</v>
+        <v>9893955.781223193</v>
       </c>
       <c r="L64">
-        <v>2495.770946998431</v>
+        <v>2480</v>
       </c>
     </row>
     <row r="65" spans="1:12">
@@ -2856,31 +2856,31 @@
         <v>11</v>
       </c>
       <c r="D65">
-        <v>-12674.26373767255</v>
+        <v>0</v>
       </c>
       <c r="E65">
-        <v>429</v>
+        <v>28</v>
       </c>
       <c r="F65">
-        <v>2145000</v>
+        <v>140000</v>
       </c>
       <c r="G65">
-        <v>27146.26644765672</v>
+        <v>34636.79578654899</v>
       </c>
       <c r="H65">
-        <v>6734.188000000001</v>
+        <v>138.88</v>
       </c>
       <c r="I65">
-        <v>-383643.4065581735</v>
+        <v>-14000</v>
       </c>
       <c r="J65">
-        <v>9624094.408151811</v>
+        <v>10020497.91578655</v>
       </c>
       <c r="K65">
-        <v>7862737.814709984</v>
+        <v>9894497.915786548</v>
       </c>
       <c r="L65">
-        <v>2495.770946998431</v>
+        <v>2480</v>
       </c>
     </row>
     <row r="66" spans="1:12">
@@ -2894,31 +2894,31 @@
         <v>11</v>
       </c>
       <c r="D66">
-        <v>-12674.26373767255</v>
+        <v>0</v>
       </c>
       <c r="E66">
-        <v>438</v>
+        <v>28</v>
       </c>
       <c r="F66">
-        <v>2190000</v>
+        <v>140000</v>
       </c>
       <c r="G66">
-        <v>27574.6331969559</v>
+        <v>35178.96005590716</v>
       </c>
       <c r="H66">
-        <v>6778.828000000001</v>
+        <v>138.88</v>
       </c>
       <c r="I66">
-        <v>-848043.4065581702</v>
+        <v>-43400</v>
       </c>
       <c r="J66">
-        <v>9160078.134901112</v>
+        <v>9991640.080055906</v>
       </c>
       <c r="K66">
-        <v>7818121.541459283</v>
+        <v>9895040.080055906</v>
       </c>
       <c r="L66">
-        <v>2495.446886443669</v>
+        <v>2480</v>
       </c>
     </row>
     <row r="67" spans="1:12">
@@ -2932,31 +2932,31 @@
         <v>11</v>
       </c>
       <c r="D67">
-        <v>-13031.49816989089</v>
+        <v>0</v>
       </c>
       <c r="E67">
-        <v>433</v>
+        <v>28</v>
       </c>
       <c r="F67">
-        <v>2165000</v>
+        <v>140000</v>
       </c>
       <c r="G67">
-        <v>28004.37206309437</v>
+        <v>35721.15403289652</v>
       </c>
       <c r="H67">
-        <v>6808.828000000001</v>
+        <v>138.88</v>
       </c>
       <c r="I67">
-        <v>-773412.5457527117</v>
+        <v>-39200</v>
       </c>
       <c r="J67">
-        <v>9234751.500140492</v>
+        <v>9996382.274032896</v>
       </c>
       <c r="K67">
-        <v>7843164.045893203</v>
+        <v>9895582.274032896</v>
       </c>
       <c r="L67">
-        <v>2495.446886443669</v>
+        <v>2480</v>
       </c>
     </row>
     <row r="68" spans="1:12">
@@ -2970,31 +2970,31 @@
         <v>11</v>
       </c>
       <c r="D68">
-        <v>-13031.49816989089</v>
+        <v>0</v>
       </c>
       <c r="E68">
-        <v>442</v>
+        <v>28</v>
       </c>
       <c r="F68">
-        <v>2210000</v>
+        <v>140000</v>
       </c>
       <c r="G68">
-        <v>28431.66629092413</v>
+        <v>36263.3777191449</v>
       </c>
       <c r="H68">
-        <v>6853.216000000001</v>
+        <v>138.88</v>
       </c>
       <c r="I68">
-        <v>-727612.5457527102</v>
+        <v>-35700</v>
       </c>
       <c r="J68">
-        <v>9280934.406368323</v>
+        <v>10000424.49771914</v>
       </c>
       <c r="K68">
-        <v>7798546.952121032</v>
+        <v>9896124.497719144</v>
       </c>
       <c r="L68">
-        <v>2494.84728920839</v>
+        <v>2480</v>
       </c>
     </row>
     <row r="69" spans="1:12">
@@ -3008,31 +3008,31 @@
         <v>11</v>
       </c>
       <c r="D69">
-        <v>-13262.04003751606</v>
+        <v>0</v>
       </c>
       <c r="E69">
-        <v>439</v>
+        <v>28</v>
       </c>
       <c r="F69">
-        <v>2195000</v>
+        <v>140000</v>
       </c>
       <c r="G69">
-        <v>28859.79157367774</v>
+        <v>36805.63111628019</v>
       </c>
       <c r="H69">
-        <v>6883.216000000001</v>
+        <v>138.88</v>
       </c>
       <c r="I69">
-        <v>-843398.999062081</v>
+        <v>-43400</v>
       </c>
       <c r="J69">
-        <v>9165315.536474079</v>
+        <v>9993266.75111628</v>
       </c>
       <c r="K69">
-        <v>7813714.535536161</v>
+        <v>9896666.75111628</v>
       </c>
       <c r="L69">
-        <v>2494.84728920839</v>
+        <v>2480</v>
       </c>
     </row>
     <row r="70" spans="1:12">
@@ -3046,31 +3046,31 @@
         <v>11</v>
       </c>
       <c r="D70">
-        <v>-13262.04003751606</v>
+        <v>0</v>
       </c>
       <c r="E70">
-        <v>447</v>
+        <v>28</v>
       </c>
       <c r="F70">
-        <v>2235000</v>
+        <v>140000</v>
       </c>
       <c r="G70">
-        <v>29285.74634450164</v>
+        <v>37347.9142259304</v>
       </c>
       <c r="H70">
-        <v>6923.184000000001</v>
+        <v>138.88</v>
       </c>
       <c r="I70">
-        <v>-434748.9990620796</v>
+        <v>-16800</v>
       </c>
       <c r="J70">
-        <v>9574351.523244904</v>
+        <v>10020409.03422593</v>
       </c>
       <c r="K70">
-        <v>7774100.522306984</v>
+        <v>9897209.03422593</v>
       </c>
       <c r="L70">
-        <v>2494.903713562602</v>
+        <v>2480</v>
       </c>
     </row>
     <row r="71" spans="1:12">
@@ -3084,31 +3084,31 @@
         <v>11</v>
       </c>
       <c r="D71">
-        <v>-13366.75117820387</v>
+        <v>0</v>
       </c>
       <c r="E71">
-        <v>444</v>
+        <v>28</v>
       </c>
       <c r="F71">
-        <v>2220000</v>
+        <v>140000</v>
       </c>
       <c r="G71">
-        <v>29712.53899168884</v>
+        <v>37890.2270497236</v>
       </c>
       <c r="H71">
-        <v>6953.184000000001</v>
+        <v>138.88</v>
       </c>
       <c r="I71">
-        <v>-387431.2205448845</v>
+        <v>-14000</v>
       </c>
       <c r="J71">
-        <v>9621961.383268602</v>
+        <v>10023751.34704972</v>
       </c>
       <c r="K71">
-        <v>7789392.603813486</v>
+        <v>9897751.347049722</v>
       </c>
       <c r="L71">
-        <v>2494.903713562602</v>
+        <v>2480</v>
       </c>
     </row>
     <row r="72" spans="1:12">
@@ -3122,31 +3122,31 @@
         <v>11</v>
       </c>
       <c r="D72">
-        <v>-13366.75117820387</v>
+        <v>0</v>
       </c>
       <c r="E72">
-        <v>452</v>
+        <v>28</v>
       </c>
       <c r="F72">
-        <v>2260000</v>
+        <v>140000</v>
       </c>
       <c r="G72">
-        <v>30137.16100921286</v>
+        <v>38432.56958928797</v>
       </c>
       <c r="H72">
-        <v>6993.968000000001</v>
+        <v>138.88</v>
       </c>
       <c r="I72">
-        <v>193668.7794551129</v>
+        <v>23100</v>
       </c>
       <c r="J72">
-        <v>10203445.22128612</v>
+        <v>10061393.68958929</v>
       </c>
       <c r="K72">
-        <v>7749776.441831009</v>
+        <v>9898293.689589286</v>
       </c>
       <c r="L72">
-        <v>2495.861169959725</v>
+        <v>2480</v>
       </c>
     </row>
     <row r="73" spans="1:12">
@@ -3160,31 +3160,31 @@
         <v>11</v>
       </c>
       <c r="D73">
-        <v>-13360.33468808304</v>
+        <v>0</v>
       </c>
       <c r="E73">
-        <v>449</v>
+        <v>28</v>
       </c>
       <c r="F73">
-        <v>2245000</v>
+        <v>140000</v>
       </c>
       <c r="G73">
-        <v>30562.62691925786</v>
+        <v>38974.94184625177</v>
       </c>
       <c r="H73">
-        <v>7023.968000000001</v>
+        <v>138.88</v>
       </c>
       <c r="I73">
-        <v>24008.36720209226</v>
+        <v>12600</v>
       </c>
       <c r="J73">
-        <v>10034186.69143327</v>
+        <v>10051436.06184625</v>
       </c>
       <c r="K73">
-        <v>7765178.324231176</v>
+        <v>9898836.061846251</v>
       </c>
       <c r="L73">
-        <v>2495.861169959725</v>
+        <v>2480</v>
       </c>
     </row>
     <row r="74" spans="1:12">
@@ -3198,31 +3198,31 @@
         <v>11</v>
       </c>
       <c r="D74">
-        <v>-13360.33468808304</v>
+        <v>0</v>
       </c>
       <c r="E74">
-        <v>455</v>
+        <v>28</v>
       </c>
       <c r="F74">
-        <v>2275000</v>
+        <v>140000</v>
       </c>
       <c r="G74">
-        <v>30986.47065581847</v>
+        <v>39517.34382224335</v>
       </c>
       <c r="H74">
-        <v>7054.1</v>
+        <v>138.88</v>
       </c>
       <c r="I74">
-        <v>-171316.6327979083</v>
+        <v>700</v>
       </c>
       <c r="J74">
-        <v>9839255.403169828</v>
+        <v>10040078.46382224</v>
       </c>
       <c r="K74">
-        <v>7735572.035967736</v>
+        <v>9899378.463822242</v>
       </c>
       <c r="L74">
-        <v>2496.060802883333</v>
+        <v>2480</v>
       </c>
     </row>
     <row r="75" spans="1:12">
@@ -3236,31 +3236,31 @@
         <v>11</v>
       </c>
       <c r="D75">
-        <v>-13412.4562938497</v>
+        <v>0</v>
       </c>
       <c r="E75">
-        <v>453</v>
+        <v>28</v>
       </c>
       <c r="F75">
-        <v>2265000</v>
+        <v>140000</v>
       </c>
       <c r="G75">
-        <v>31410.88106208488</v>
+        <v>40059.77551889114</v>
       </c>
       <c r="H75">
-        <v>7084.1</v>
+        <v>138.88</v>
       </c>
       <c r="I75">
-        <v>-295138.5926537417</v>
+        <v>-7000</v>
       </c>
       <c r="J75">
-        <v>9715775.732114494</v>
+        <v>10032920.89551889</v>
       </c>
       <c r="K75">
-        <v>7745914.324768236</v>
+        <v>9899920.89551889</v>
       </c>
       <c r="L75">
-        <v>2496.060802883333</v>
+        <v>2480</v>
       </c>
     </row>
     <row r="76" spans="1:12">
@@ -3274,31 +3274,31 @@
         <v>11</v>
       </c>
       <c r="D76">
-        <v>-13412.4562938497</v>
+        <v>0</v>
       </c>
       <c r="E76">
-        <v>458</v>
+        <v>28</v>
       </c>
       <c r="F76">
-        <v>2290000</v>
+        <v>140000</v>
       </c>
       <c r="G76">
-        <v>31833.9432168667</v>
+        <v>40602.23693782368</v>
       </c>
       <c r="H76">
-        <v>7114.1</v>
+        <v>138.88</v>
       </c>
       <c r="I76">
-        <v>107561.4073462623</v>
+        <v>18200</v>
       </c>
       <c r="J76">
-        <v>10118868.79426928</v>
+        <v>10058663.35693782</v>
       </c>
       <c r="K76">
-        <v>7721307.386923017</v>
+        <v>9900463.356937822</v>
       </c>
       <c r="L76">
-        <v>2496.605990624781</v>
+        <v>2480</v>
       </c>
     </row>
     <row r="77" spans="1:12">
@@ -3312,31 +3312,31 @@
         <v>11</v>
       </c>
       <c r="D77">
-        <v>-13395.66827509927</v>
+        <v>0</v>
       </c>
       <c r="E77">
-        <v>456</v>
+        <v>28</v>
       </c>
       <c r="F77">
-        <v>2280000</v>
+        <v>140000</v>
       </c>
       <c r="G77">
-        <v>32257.57577439776</v>
+        <v>41144.72808066959</v>
       </c>
       <c r="H77">
-        <v>7144.1</v>
+        <v>138.88</v>
       </c>
       <c r="I77">
-        <v>95691.70687750129</v>
+        <v>17500</v>
       </c>
       <c r="J77">
-        <v>10107409.5143768</v>
+        <v>10058505.84808067</v>
       </c>
       <c r="K77">
-        <v>7731717.807499299</v>
+        <v>9901005.848080669</v>
       </c>
       <c r="L77">
-        <v>2496.605990624781</v>
+        <v>2480</v>
       </c>
     </row>
     <row r="78" spans="1:12">
@@ -3350,31 +3350,31 @@
         <v>11</v>
       </c>
       <c r="D78">
-        <v>-13395.66827509927</v>
+        <v>0</v>
       </c>
       <c r="E78">
-        <v>460</v>
+        <v>28</v>
       </c>
       <c r="F78">
-        <v>2300000</v>
+        <v>140000</v>
       </c>
       <c r="G78">
-        <v>32680.13401042511</v>
+        <v>41687.24894905758</v>
       </c>
       <c r="H78">
-        <v>7174.1</v>
+        <v>138.88</v>
       </c>
       <c r="I78">
-        <v>13791.70687749661</v>
+        <v>12600</v>
       </c>
       <c r="J78">
-        <v>10025902.07261282</v>
+        <v>10054148.36894906</v>
       </c>
       <c r="K78">
-        <v>7712110.365735326</v>
+        <v>9901548.368949058</v>
       </c>
       <c r="L78">
-        <v>2496.800721141087</v>
+        <v>2480</v>
       </c>
     </row>
     <row r="79" spans="1:12">
@@ -3388,31 +3388,31 @@
         <v>11</v>
       </c>
       <c r="D79">
-        <v>-13359.26971738144</v>
+        <v>0</v>
       </c>
       <c r="E79">
-        <v>458</v>
+        <v>28</v>
       </c>
       <c r="F79">
-        <v>2290000</v>
+        <v>140000</v>
       </c>
       <c r="G79">
-        <v>33103.2636961398</v>
+        <v>42229.79954461643</v>
       </c>
       <c r="H79">
-        <v>7204.1</v>
+        <v>138.88</v>
       </c>
       <c r="I79">
-        <v>208381.742934551</v>
+        <v>24500</v>
       </c>
       <c r="J79">
-        <v>10220921.63691331</v>
+        <v>10066590.91954461</v>
       </c>
       <c r="K79">
-        <v>7722539.893978758</v>
+        <v>9902090.919544615</v>
       </c>
       <c r="L79">
-        <v>2496.800721141087</v>
+        <v>2480</v>
       </c>
     </row>
     <row r="80" spans="1:12">
@@ -3426,31 +3426,31 @@
         <v>11</v>
       </c>
       <c r="D80">
-        <v>-13359.26971738144</v>
+        <v>0</v>
       </c>
       <c r="E80">
-        <v>461</v>
+        <v>28</v>
       </c>
       <c r="F80">
-        <v>2305000</v>
+        <v>140000</v>
       </c>
       <c r="G80">
-        <v>33525.59300539891</v>
+        <v>42772.37986897504</v>
       </c>
       <c r="H80">
-        <v>7234.1</v>
+        <v>138.88</v>
       </c>
       <c r="I80">
-        <v>321531.7429345523</v>
+        <v>31500</v>
       </c>
       <c r="J80">
-        <v>10334463.96622257</v>
+        <v>10074133.49986897</v>
       </c>
       <c r="K80">
-        <v>7707932.223288016</v>
+        <v>9902633.499868974</v>
       </c>
       <c r="L80">
-        <v>2497.101367207414</v>
+        <v>2480</v>
       </c>
     </row>
     <row r="81" spans="1:12">
@@ -3464,31 +3464,31 @@
         <v>11</v>
       </c>
       <c r="D81">
-        <v>-13367.47245179627</v>
+        <v>0</v>
       </c>
       <c r="E81">
-        <v>459</v>
+        <v>28</v>
       </c>
       <c r="F81">
-        <v>2295000</v>
+        <v>140000</v>
       </c>
       <c r="G81">
-        <v>33948.491307895</v>
+        <v>43314.98992376238</v>
       </c>
       <c r="H81">
-        <v>7264.1</v>
+        <v>138.88</v>
       </c>
       <c r="I81">
-        <v>-47063.18870507696</v>
+        <v>9100</v>
       </c>
       <c r="J81">
-        <v>9966253.730151022</v>
+        <v>10052276.10992376</v>
       </c>
       <c r="K81">
-        <v>7718316.918856099</v>
+        <v>9903176.109923761</v>
       </c>
       <c r="L81">
-        <v>2497.101367207414</v>
+        <v>2480</v>
       </c>
     </row>
     <row r="82" spans="1:12">
@@ -3502,31 +3502,31 @@
         <v>11</v>
       </c>
       <c r="D82">
-        <v>-13367.47245179627</v>
+        <v>0</v>
       </c>
       <c r="E82">
-        <v>461</v>
+        <v>28</v>
       </c>
       <c r="F82">
-        <v>2305000</v>
+        <v>140000</v>
       </c>
       <c r="G82">
-        <v>34370.86319385972</v>
+        <v>43857.62971060752</v>
       </c>
       <c r="H82">
-        <v>7294.1</v>
+        <v>138.88</v>
       </c>
       <c r="I82">
-        <v>-278163.1887050775</v>
+        <v>-4900</v>
       </c>
       <c r="J82">
-        <v>9735546.102036987</v>
+        <v>10038818.74971061</v>
       </c>
       <c r="K82">
-        <v>7708709.290742064</v>
+        <v>9903718.749710606</v>
       </c>
       <c r="L82">
-        <v>2497.135634594801</v>
+        <v>2480</v>
       </c>
     </row>
     <row r="83" spans="1:12">
@@ -3540,31 +3540,31 @@
         <v>11</v>
       </c>
       <c r="D83">
-        <v>-13448.60808639107</v>
+        <v>0</v>
       </c>
       <c r="E83">
-        <v>460</v>
+        <v>28</v>
       </c>
       <c r="F83">
-        <v>2300000</v>
+        <v>140000</v>
       </c>
       <c r="G83">
-        <v>34793.52610646835</v>
+        <v>44400.29923113961</v>
       </c>
       <c r="H83">
-        <v>7324.1</v>
+        <v>138.88</v>
       </c>
       <c r="I83">
-        <v>-933059.7978402075</v>
+        <v>-44800</v>
       </c>
       <c r="J83">
-        <v>9080961.02017987</v>
+        <v>9999461.419231139</v>
       </c>
       <c r="K83">
-        <v>7714020.818020077</v>
+        <v>9904261.419231139</v>
       </c>
       <c r="L83">
-        <v>2497.135634594801</v>
+        <v>2480</v>
       </c>
     </row>
     <row r="84" spans="1:12">
@@ -3578,31 +3578,31 @@
         <v>11</v>
       </c>
       <c r="D84">
-        <v>-13448.60808639107</v>
+        <v>0</v>
       </c>
       <c r="E84">
-        <v>461</v>
+        <v>28</v>
       </c>
       <c r="F84">
-        <v>2305000</v>
+        <v>140000</v>
       </c>
       <c r="G84">
-        <v>35215.93656225027</v>
+        <v>44942.99848698789</v>
       </c>
       <c r="H84">
-        <v>7354.1</v>
+        <v>138.88</v>
       </c>
       <c r="I84">
-        <v>-796034.7978402027</v>
+        <v>-36400</v>
       </c>
       <c r="J84">
-        <v>9218378.430635657</v>
+        <v>10008404.11848699</v>
       </c>
       <c r="K84">
-        <v>7709413.228475859</v>
+        <v>9904804.118486987</v>
       </c>
       <c r="L84">
-        <v>2497.070264454681</v>
+        <v>2480</v>
       </c>
     </row>
     <row r="85" spans="1:12">
@@ -3616,31 +3616,31 @@
         <v>11</v>
       </c>
       <c r="D85">
-        <v>-13529.67835084575</v>
+        <v>0</v>
       </c>
       <c r="E85">
-        <v>460</v>
+        <v>28</v>
       </c>
       <c r="F85">
-        <v>2300000</v>
+        <v>140000</v>
       </c>
       <c r="G85">
-        <v>35638.63805037145</v>
+        <v>45485.7274797817</v>
       </c>
       <c r="H85">
-        <v>7384.1</v>
+        <v>138.88</v>
       </c>
       <c r="I85">
-        <v>-932308.0412288357</v>
+        <v>-44800</v>
       </c>
       <c r="J85">
-        <v>9082416.81847069</v>
+        <v>10000546.84747978</v>
       </c>
       <c r="K85">
-        <v>7714724.859699527</v>
+        <v>9905346.847479781</v>
       </c>
       <c r="L85">
-        <v>2497.070264454681</v>
+        <v>2480</v>
       </c>
     </row>
     <row r="86" spans="1:12">
@@ -3654,31 +3654,31 @@
         <v>11</v>
       </c>
       <c r="D86">
-        <v>-13529.67835084575</v>
+        <v>0</v>
       </c>
       <c r="E86">
-        <v>461</v>
+        <v>28</v>
       </c>
       <c r="F86">
-        <v>2305000</v>
+        <v>140000</v>
       </c>
       <c r="G86">
-        <v>36061.08708377964</v>
+        <v>46028.48621115046</v>
       </c>
       <c r="H86">
-        <v>7414.1</v>
+        <v>138.88</v>
       </c>
       <c r="I86">
-        <v>-852308.0412288376</v>
+        <v>-39900</v>
       </c>
       <c r="J86">
-        <v>9162809.267504096</v>
+        <v>10005989.60621115</v>
       </c>
       <c r="K86">
-        <v>7710117.308732934</v>
+        <v>9905889.60621115</v>
       </c>
       <c r="L86">
-        <v>2496.952975377773</v>
+        <v>2480</v>
       </c>
     </row>
     <row r="87" spans="1:12">
@@ -3692,31 +3692,31 @@
         <v>11</v>
       </c>
       <c r="D87">
-        <v>-13616.63132622353</v>
+        <v>0</v>
       </c>
       <c r="E87">
-        <v>460</v>
+        <v>28</v>
       </c>
       <c r="F87">
-        <v>2300000</v>
+        <v>140000</v>
       </c>
       <c r="G87">
-        <v>36483.8268293006</v>
+        <v>46571.27468272367</v>
       </c>
       <c r="H87">
-        <v>7444.1</v>
+        <v>138.88</v>
       </c>
       <c r="I87">
-        <v>-999959.2168443933</v>
+        <v>-49000</v>
       </c>
       <c r="J87">
-        <v>9015463.878658686</v>
+        <v>9997432.394682722</v>
       </c>
       <c r="K87">
-        <v>7715423.095503079</v>
+        <v>9906432.394682722</v>
       </c>
       <c r="L87">
-        <v>2496.952975377773</v>
+        <v>2480</v>
       </c>
     </row>
     <row r="88" spans="1:12">
@@ -3730,31 +3730,31 @@
         <v>11</v>
       </c>
       <c r="D88">
-        <v>-13616.63132622353</v>
+        <v>0</v>
       </c>
       <c r="E88">
-        <v>461</v>
+        <v>28</v>
       </c>
       <c r="F88">
-        <v>2305000</v>
+        <v>140000</v>
       </c>
       <c r="G88">
-        <v>36906.31412220488</v>
+        <v>47114.09289613094</v>
       </c>
       <c r="H88">
-        <v>7474.1</v>
+        <v>138.88</v>
       </c>
       <c r="I88">
-        <v>-1000984.216844397</v>
+        <v>-49000</v>
       </c>
       <c r="J88">
-        <v>9014831.365951587</v>
+        <v>9997975.212896131</v>
       </c>
       <c r="K88">
-        <v>7710815.582795983</v>
+        <v>9906975.212896131</v>
       </c>
       <c r="L88">
-        <v>2496.853294303201</v>
+        <v>2480</v>
       </c>
     </row>
     <row r="89" spans="1:12">
@@ -3768,31 +3768,31 @@
         <v>11</v>
       </c>
       <c r="D89">
-        <v>-13687.48462052673</v>
+        <v>0</v>
       </c>
       <c r="E89">
-        <v>460</v>
+        <v>28</v>
       </c>
       <c r="F89">
-        <v>2300000</v>
+        <v>140000</v>
       </c>
       <c r="G89">
-        <v>37329.09301149265</v>
+        <v>47656.94085300196</v>
       </c>
       <c r="H89">
-        <v>7504.1</v>
+        <v>138.88</v>
       </c>
       <c r="I89">
-        <v>-814812.8844868165</v>
+        <v>-37800</v>
       </c>
       <c r="J89">
-        <v>9201324.62390415</v>
+        <v>10009718.060853</v>
       </c>
       <c r="K89">
-        <v>7716137.508390967</v>
+        <v>9907518.060853001</v>
       </c>
       <c r="L89">
-        <v>2496.853294303201</v>
+        <v>2480</v>
       </c>
     </row>
     <row r="90" spans="1:12">
@@ -3806,31 +3806,31 @@
         <v>11</v>
       </c>
       <c r="D90">
-        <v>-13687.48462052673</v>
+        <v>0</v>
       </c>
       <c r="E90">
-        <v>461</v>
+        <v>28</v>
       </c>
       <c r="F90">
-        <v>2305000</v>
+        <v>140000</v>
       </c>
       <c r="G90">
-        <v>37751.61945030859</v>
+        <v>48199.81855496651</v>
       </c>
       <c r="H90">
-        <v>7534.1</v>
+        <v>138.88</v>
       </c>
       <c r="I90">
-        <v>-539362.8844868148</v>
+        <v>-21000</v>
       </c>
       <c r="J90">
-        <v>9477167.150342967</v>
+        <v>10027060.93855496</v>
       </c>
       <c r="K90">
-        <v>7711530.034829782</v>
+        <v>9908060.938554965</v>
       </c>
       <c r="L90">
-        <v>2496.799382601893</v>
+        <v>2480</v>
       </c>
     </row>
     <row r="91" spans="1:12">
@@ -3844,31 +3844,31 @@
         <v>11</v>
       </c>
       <c r="D91">
-        <v>-13723.28400312862</v>
+        <v>0</v>
       </c>
       <c r="E91">
-        <v>460</v>
+        <v>28</v>
       </c>
       <c r="F91">
-        <v>2300000</v>
+        <v>140000</v>
       </c>
       <c r="G91">
-        <v>38174.43940841528</v>
+        <v>48742.72600365445</v>
       </c>
       <c r="H91">
-        <v>7564.1</v>
+        <v>138.88</v>
       </c>
       <c r="I91">
-        <v>-411692.8999217675</v>
+        <v>-13300</v>
       </c>
       <c r="J91">
-        <v>9605194.15548352</v>
+        <v>10035303.84600365</v>
       </c>
       <c r="K91">
-        <v>7716887.055405287</v>
+        <v>9908603.846003653</v>
       </c>
       <c r="L91">
-        <v>2496.799382601893</v>
+        <v>2480</v>
       </c>
     </row>
     <row r="92" spans="1:12">
@@ -3882,31 +3882,31 @@
         <v>11</v>
       </c>
       <c r="D92">
-        <v>-13723.28400312862</v>
+        <v>0</v>
       </c>
       <c r="E92">
-        <v>461</v>
+        <v>28</v>
       </c>
       <c r="F92">
-        <v>2305000</v>
+        <v>140000</v>
       </c>
       <c r="G92">
-        <v>38597.0069183005</v>
+        <v>49285.66320069574</v>
       </c>
       <c r="H92">
-        <v>7594.1</v>
+        <v>138.88</v>
       </c>
       <c r="I92">
-        <v>-596567.8999217676</v>
+        <v>-24500</v>
       </c>
       <c r="J92">
-        <v>9420711.722993404</v>
+        <v>10024646.78320069</v>
       </c>
       <c r="K92">
-        <v>7712279.622915171</v>
+        <v>9909146.783200694</v>
       </c>
       <c r="L92">
-        <v>2496.762941424882</v>
+        <v>2480</v>
       </c>
     </row>
     <row r="93" spans="1:12">
@@ -3920,31 +3920,31 @@
         <v>11</v>
       </c>
       <c r="D93">
-        <v>-13812.0469445535</v>
+        <v>0</v>
       </c>
       <c r="E93">
-        <v>460</v>
+        <v>28</v>
       </c>
       <c r="F93">
-        <v>2300000</v>
+        <v>140000</v>
       </c>
       <c r="G93">
-        <v>39019.86504761413</v>
+        <v>49828.63014772044</v>
       </c>
       <c r="H93">
-        <v>7624.1</v>
+        <v>138.88</v>
       </c>
       <c r="I93">
-        <v>-1020773.826386146</v>
+        <v>-50400</v>
       </c>
       <c r="J93">
-        <v>8996809.891716916</v>
+        <v>9999289.750147719</v>
       </c>
       <c r="K93">
-        <v>7717583.718103062</v>
+        <v>9909689.750147719</v>
       </c>
       <c r="L93">
-        <v>2496.762941424882</v>
+        <v>2480</v>
       </c>
     </row>
     <row r="94" spans="1:12">
@@ -3958,31 +3958,31 @@
         <v>11</v>
       </c>
       <c r="D94">
-        <v>-13812.0469445535</v>
+        <v>0</v>
       </c>
       <c r="E94">
-        <v>460</v>
+        <v>28</v>
       </c>
       <c r="F94">
-        <v>2300000</v>
+        <v>140000</v>
       </c>
       <c r="G94">
-        <v>39442.7447034006</v>
+        <v>50371.62684635867</v>
       </c>
       <c r="H94">
-        <v>7654.1</v>
+        <v>138.88</v>
       </c>
       <c r="I94">
-        <v>-1262273.826386146</v>
+        <v>-65100</v>
       </c>
       <c r="J94">
-        <v>8755702.771372702</v>
+        <v>9985132.746846357</v>
       </c>
       <c r="K94">
-        <v>7717976.597758848</v>
+        <v>9910232.746846357</v>
       </c>
       <c r="L94">
-        <v>2496.762941424882</v>
+        <v>2480</v>
       </c>
     </row>
     <row r="95" spans="1:12">
@@ -3996,31 +3996,31 @@
         <v>11</v>
       </c>
       <c r="D95">
-        <v>-13812.0469445535</v>
+        <v>0</v>
       </c>
       <c r="E95">
-        <v>460</v>
+        <v>28</v>
       </c>
       <c r="F95">
-        <v>2300000</v>
+        <v>140000</v>
       </c>
       <c r="G95">
-        <v>39865.64588683945</v>
+        <v>50914.65329824066</v>
       </c>
       <c r="H95">
-        <v>7684.1</v>
+        <v>138.88</v>
       </c>
       <c r="I95">
-        <v>-1492273.826386146</v>
+        <v>-79100</v>
       </c>
       <c r="J95">
-        <v>8526095.672556141</v>
+        <v>9971675.773298239</v>
       </c>
       <c r="K95">
-        <v>7718369.498942288</v>
+        <v>9910775.773298239</v>
       </c>
       <c r="L95">
-        <v>2496.762941424882</v>
+        <v>2480</v>
       </c>
     </row>
     <row r="96" spans="1:12">
@@ -4034,31 +4034,31 @@
         <v>11</v>
       </c>
       <c r="D96">
-        <v>-13812.0469445535</v>
+        <v>0</v>
       </c>
       <c r="E96">
-        <v>461</v>
+        <v>28</v>
       </c>
       <c r="F96">
-        <v>2305000</v>
+        <v>140000</v>
       </c>
       <c r="G96">
-        <v>40288.29462650752</v>
+        <v>51457.70950499672</v>
       </c>
       <c r="H96">
-        <v>7714.1</v>
+        <v>138.88</v>
       </c>
       <c r="I96">
-        <v>-1424023.826386145</v>
+        <v>-74900</v>
       </c>
       <c r="J96">
-        <v>8594738.321295811</v>
+        <v>9976418.829504997</v>
       </c>
       <c r="K96">
-        <v>7713762.147681955</v>
+        <v>9911318.829504997</v>
       </c>
       <c r="L96">
-        <v>2496.559551096412</v>
+        <v>2480</v>
       </c>
     </row>
     <row r="97" spans="1:12">
@@ -4072,31 +4072,31 @@
         <v>11</v>
       </c>
       <c r="D97">
-        <v>-13925.60649564992</v>
+        <v>0</v>
       </c>
       <c r="E97">
-        <v>460</v>
+        <v>28</v>
       </c>
       <c r="F97">
-        <v>2300000</v>
+        <v>140000</v>
       </c>
       <c r="G97">
-        <v>40711.23263133661</v>
+        <v>52000.79546825727</v>
       </c>
       <c r="H97">
-        <v>7744.1</v>
+        <v>138.88</v>
       </c>
       <c r="I97">
-        <v>-1305934.837608735</v>
+        <v>-67900</v>
       </c>
       <c r="J97">
-        <v>8713106.688526953</v>
+        <v>9983961.915468257</v>
       </c>
       <c r="K97">
-        <v>7719041.526135687</v>
+        <v>9911861.915468257</v>
       </c>
       <c r="L97">
-        <v>2496.559551096412</v>
+        <v>2480</v>
       </c>
     </row>
     <row r="98" spans="1:12">
@@ -4110,31 +4110,31 @@
         <v>11</v>
       </c>
       <c r="D98">
-        <v>-13925.60649564992</v>
+        <v>0</v>
       </c>
       <c r="E98">
-        <v>461</v>
+        <v>28</v>
       </c>
       <c r="F98">
-        <v>2305000</v>
+        <v>140000</v>
       </c>
       <c r="G98">
-        <v>41133.91819441254</v>
+        <v>52543.9111896528</v>
       </c>
       <c r="H98">
-        <v>7774.1</v>
+        <v>138.88</v>
       </c>
       <c r="I98">
-        <v>-1571109.837608735</v>
+        <v>-84000</v>
       </c>
       <c r="J98">
-        <v>8448324.374090029</v>
+        <v>9968405.031189652</v>
       </c>
       <c r="K98">
-        <v>7714434.211698763</v>
+        <v>9912405.031189652</v>
       </c>
       <c r="L98">
-        <v>2496.321894803361</v>
+        <v>2480</v>
       </c>
     </row>
     <row r="99" spans="1:12">
@@ -4148,31 +4148,31 @@
         <v>11</v>
       </c>
       <c r="D99">
-        <v>-14054.92839045328</v>
+        <v>0</v>
       </c>
       <c r="E99">
-        <v>460</v>
+        <v>28</v>
       </c>
       <c r="F99">
-        <v>2300000</v>
+        <v>140000</v>
       </c>
       <c r="G99">
-        <v>41556.89216097714</v>
+        <v>53087.05667081387</v>
       </c>
       <c r="H99">
-        <v>7804.1</v>
+        <v>138.88</v>
       </c>
       <c r="I99">
-        <v>-1487201.790238651</v>
+        <v>-79100</v>
       </c>
       <c r="J99">
-        <v>8532496.073531874</v>
+        <v>9973848.176670814</v>
       </c>
       <c r="K99">
-        <v>7719697.863770524</v>
+        <v>9912948.176670814</v>
       </c>
       <c r="L99">
-        <v>2496.321894803361</v>
+        <v>2480</v>
       </c>
     </row>
     <row r="100" spans="1:12">
@@ -4186,31 +4186,31 @@
         <v>11</v>
       </c>
       <c r="D100">
-        <v>-14054.92839045328</v>
+        <v>0</v>
       </c>
       <c r="E100">
-        <v>460</v>
+        <v>28</v>
       </c>
       <c r="F100">
-        <v>2300000</v>
+        <v>140000</v>
       </c>
       <c r="G100">
-        <v>41979.88766036182</v>
+        <v>53630.23191337118</v>
       </c>
       <c r="H100">
-        <v>7834.1</v>
+        <v>138.88</v>
       </c>
       <c r="I100">
-        <v>-1429701.790238651</v>
+        <v>-75600</v>
       </c>
       <c r="J100">
-        <v>8590389.069031259</v>
+        <v>9977891.35191337</v>
       </c>
       <c r="K100">
-        <v>7720090.85926991</v>
+        <v>9913491.35191337</v>
       </c>
       <c r="L100">
-        <v>2496.321894803361</v>
+        <v>2480</v>
       </c>
     </row>
     <row r="101" spans="1:12">
@@ -4224,31 +4224,31 @@
         <v>11</v>
       </c>
       <c r="D101">
-        <v>-14054.92839045328</v>
+        <v>0</v>
       </c>
       <c r="E101">
-        <v>460</v>
+        <v>28</v>
       </c>
       <c r="F101">
-        <v>2300000</v>
+        <v>140000</v>
       </c>
       <c r="G101">
-        <v>42402.90469374647</v>
+        <v>54173.43691895547</v>
       </c>
       <c r="H101">
-        <v>7864.1</v>
+        <v>138.88</v>
       </c>
       <c r="I101">
-        <v>-1855201.790238651</v>
+        <v>-101500</v>
       </c>
       <c r="J101">
-        <v>8165282.086064644</v>
+        <v>9952534.556918954</v>
       </c>
       <c r="K101">
-        <v>7720483.876303295</v>
+        <v>9914034.556918954</v>
       </c>
       <c r="L101">
-        <v>2496.321894803361</v>
+        <v>2480</v>
       </c>
     </row>
     <row r="102" spans="1:12">
@@ -4262,31 +4262,31 @@
         <v>11</v>
       </c>
       <c r="D102">
-        <v>-14652.89407486336</v>
+        <v>0</v>
       </c>
       <c r="E102">
-        <v>457</v>
+        <v>28</v>
       </c>
       <c r="F102">
-        <v>2285000</v>
+        <v>140000</v>
       </c>
       <c r="G102">
-        <v>42826.73241487628</v>
+        <v>54716.6716891976</v>
       </c>
       <c r="H102">
-        <v>7894.1</v>
+        <v>138.88</v>
       </c>
       <c r="I102">
-        <v>-2277252.648128399</v>
+        <v>-128100</v>
       </c>
       <c r="J102">
-        <v>7743027.090211616</v>
+        <v>9926477.791689197</v>
       </c>
       <c r="K102">
-        <v>7735279.738340015</v>
+        <v>9914577.791689197</v>
       </c>
       <c r="L102">
-        <v>2496.321894803361</v>
+        <v>2480</v>
       </c>
     </row>
     <row r="103" spans="1:12">
@@ -4300,7 +4300,7 @@
         <v>12</v>
       </c>
       <c r="D103">
-        <v>-14652.89407486336</v>
+        <v>0</v>
       </c>
       <c r="E103">
         <v>0</v>
@@ -4309,22 +4309,22 @@
         <v>0</v>
       </c>
       <c r="G103">
-        <v>42826.73241487628</v>
+        <v>54716.6716891976</v>
       </c>
       <c r="H103">
-        <v>9992.938211850273</v>
+        <v>266.56</v>
       </c>
       <c r="I103">
         <v>0</v>
       </c>
       <c r="J103">
-        <v>5078903.251999764</v>
+        <v>9763250.111689197</v>
       </c>
       <c r="K103">
-        <v>7733180.900128162</v>
+        <v>9914450.111689197</v>
       </c>
       <c r="L103">
-        <v>2496.321894803361</v>
+        <v>2480</v>
       </c>
     </row>
     <row r="104" spans="1:12">
@@ -4338,31 +4338,31 @@
         <v>12</v>
       </c>
       <c r="D104">
-        <v>-14652.89407486336</v>
+        <v>0</v>
       </c>
       <c r="E104">
-        <v>457</v>
+        <v>0</v>
       </c>
       <c r="F104">
-        <v>2285000</v>
+        <v>0</v>
       </c>
       <c r="G104">
-        <v>43250.35341597919</v>
+        <v>55259.92922956414</v>
       </c>
       <c r="H104">
-        <v>12090.56821185027</v>
+        <v>266.56</v>
       </c>
       <c r="I104">
-        <v>-354175</v>
+        <v>-0</v>
       </c>
       <c r="J104">
-        <v>9662331.891129266</v>
+        <v>9914993.369229564</v>
       </c>
       <c r="K104">
-        <v>7731506.891129266</v>
+        <v>9914993.369229564</v>
       </c>
       <c r="L104">
-        <v>2295</v>
+        <v>2480</v>
       </c>
     </row>
     <row r="105" spans="1:12">
@@ -4376,31 +4376,31 @@
         <v>11</v>
       </c>
       <c r="D105">
-        <v>-14836.89407486336</v>
+        <v>0</v>
       </c>
       <c r="E105">
-        <v>453</v>
+        <v>0</v>
       </c>
       <c r="F105">
-        <v>2265000</v>
+        <v>0</v>
       </c>
       <c r="G105">
-        <v>43675.08179357531</v>
+        <v>55803.21653746712</v>
       </c>
       <c r="H105">
-        <v>12120.56821185027</v>
+        <v>266.56</v>
       </c>
       <c r="I105">
-        <v>-520950</v>
+        <v>-0</v>
       </c>
       <c r="J105">
-        <v>9495767.619506862</v>
+        <v>9915536.656537466</v>
       </c>
       <c r="K105">
-        <v>7751717.619506862</v>
+        <v>9915536.656537466</v>
       </c>
       <c r="L105">
-        <v>2295</v>
+        <v>2480</v>
       </c>
     </row>
     <row r="106" spans="1:12">
@@ -4414,31 +4414,31 @@
         <v>11</v>
       </c>
       <c r="D106">
-        <v>-14836.89407486336</v>
+        <v>0</v>
       </c>
       <c r="E106">
-        <v>453</v>
+        <v>0</v>
       </c>
       <c r="F106">
-        <v>2265000</v>
+        <v>0</v>
       </c>
       <c r="G106">
-        <v>44099.83180012363</v>
+        <v>56346.53361453767</v>
       </c>
       <c r="H106">
-        <v>12150.56821185027</v>
+        <v>266.56</v>
       </c>
       <c r="I106">
-        <v>-294450</v>
+        <v>-0</v>
       </c>
       <c r="J106">
-        <v>9722662.369513411</v>
+        <v>9916079.973614536</v>
       </c>
       <c r="K106">
-        <v>7752112.369513411</v>
+        <v>9916079.973614536</v>
       </c>
       <c r="L106">
-        <v>2295</v>
+        <v>2480</v>
       </c>
     </row>
     <row r="107" spans="1:12">
@@ -4452,31 +4452,31 @@
         <v>11</v>
       </c>
       <c r="D107">
-        <v>-14900.89407486336</v>
+        <v>0</v>
       </c>
       <c r="E107">
-        <v>449</v>
+        <v>0</v>
       </c>
       <c r="F107">
-        <v>2245000</v>
+        <v>0</v>
       </c>
       <c r="G107">
-        <v>44525.69582037094</v>
+        <v>56889.88046240696</v>
       </c>
       <c r="H107">
-        <v>12180.56821185027</v>
+        <v>266.56</v>
       </c>
       <c r="I107">
-        <v>-179600</v>
+        <v>-0</v>
       </c>
       <c r="J107">
-        <v>9837844.233533658</v>
+        <v>9916623.320462406</v>
       </c>
       <c r="K107">
-        <v>7772444.233533658</v>
+        <v>9916623.320462406</v>
       </c>
       <c r="L107">
-        <v>2295</v>
+        <v>2480</v>
       </c>
     </row>
     <row r="108" spans="1:12">
@@ -4490,31 +4490,31 @@
         <v>11</v>
       </c>
       <c r="D108">
-        <v>-14900.89407486336</v>
+        <v>0</v>
       </c>
       <c r="E108">
-        <v>450</v>
+        <v>0</v>
       </c>
       <c r="F108">
-        <v>2250000</v>
+        <v>0</v>
       </c>
       <c r="G108">
-        <v>44951.30755919471</v>
+        <v>57433.25708270627</v>
       </c>
       <c r="H108">
-        <v>12210.56821185027</v>
+        <v>266.56</v>
       </c>
       <c r="I108">
-        <v>-292474.9999999983</v>
+        <v>-0</v>
       </c>
       <c r="J108">
-        <v>9725364.845272483</v>
+        <v>9917166.697082706</v>
       </c>
       <c r="K108">
-        <v>7767839.845272481</v>
+        <v>9917166.697082706</v>
       </c>
       <c r="L108">
-        <v>2294.997777777778</v>
+        <v>2480</v>
       </c>
     </row>
     <row r="109" spans="1:12">
@@ -4528,31 +4528,31 @@
         <v>11</v>
       </c>
       <c r="D109">
-        <v>-15035.88296375225</v>
+        <v>0</v>
       </c>
       <c r="E109">
-        <v>445</v>
+        <v>0</v>
       </c>
       <c r="F109">
-        <v>2225000</v>
+        <v>0</v>
       </c>
       <c r="G109">
-        <v>45378.30344173627</v>
+        <v>57976.66347706696</v>
       </c>
       <c r="H109">
-        <v>12240.56821185027</v>
+        <v>266.56</v>
       </c>
       <c r="I109">
-        <v>-300350.2777777761</v>
+        <v>-0</v>
       </c>
       <c r="J109">
-        <v>9717751.574488359</v>
+        <v>9917710.103477066</v>
       </c>
       <c r="K109">
-        <v>7793101.852266135</v>
+        <v>9917710.103477066</v>
       </c>
       <c r="L109">
-        <v>2294.997777777778</v>
+        <v>2480</v>
       </c>
     </row>
     <row r="110" spans="1:12">
@@ -4566,31 +4566,31 @@
         <v>11</v>
       </c>
       <c r="D110">
-        <v>-15035.88296375225</v>
+        <v>0</v>
       </c>
       <c r="E110">
-        <v>447</v>
+        <v>0</v>
       </c>
       <c r="F110">
-        <v>2235000</v>
+        <v>0</v>
       </c>
       <c r="G110">
-        <v>45804.7731322714</v>
+        <v>58520.0996471205</v>
       </c>
       <c r="H110">
-        <v>12270.56821185027</v>
+        <v>266.56</v>
       </c>
       <c r="I110">
-        <v>-457950.2777777767</v>
+        <v>-0</v>
       </c>
       <c r="J110">
-        <v>9560548.044178894</v>
+        <v>9918253.539647119</v>
       </c>
       <c r="K110">
-        <v>7783498.32195667</v>
+        <v>9918253.539647119</v>
       </c>
       <c r="L110">
-        <v>2294.979890628884</v>
+        <v>2480</v>
       </c>
     </row>
     <row r="111" spans="1:12">
@@ -4604,31 +4604,31 @@
         <v>11</v>
       </c>
       <c r="D111">
-        <v>-15420.74219815443</v>
+        <v>0</v>
       </c>
       <c r="E111">
-        <v>440</v>
+        <v>0</v>
       </c>
       <c r="F111">
-        <v>2200000</v>
+        <v>0</v>
       </c>
       <c r="G111">
-        <v>46233.16119269454</v>
+        <v>59063.56559449842</v>
       </c>
       <c r="H111">
-        <v>12301.92821185027</v>
+        <v>266.56</v>
       </c>
       <c r="I111">
-        <v>-604778.7969177221</v>
+        <v>-0</v>
       </c>
       <c r="J111">
-        <v>9413731.693864968</v>
+        <v>9918797.005594498</v>
       </c>
       <c r="K111">
-        <v>7818510.490782689</v>
+        <v>9918797.005594498</v>
       </c>
       <c r="L111">
-        <v>2294.979890628884</v>
+        <v>2480</v>
       </c>
     </row>
     <row r="112" spans="1:12">
@@ -4642,31 +4642,31 @@
         <v>11</v>
       </c>
       <c r="D112">
-        <v>-15420.74219815443</v>
+        <v>0</v>
       </c>
       <c r="E112">
-        <v>442</v>
+        <v>0</v>
       </c>
       <c r="F112">
-        <v>2210000</v>
+        <v>0</v>
       </c>
       <c r="G112">
-        <v>46661.02313739496</v>
+        <v>59607.06132083237</v>
       </c>
       <c r="H112">
-        <v>12331.92821185027</v>
+        <v>266.56</v>
       </c>
       <c r="I112">
-        <v>-628728.7969177231</v>
+        <v>-0</v>
       </c>
       <c r="J112">
-        <v>9390179.555809665</v>
+        <v>9919340.501320831</v>
       </c>
       <c r="K112">
-        <v>7808908.352727389</v>
+        <v>9919340.501320831</v>
       </c>
       <c r="L112">
-        <v>2294.898533657713</v>
+        <v>2480</v>
       </c>
     </row>
     <row r="113" spans="1:12">
@@ -4680,31 +4680,31 @@
         <v>11</v>
       </c>
       <c r="D113">
-        <v>-15572.82900107385</v>
+        <v>0</v>
       </c>
       <c r="E113">
-        <v>433</v>
+        <v>0</v>
       </c>
       <c r="F113">
-        <v>2165000</v>
+        <v>0</v>
       </c>
       <c r="G113">
-        <v>47091.36369969219</v>
+        <v>60150.58682775406</v>
       </c>
       <c r="H113">
-        <v>12372.93221185028</v>
+        <v>266.56</v>
       </c>
       <c r="I113">
-        <v>-182926.6268447379</v>
+        <v>-0</v>
       </c>
       <c r="J113">
-        <v>9836218.975642029</v>
+        <v>9919884.026827754</v>
       </c>
       <c r="K113">
-        <v>7854145.602486767</v>
+        <v>9919884.026827754</v>
       </c>
       <c r="L113">
-        <v>2294.898533657713</v>
+        <v>2480</v>
       </c>
     </row>
     <row r="114" spans="1:12">
@@ -4718,31 +4718,31 @@
         <v>11</v>
       </c>
       <c r="D114">
-        <v>-15572.82900107385</v>
+        <v>0</v>
       </c>
       <c r="E114">
-        <v>434</v>
+        <v>0</v>
       </c>
       <c r="F114">
-        <v>2170000</v>
+        <v>0</v>
       </c>
       <c r="G114">
-        <v>47521.45222585585</v>
+        <v>60694.1421168953</v>
       </c>
       <c r="H114">
-        <v>12402.93221185028</v>
+        <v>266.56</v>
       </c>
       <c r="I114">
-        <v>22123.37315526158</v>
+        <v>-0</v>
       </c>
       <c r="J114">
-        <v>10041669.06416819</v>
+        <v>9920427.582116894</v>
       </c>
       <c r="K114">
-        <v>7849545.691012932</v>
+        <v>9920427.582116894</v>
       </c>
       <c r="L114">
-        <v>2294.960979432695</v>
+        <v>2480</v>
       </c>
     </row>
     <row r="115" spans="1:12">
@@ -4756,31 +4756,31 @@
         <v>11</v>
       </c>
       <c r="D115">
-        <v>-15637.32173369888</v>
+        <v>0</v>
       </c>
       <c r="E115">
-        <v>421</v>
+        <v>0</v>
       </c>
       <c r="F115">
-        <v>2105000</v>
+        <v>0</v>
       </c>
       <c r="G115">
-        <v>47955.11916603559</v>
+        <v>61237.72718988801</v>
       </c>
       <c r="H115">
-        <v>12462.47221185028</v>
+        <v>266.56</v>
       </c>
       <c r="I115">
-        <v>-52214.30852911261</v>
+        <v>-0</v>
       </c>
       <c r="J115">
-        <v>9967641.016691374</v>
+        <v>9920971.167189887</v>
       </c>
       <c r="K115">
-        <v>7914855.325220486</v>
+        <v>9920971.167189887</v>
       </c>
       <c r="L115">
-        <v>2294.960979432695</v>
+        <v>2480</v>
       </c>
     </row>
     <row r="116" spans="1:12">
@@ -4794,31 +4794,31 @@
         <v>11</v>
       </c>
       <c r="D116">
-        <v>-15637.32173369888</v>
+        <v>0</v>
       </c>
       <c r="E116">
-        <v>422</v>
+        <v>0</v>
       </c>
       <c r="F116">
-        <v>2110000</v>
+        <v>0</v>
       </c>
       <c r="G116">
-        <v>48388.53425234904</v>
+        <v>61781.34204836417</v>
       </c>
       <c r="H116">
-        <v>12492.47221185028</v>
+        <v>266.56</v>
       </c>
       <c r="I116">
-        <v>283885.6914708885</v>
+        <v>-0</v>
       </c>
       <c r="J116">
-        <v>10304144.43177769</v>
+        <v>9921514.782048363</v>
       </c>
       <c r="K116">
-        <v>7910258.7403068</v>
+        <v>9921514.782048363</v>
       </c>
       <c r="L116">
-        <v>2295.091403652048</v>
+        <v>2480</v>
       </c>
     </row>
     <row r="117" spans="1:12">
@@ -4832,31 +4832,31 @@
         <v>11</v>
       </c>
       <c r="D117">
-        <v>-15286.78419213165</v>
+        <v>0</v>
       </c>
       <c r="E117">
-        <v>406</v>
+        <v>0</v>
       </c>
       <c r="F117">
-        <v>2030000</v>
+        <v>0</v>
       </c>
       <c r="G117">
-        <v>48826.37179392977</v>
+        <v>62324.98669395586</v>
       </c>
       <c r="H117">
-        <v>12566.61621185028</v>
+        <v>266.56</v>
       </c>
       <c r="I117">
-        <v>222372.2529317079</v>
+        <v>-0</v>
       </c>
       <c r="J117">
-        <v>10243345.22432166</v>
+        <v>9922058.426693955</v>
       </c>
       <c r="K117">
-        <v>7990972.971389947</v>
+        <v>9922058.426693955</v>
       </c>
       <c r="L117">
-        <v>2295.091403652048</v>
+        <v>2480</v>
       </c>
     </row>
     <row r="118" spans="1:12">
@@ -4870,31 +4870,31 @@
         <v>11</v>
       </c>
       <c r="D118">
-        <v>-15270.8755957837</v>
+        <v>0</v>
       </c>
       <c r="E118">
-        <v>405</v>
+        <v>0</v>
       </c>
       <c r="F118">
-        <v>2025000</v>
+        <v>0</v>
       </c>
       <c r="G118">
-        <v>49264.50652707971</v>
+        <v>62868.66112829525</v>
       </c>
       <c r="H118">
-        <v>12596.61621185028</v>
+        <v>266.56</v>
       </c>
       <c r="I118">
-        <v>161074.5380230091</v>
+        <v>-0</v>
       </c>
       <c r="J118">
-        <v>10182471.55274246</v>
+        <v>9922602.101128295</v>
       </c>
       <c r="K118">
-        <v>7996397.014719445</v>
+        <v>9922602.101128295</v>
       </c>
       <c r="L118">
-        <v>2295.091403652048</v>
+        <v>2480</v>
       </c>
     </row>
     <row r="119" spans="1:12">
@@ -4908,31 +4908,31 @@
         <v>11</v>
       </c>
       <c r="D119">
-        <v>-14531.61226517262</v>
+        <v>0</v>
       </c>
       <c r="E119">
-        <v>386</v>
+        <v>0</v>
       </c>
       <c r="F119">
-        <v>1930000</v>
+        <v>0</v>
       </c>
       <c r="G119">
-        <v>49707.90639480847</v>
+        <v>63412.36535301461</v>
       </c>
       <c r="H119">
-        <v>12685.30821185028</v>
+        <v>266.56</v>
       </c>
       <c r="I119">
-        <v>375467.9547577321</v>
+        <v>-0</v>
       </c>
       <c r="J119">
-        <v>10397958.94067552</v>
+        <v>9923145.805353014</v>
       </c>
       <c r="K119">
-        <v>8092490.985917784</v>
+        <v>9923145.805353014</v>
       </c>
       <c r="L119">
-        <v>2295.091403652048</v>
+        <v>2480</v>
       </c>
     </row>
     <row r="120" spans="1:12">
@@ -4946,31 +4946,31 @@
         <v>11</v>
       </c>
       <c r="D120">
-        <v>-5717.161766365933</v>
+        <v>0</v>
       </c>
       <c r="E120">
-        <v>194</v>
+        <v>0</v>
       </c>
       <c r="F120">
-        <v>970000</v>
+        <v>0</v>
       </c>
       <c r="G120">
-        <v>50204.36702452993</v>
+        <v>63956.09936974628</v>
       </c>
       <c r="H120">
-        <v>13584.25221185027</v>
+        <v>266.56</v>
       </c>
       <c r="I120">
-        <v>222656.6922875649</v>
+        <v>-0</v>
       </c>
       <c r="J120">
-        <v>10253559.64533388</v>
+        <v>9923689.539369745</v>
       </c>
       <c r="K120">
-        <v>9060902.953046314</v>
+        <v>9923689.539369745</v>
       </c>
       <c r="L120">
-        <v>2295.091403652048</v>
+        <v>2480</v>
       </c>
     </row>
     <row r="121" spans="1:12">
@@ -4984,31 +4984,31 @@
         <v>11</v>
       </c>
       <c r="D121">
-        <v>-5717.161766365933</v>
+        <v>0</v>
       </c>
       <c r="E121">
-        <v>211</v>
+        <v>0</v>
       </c>
       <c r="F121">
-        <v>1055000</v>
+        <v>0</v>
       </c>
       <c r="G121">
-        <v>50696.19287445027</v>
+        <v>64499.86318012271</v>
       </c>
       <c r="H121">
-        <v>13665.44421185027</v>
+        <v>266.56</v>
       </c>
       <c r="I121">
-        <v>292356.6922875639</v>
+        <v>-0</v>
       </c>
       <c r="J121">
-        <v>10323670.2791838</v>
+        <v>9924233.303180123</v>
       </c>
       <c r="K121">
-        <v>8976313.586896235</v>
+        <v>9924233.303180123</v>
       </c>
       <c r="L121">
-        <v>2302.576930372026</v>
+        <v>2480</v>
       </c>
     </row>
     <row r="122" spans="1:12">
@@ -5022,31 +5022,31 @@
         <v>11</v>
       </c>
       <c r="D122">
-        <v>-5717.161766365933</v>
+        <v>0</v>
       </c>
       <c r="E122">
-        <v>222</v>
+        <v>0</v>
       </c>
       <c r="F122">
-        <v>1110000</v>
+        <v>0</v>
       </c>
       <c r="G122">
-        <v>51185.02910726651</v>
+        <v>65043.65678577642</v>
       </c>
       <c r="H122">
-        <v>13717.78221185027</v>
+        <v>266.56</v>
       </c>
       <c r="I122">
-        <v>219981.6922875647</v>
+        <v>-0</v>
       </c>
       <c r="J122">
-        <v>10251731.77741662</v>
+        <v>9924777.096785776</v>
       </c>
       <c r="K122">
-        <v>8921750.085129052</v>
+        <v>9924777.096785776</v>
       </c>
       <c r="L122">
-        <v>2306.363659047286</v>
+        <v>2480</v>
       </c>
     </row>
     <row r="123" spans="1:12">
@@ -5060,31 +5060,31 @@
         <v>11</v>
       </c>
       <c r="D123">
-        <v>-5717.161766365933</v>
+        <v>0</v>
       </c>
       <c r="E123">
-        <v>228</v>
+        <v>0</v>
       </c>
       <c r="F123">
-        <v>1140000</v>
+        <v>0</v>
       </c>
       <c r="G123">
-        <v>51672.24664617769</v>
+        <v>65587.48018834002</v>
       </c>
       <c r="H123">
-        <v>13747.78221185027</v>
+        <v>266.56</v>
       </c>
       <c r="I123">
-        <v>31881.69228756396</v>
+        <v>-0</v>
       </c>
       <c r="J123">
-        <v>10064088.99495553</v>
+        <v>9925320.920188339</v>
       </c>
       <c r="K123">
-        <v>8892207.302667962</v>
+        <v>9925320.920188339</v>
       </c>
       <c r="L123">
-        <v>2307.406720651305</v>
+        <v>2480</v>
       </c>
     </row>
     <row r="124" spans="1:12">
@@ -5098,31 +5098,31 @@
         <v>11</v>
       </c>
       <c r="D124">
-        <v>-5811.228972878978</v>
+        <v>0</v>
       </c>
       <c r="E124">
-        <v>218</v>
+        <v>0</v>
       </c>
       <c r="F124">
-        <v>1090000</v>
+        <v>0</v>
       </c>
       <c r="G124">
-        <v>52162.22293524407</v>
+        <v>66131.33338944623</v>
       </c>
       <c r="H124">
-        <v>13793.74221185027</v>
+        <v>266.56</v>
       </c>
       <c r="I124">
-        <v>-51266.6275496099</v>
+        <v>-0</v>
       </c>
       <c r="J124">
-        <v>9981290.624200907</v>
+        <v>9925864.773389446</v>
       </c>
       <c r="K124">
-        <v>8942557.251750516</v>
+        <v>9925864.773389446</v>
       </c>
       <c r="L124">
-        <v>2307.406720651305</v>
+        <v>2480</v>
       </c>
     </row>
     <row r="125" spans="1:12">
@@ -5136,31 +5136,31 @@
         <v>11</v>
       </c>
       <c r="D125">
-        <v>-6673.956665253765</v>
+        <v>0</v>
       </c>
       <c r="E125">
-        <v>199</v>
+        <v>0</v>
       </c>
       <c r="F125">
-        <v>995000</v>
+        <v>0</v>
       </c>
       <c r="G125">
-        <v>52657.37956911027</v>
+        <v>66675.21639072784</v>
       </c>
       <c r="H125">
-        <v>13879.69821185027</v>
+        <v>266.56</v>
       </c>
       <c r="I125">
-        <v>-225898.4352402402</v>
+        <v>-0</v>
       </c>
       <c r="J125">
-        <v>9806205.289451765</v>
+        <v>9926408.656390727</v>
       </c>
       <c r="K125">
-        <v>9037103.724692006</v>
+        <v>9926408.656390727</v>
       </c>
       <c r="L125">
-        <v>2307.406720651305</v>
+        <v>2480</v>
       </c>
     </row>
     <row r="126" spans="1:12">
@@ -5174,31 +5174,31 @@
         <v>11</v>
       </c>
       <c r="D126">
-        <v>-6673.956665253765</v>
+        <v>0</v>
       </c>
       <c r="E126">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="F126">
-        <v>1000000</v>
+        <v>0</v>
       </c>
       <c r="G126">
-        <v>53152.28771840846</v>
+        <v>67219.12919381775</v>
       </c>
       <c r="H126">
-        <v>13909.69821185027</v>
+        <v>266.56</v>
       </c>
       <c r="I126">
-        <v>-127173.4352402404</v>
+        <v>-0</v>
       </c>
       <c r="J126">
-        <v>9905395.197601063</v>
+        <v>9926952.569193818</v>
       </c>
       <c r="K126">
-        <v>9032568.632841304</v>
+        <v>9926952.569193818</v>
       </c>
       <c r="L126">
-        <v>2307.434687048048</v>
+        <v>2480</v>
       </c>
     </row>
     <row r="127" spans="1:12">
@@ -5212,31 +5212,31 @@
         <v>11</v>
       </c>
       <c r="D127">
-        <v>-6712.826039349861</v>
+        <v>0</v>
       </c>
       <c r="E127">
-        <v>198</v>
+        <v>0</v>
       </c>
       <c r="F127">
-        <v>990000</v>
+        <v>0</v>
       </c>
       <c r="G127">
-        <v>53647.76715750256</v>
+        <v>67763.07180034892</v>
       </c>
       <c r="H127">
-        <v>13939.69821185027</v>
+        <v>266.56</v>
       </c>
       <c r="I127">
-        <v>-96201.70088783804</v>
+        <v>-0</v>
       </c>
       <c r="J127">
-        <v>9936793.542018464</v>
+        <v>9927496.511800349</v>
       </c>
       <c r="K127">
-        <v>9042995.242906302</v>
+        <v>9927496.511800349</v>
       </c>
       <c r="L127">
-        <v>2307.434687048048</v>
+        <v>2480</v>
       </c>
     </row>
     <row r="128" spans="1:12">
@@ -5250,31 +5250,31 @@
         <v>11</v>
       </c>
       <c r="D128">
-        <v>-6712.826039349861</v>
+        <v>0</v>
       </c>
       <c r="E128">
-        <v>203</v>
+        <v>0</v>
       </c>
       <c r="F128">
-        <v>1015000</v>
+        <v>0</v>
       </c>
       <c r="G128">
-        <v>54141.90223930564</v>
+        <v>68307.04421195442</v>
       </c>
       <c r="H128">
-        <v>13969.69821185027</v>
+        <v>266.56</v>
       </c>
       <c r="I128">
-        <v>-159851.7008878383</v>
+        <v>-0</v>
       </c>
       <c r="J128">
-        <v>9873607.677100267</v>
+        <v>9928040.484211953</v>
       </c>
       <c r="K128">
-        <v>9018459.377988106</v>
+        <v>9928040.484211953</v>
       </c>
       <c r="L128">
-        <v>2307.497872096126</v>
+        <v>2480</v>
       </c>
     </row>
     <row r="129" spans="1:12">
@@ -5288,31 +5288,31 @@
         <v>11</v>
       </c>
       <c r="D129">
-        <v>-6779.821783542113</v>
+        <v>0</v>
       </c>
       <c r="E129">
-        <v>201</v>
+        <v>0</v>
       </c>
       <c r="F129">
-        <v>1005000</v>
+        <v>0</v>
       </c>
       <c r="G129">
-        <v>54636.6070273738</v>
+        <v>68851.04643026739</v>
       </c>
       <c r="H129">
-        <v>13999.69821185027</v>
+        <v>266.56</v>
       </c>
       <c r="I129">
-        <v>-168326.807283032</v>
+        <v>-0</v>
       </c>
       <c r="J129">
-        <v>9865530.279748948</v>
+        <v>9928584.486430267</v>
       </c>
       <c r="K129">
-        <v>9028857.087031981</v>
+        <v>9928584.486430267</v>
       </c>
       <c r="L129">
-        <v>2307.497872096126</v>
+        <v>2480</v>
       </c>
     </row>
     <row r="130" spans="1:12">
@@ -5326,31 +5326,31 @@
         <v>11</v>
       </c>
       <c r="D130">
-        <v>-7216.302632407245</v>
+        <v>0</v>
       </c>
       <c r="E130">
-        <v>192</v>
+        <v>0</v>
       </c>
       <c r="F130">
-        <v>960000</v>
+        <v>0</v>
       </c>
       <c r="G130">
-        <v>55133.77853116466</v>
+        <v>69395.07845692111</v>
       </c>
       <c r="H130">
-        <v>14040.36021185027</v>
+        <v>266.56</v>
       </c>
       <c r="I130">
-        <v>-232789.7860614037</v>
+        <v>-0</v>
       </c>
       <c r="J130">
-        <v>9801087.329625502</v>
+        <v>9929128.518456921</v>
       </c>
       <c r="K130">
-        <v>9073877.115686907</v>
+        <v>9929128.518456921</v>
       </c>
       <c r="L130">
-        <v>2307.497872096126</v>
+        <v>2480</v>
       </c>
     </row>
     <row r="131" spans="1:12">
@@ -5364,31 +5364,31 @@
         <v>11</v>
       </c>
       <c r="D131">
-        <v>-7772.285609176251</v>
+        <v>0</v>
       </c>
       <c r="E131">
-        <v>184</v>
+        <v>0</v>
       </c>
       <c r="F131">
-        <v>920000</v>
+        <v>0</v>
       </c>
       <c r="G131">
-        <v>55633.13663114877</v>
+        <v>69939.14029354889</v>
       </c>
       <c r="H131">
-        <v>14076.16821185027</v>
+        <v>266.56</v>
       </c>
       <c r="I131">
-        <v>-319690.2116421786</v>
+        <v>-0</v>
       </c>
       <c r="J131">
-        <v>9714094.471167944</v>
+        <v>9929672.580293549</v>
       </c>
       <c r="K131">
-        <v>9113784.682810122</v>
+        <v>9929672.580293549</v>
       </c>
       <c r="L131">
-        <v>2307.497872096126</v>
+        <v>2480</v>
       </c>
     </row>
     <row r="132" spans="1:12">
@@ -5402,31 +5402,31 @@
         <v>11</v>
       </c>
       <c r="D132">
-        <v>-7772.285609176251</v>
+        <v>0</v>
       </c>
       <c r="E132">
-        <v>189</v>
+        <v>0</v>
       </c>
       <c r="F132">
-        <v>945000</v>
+        <v>0</v>
       </c>
       <c r="G132">
-        <v>56131.15058637124</v>
+        <v>70483.23194178415</v>
       </c>
       <c r="H132">
-        <v>14106.16821185027</v>
+        <v>266.56</v>
       </c>
       <c r="I132">
-        <v>-380765.2116421777</v>
+        <v>-0</v>
       </c>
       <c r="J132">
-        <v>9653487.485123167</v>
+        <v>9930216.671941783</v>
       </c>
       <c r="K132">
-        <v>9089252.696765345</v>
+        <v>9930216.671941783</v>
       </c>
       <c r="L132">
-        <v>2306.58522997718</v>
+        <v>2480</v>
       </c>
     </row>
     <row r="133" spans="1:12">
@@ -5440,31 +5440,31 @@
         <v>11</v>
       </c>
       <c r="D133">
-        <v>-8110.626529084973</v>
+        <v>0</v>
       </c>
       <c r="E133">
-        <v>185</v>
+        <v>0</v>
       </c>
       <c r="F133">
-        <v>925000</v>
+        <v>0</v>
       </c>
       <c r="G133">
-        <v>56630.26753737647</v>
+        <v>71027.35340326041</v>
       </c>
       <c r="H133">
-        <v>14136.16821185027</v>
+        <v>266.56</v>
       </c>
       <c r="I133">
-        <v>-391206.6886444596</v>
+        <v>-0</v>
       </c>
       <c r="J133">
-        <v>9643176.784151983</v>
+        <v>9930760.79340326</v>
       </c>
       <c r="K133">
-        <v>9109383.472796442</v>
+        <v>9930760.79340326</v>
       </c>
       <c r="L133">
-        <v>2306.58522997718</v>
+        <v>2480</v>
       </c>
     </row>
     <row r="134" spans="1:12">
@@ -5478,31 +5478,31 @@
         <v>11</v>
       </c>
       <c r="D134">
-        <v>-8110.626529084973</v>
+        <v>0</v>
       </c>
       <c r="E134">
-        <v>198</v>
+        <v>0</v>
       </c>
       <c r="F134">
-        <v>990000</v>
+        <v>0</v>
       </c>
       <c r="G134">
-        <v>57125.84704777627</v>
+        <v>71571.50467961127</v>
       </c>
       <c r="H134">
-        <v>14193.57621185027</v>
+        <v>266.56</v>
       </c>
       <c r="I134">
-        <v>-649006.6886444595</v>
+        <v>-0</v>
       </c>
       <c r="J134">
-        <v>9385814.955662381</v>
+        <v>9931304.94467961</v>
       </c>
       <c r="K134">
-        <v>9044821.64430684</v>
+        <v>9931304.94467961</v>
       </c>
       <c r="L134">
-        <v>2300.112462352416</v>
+        <v>2480</v>
       </c>
     </row>
     <row r="135" spans="1:12">
@@ -5516,31 +5516,31 @@
         <v>11</v>
       </c>
       <c r="D135">
-        <v>-9409.86361496155</v>
+        <v>0</v>
       </c>
       <c r="E135">
-        <v>187</v>
+        <v>0</v>
       </c>
       <c r="F135">
-        <v>935000</v>
+        <v>0</v>
       </c>
       <c r="G135">
-        <v>57624.39359041852</v>
+        <v>72115.68577247043</v>
       </c>
       <c r="H135">
-        <v>14241.58021185027</v>
+        <v>266.56</v>
       </c>
       <c r="I135">
-        <v>-552175.7614975451</v>
+        <v>-0</v>
       </c>
       <c r="J135">
-        <v>9481797.188266061</v>
+        <v>9931849.125772471</v>
       </c>
       <c r="K135">
-        <v>9098972.949763607</v>
+        <v>9931849.125772471</v>
       </c>
       <c r="L135">
-        <v>2300.112462352416</v>
+        <v>2480</v>
       </c>
     </row>
     <row r="136" spans="1:12">
@@ -5554,31 +5554,31 @@
         <v>11</v>
       </c>
       <c r="D136">
-        <v>-10971.32562554296</v>
+        <v>0</v>
       </c>
       <c r="E136">
-        <v>174</v>
+        <v>0</v>
       </c>
       <c r="F136">
-        <v>870000</v>
+        <v>0</v>
       </c>
       <c r="G136">
-        <v>58126.44042919951</v>
+        <v>72659.89668347166</v>
       </c>
       <c r="H136">
-        <v>14298.26021185027</v>
+        <v>266.56</v>
       </c>
       <c r="I136">
-        <v>-522489.2112330099</v>
+        <v>-0</v>
       </c>
       <c r="J136">
-        <v>9510367.643358797</v>
+        <v>9932393.336683471</v>
       </c>
       <c r="K136">
-        <v>9162856.854591807</v>
+        <v>9932393.336683471</v>
       </c>
       <c r="L136">
-        <v>2300.112462352416</v>
+        <v>2480</v>
       </c>
     </row>
     <row r="137" spans="1:12">
@@ -5592,31 +5592,31 @@
         <v>11</v>
       </c>
       <c r="D137">
-        <v>-10971.32562554296</v>
+        <v>0</v>
       </c>
       <c r="E137">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="F137">
-        <v>1000000</v>
+        <v>0</v>
       </c>
       <c r="G137">
-        <v>58621.38520698536</v>
+        <v>73204.13741424883</v>
       </c>
       <c r="H137">
-        <v>14412.92021185027</v>
+        <v>266.56</v>
       </c>
       <c r="I137">
-        <v>-548739.2112330099</v>
+        <v>-0</v>
       </c>
       <c r="J137">
-        <v>9484497.928136583</v>
+        <v>9932937.577414248</v>
       </c>
       <c r="K137">
-        <v>9033237.139369594</v>
+        <v>9932937.577414248</v>
       </c>
       <c r="L137">
-        <v>2287.747842246602</v>
+        <v>2480</v>
       </c>
     </row>
     <row r="138" spans="1:12">
@@ -5630,31 +5630,31 @@
         <v>11</v>
       </c>
       <c r="D138">
-        <v>-10971.32562554296</v>
+        <v>0</v>
       </c>
       <c r="E138">
-        <v>217</v>
+        <v>0</v>
       </c>
       <c r="F138">
-        <v>1085000</v>
+        <v>0</v>
       </c>
       <c r="G138">
-        <v>59111.69547588233</v>
+        <v>73748.40796643592</v>
       </c>
       <c r="H138">
-        <v>14487.65221185027</v>
+        <v>266.56</v>
       </c>
       <c r="I138">
-        <v>-530114.2112330095</v>
+        <v>-0</v>
       </c>
       <c r="J138">
-        <v>9503538.50640548</v>
+        <v>9933481.847966436</v>
       </c>
       <c r="K138">
-        <v>8948652.717638489</v>
+        <v>9933481.847966436</v>
       </c>
       <c r="L138">
-        <v>2280.716905296407</v>
+        <v>2480</v>
       </c>
     </row>
     <row r="139" spans="1:12">
@@ -5668,31 +5668,31 @@
         <v>11</v>
       </c>
       <c r="D139">
-        <v>-11426.19324672859</v>
+        <v>0</v>
       </c>
       <c r="E139">
-        <v>213</v>
+        <v>0</v>
       </c>
       <c r="F139">
-        <v>1065000</v>
+        <v>0</v>
       </c>
       <c r="G139">
-        <v>59603.10193341752</v>
+        <v>74292.70834166695</v>
       </c>
       <c r="H139">
-        <v>14517.65221185027</v>
+        <v>266.56</v>
       </c>
       <c r="I139">
-        <v>-605542.5207033687</v>
+        <v>-0</v>
       </c>
       <c r="J139">
-        <v>9428116.735771472</v>
+        <v>9934026.148341667</v>
       </c>
       <c r="K139">
-        <v>8968659.25647484</v>
+        <v>9934026.148341667</v>
       </c>
       <c r="L139">
-        <v>2280.716905296407</v>
+        <v>2480</v>
       </c>
     </row>
     <row r="140" spans="1:12">
@@ -5706,31 +5706,31 @@
         <v>11</v>
       </c>
       <c r="D140">
-        <v>-12952.07920498907</v>
+        <v>0</v>
       </c>
       <c r="E140">
-        <v>202</v>
+        <v>0</v>
       </c>
       <c r="F140">
-        <v>1010000</v>
+        <v>0</v>
       </c>
       <c r="G140">
-        <v>60097.46282363761</v>
+        <v>74837.03854157608</v>
       </c>
       <c r="H140">
-        <v>14564.77621185027</v>
+        <v>266.56</v>
       </c>
       <c r="I140">
-        <v>-700520.3717468567</v>
+        <v>-0</v>
       </c>
       <c r="J140">
-        <v>9332060.23565994</v>
+        <v>9934570.478541575</v>
       </c>
       <c r="K140">
-        <v>9022580.607406797</v>
+        <v>9934570.478541575</v>
       </c>
       <c r="L140">
-        <v>2280.716905296407</v>
+        <v>2480</v>
       </c>
     </row>
     <row r="141" spans="1:12">
@@ -5744,31 +5744,31 @@
         <v>11</v>
       </c>
       <c r="D141">
-        <v>-13565.6637314711</v>
+        <v>0</v>
       </c>
       <c r="E141">
-        <v>197</v>
+        <v>0</v>
       </c>
       <c r="F141">
-        <v>985000</v>
+        <v>0</v>
       </c>
       <c r="G141">
-        <v>60593.18540023379</v>
+        <v>75381.39856779754</v>
       </c>
       <c r="H141">
-        <v>14594.77621185027</v>
+        <v>266.56</v>
       </c>
       <c r="I141">
-        <v>-604380.7585848059</v>
+        <v>-0</v>
       </c>
       <c r="J141">
-        <v>9428051.986872107</v>
+        <v>9935114.838567797</v>
       </c>
       <c r="K141">
-        <v>9047432.745456913</v>
+        <v>9935114.838567797</v>
       </c>
       <c r="L141">
-        <v>2280.716905296407</v>
+        <v>2480</v>
       </c>
     </row>
     <row r="142" spans="1:12">
@@ -5782,31 +5782,31 @@
         <v>11</v>
       </c>
       <c r="D142">
-        <v>-14056.53135265673</v>
+        <v>0</v>
       </c>
       <c r="E142">
-        <v>193</v>
+        <v>0</v>
       </c>
       <c r="F142">
-        <v>965000</v>
+        <v>0</v>
       </c>
       <c r="G142">
-        <v>61090.00248943027</v>
+        <v>75925.78842196564</v>
       </c>
       <c r="H142">
-        <v>14624.77621185027</v>
+        <v>266.56</v>
       </c>
       <c r="I142">
-        <v>-592109.0680551651</v>
+        <v>-0</v>
       </c>
       <c r="J142">
-        <v>9440299.626869759</v>
+        <v>9935659.228421966</v>
       </c>
       <c r="K142">
-        <v>9067408.694924925</v>
+        <v>9935659.228421966</v>
       </c>
       <c r="L142">
-        <v>2280.716905296407</v>
+        <v>2480</v>
       </c>
     </row>
     <row r="143" spans="1:12">
@@ -5820,31 +5820,31 @@
         <v>11</v>
       </c>
       <c r="D143">
-        <v>-14056.53135265673</v>
+        <v>0</v>
       </c>
       <c r="E143">
-        <v>199</v>
+        <v>0</v>
       </c>
       <c r="F143">
-        <v>995000</v>
+        <v>0</v>
       </c>
       <c r="G143">
-        <v>61585.20132202889</v>
+        <v>76470.20810571479</v>
       </c>
       <c r="H143">
-        <v>14654.77621185027</v>
+        <v>266.56</v>
       </c>
       <c r="I143">
-        <v>-640484.0680551665</v>
+        <v>-0</v>
       </c>
       <c r="J143">
-        <v>9392389.825702356</v>
+        <v>9936203.648105714</v>
       </c>
       <c r="K143">
-        <v>9037873.893757522</v>
+        <v>9936203.648105714</v>
       </c>
       <c r="L143">
-        <v>2277.740516191993</v>
+        <v>2480</v>
       </c>
     </row>
     <row r="144" spans="1:12">
@@ -5858,31 +5858,31 @@
         <v>11</v>
       </c>
       <c r="D144">
-        <v>-14056.53135265673</v>
+        <v>0</v>
       </c>
       <c r="E144">
-        <v>201</v>
+        <v>0</v>
       </c>
       <c r="F144">
-        <v>1005000</v>
+        <v>0</v>
       </c>
       <c r="G144">
-        <v>62079.87769976903</v>
+        <v>77014.65762067949</v>
       </c>
       <c r="H144">
-        <v>14684.77621185027</v>
+        <v>266.56</v>
       </c>
       <c r="I144">
-        <v>-671884.0680551665</v>
+        <v>-0</v>
       </c>
       <c r="J144">
-        <v>9361454.502080096</v>
+        <v>9936748.097620679</v>
       </c>
       <c r="K144">
-        <v>9028338.570135262</v>
+        <v>9936748.097620679</v>
       </c>
       <c r="L144">
-        <v>2276.708272249784</v>
+        <v>2480</v>
       </c>
     </row>
     <row r="145" spans="1:12">
@@ -5896,31 +5896,31 @@
         <v>11</v>
       </c>
       <c r="D145">
-        <v>-15517.03061965415</v>
+        <v>0</v>
       </c>
       <c r="E145">
-        <v>189</v>
+        <v>0</v>
       </c>
       <c r="F145">
-        <v>945000</v>
+        <v>0</v>
       </c>
       <c r="G145">
-        <v>62577.78599296729</v>
+        <v>77559.13696849432</v>
       </c>
       <c r="H145">
-        <v>14736.49621185027</v>
+        <v>266.56</v>
       </c>
       <c r="I145">
-        <v>-575071.5863802312</v>
+        <v>-0</v>
       </c>
       <c r="J145">
-        <v>9457252.672781229</v>
+        <v>9937292.576968493</v>
       </c>
       <c r="K145">
-        <v>9087324.259161461</v>
+        <v>9937292.576968493</v>
       </c>
       <c r="L145">
-        <v>2276.708272249784</v>
+        <v>2480</v>
       </c>
     </row>
     <row r="146" spans="1:12">
@@ -5934,31 +5934,31 @@
         <v>11</v>
       </c>
       <c r="D146">
-        <v>-18091.19606464983</v>
+        <v>0</v>
       </c>
       <c r="E146">
-        <v>169</v>
+        <v>0</v>
       </c>
       <c r="F146">
-        <v>845000</v>
+        <v>0</v>
       </c>
       <c r="G146">
-        <v>63081.05526275998</v>
+        <v>78103.64615079397</v>
       </c>
       <c r="H146">
-        <v>14822.41621185027</v>
+        <v>266.56</v>
       </c>
       <c r="I146">
-        <v>-543792.450255339</v>
+        <v>-0</v>
       </c>
       <c r="J146">
-        <v>9486374.992730919</v>
+        <v>9937837.086150793</v>
       </c>
       <c r="K146">
-        <v>9185167.442986259</v>
+        <v>9937837.086150793</v>
       </c>
       <c r="L146">
-        <v>2276.708272249784</v>
+        <v>2480</v>
       </c>
     </row>
     <row r="147" spans="1:12">
@@ -5972,31 +5972,31 @@
         <v>11</v>
       </c>
       <c r="D147">
-        <v>-20515.94496514595</v>
+        <v>0</v>
       </c>
       <c r="E147">
-        <v>151</v>
+        <v>0</v>
       </c>
       <c r="F147">
-        <v>755000</v>
+        <v>0</v>
       </c>
       <c r="G147">
-        <v>63589.1465275318</v>
+        <v>78648.18516921319</v>
       </c>
       <c r="H147">
-        <v>14899.52821185027</v>
+        <v>266.56</v>
       </c>
       <c r="I147">
-        <v>-508523.7277429361</v>
+        <v>-0</v>
       </c>
       <c r="J147">
-        <v>9519649.945607599</v>
+        <v>9938381.625169212</v>
       </c>
       <c r="K147">
-        <v>9273173.673350535</v>
+        <v>9938381.625169212</v>
       </c>
       <c r="L147">
-        <v>2276.708272249784</v>
+        <v>2480</v>
       </c>
     </row>
     <row r="148" spans="1:12">
@@ -6010,31 +6010,31 @@
         <v>11</v>
       </c>
       <c r="D148">
-        <v>-23844.23522689099</v>
+        <v>0</v>
       </c>
       <c r="E148">
-        <v>128</v>
+        <v>0</v>
       </c>
       <c r="F148">
-        <v>640000</v>
+        <v>0</v>
       </c>
       <c r="G148">
-        <v>64103.37925690653</v>
+        <v>79192.75402538685</v>
       </c>
       <c r="H148">
-        <v>14997.60021185027</v>
+        <v>266.56</v>
       </c>
       <c r="I148">
-        <v>-463066.47119931</v>
+        <v>-0</v>
       </c>
       <c r="J148">
-        <v>9562195.072618857</v>
+        <v>9938926.194025386</v>
       </c>
       <c r="K148">
-        <v>9385261.543818166</v>
+        <v>9938926.194025386</v>
       </c>
       <c r="L148">
-        <v>2276.708272249784</v>
+        <v>2480</v>
       </c>
     </row>
     <row r="149" spans="1:12">
@@ -6048,31 +6048,31 @@
         <v>11</v>
       </c>
       <c r="D149">
-        <v>-27398.65030538539</v>
+        <v>0</v>
       </c>
       <c r="E149">
-        <v>102</v>
+        <v>0</v>
       </c>
       <c r="F149">
-        <v>510000</v>
+        <v>0</v>
       </c>
       <c r="G149">
-        <v>64624.56259108404</v>
+        <v>79737.35272094989</v>
       </c>
       <c r="H149">
-        <v>15108.88021185027</v>
+        <v>266.56</v>
       </c>
       <c r="I149">
-        <v>-348606.0942369502</v>
+        <v>-0</v>
       </c>
       <c r="J149">
-        <v>9673510.937836898</v>
+        <v>9939470.792720949</v>
       </c>
       <c r="K149">
-        <v>9512117.032073848</v>
+        <v>9939470.792720949</v>
       </c>
       <c r="L149">
-        <v>2276.708272249784</v>
+        <v>2480</v>
       </c>
     </row>
     <row r="150" spans="1:12">
@@ -6086,31 +6086,31 @@
         <v>11</v>
       </c>
       <c r="D150">
-        <v>-27398.65030538539</v>
+        <v>0</v>
       </c>
       <c r="E150">
-        <v>161</v>
+        <v>0</v>
       </c>
       <c r="F150">
-        <v>805000</v>
+        <v>0</v>
       </c>
       <c r="G150">
-        <v>65129.59612719768</v>
+        <v>80281.98125753734</v>
       </c>
       <c r="H150">
-        <v>15363.87821185027</v>
+        <v>266.56</v>
       </c>
       <c r="I150">
-        <v>-443981.094236949</v>
+        <v>-0</v>
       </c>
       <c r="J150">
-        <v>9578385.973373013</v>
+        <v>9940015.421257537</v>
       </c>
       <c r="K150">
-        <v>9217367.067609962</v>
+        <v>9940015.421257537</v>
       </c>
       <c r="L150">
-        <v>2234.305861922223</v>
+        <v>2480</v>
       </c>
     </row>
     <row r="151" spans="1:12">
@@ -6124,31 +6124,31 @@
         <v>11</v>
       </c>
       <c r="D151">
-        <v>-29923.23823421874</v>
+        <v>0</v>
       </c>
       <c r="E151">
-        <v>146</v>
+        <v>0</v>
       </c>
       <c r="F151">
-        <v>730000</v>
+        <v>0</v>
       </c>
       <c r="G151">
-        <v>65638.62519567336</v>
+        <v>80826.63963678433</v>
       </c>
       <c r="H151">
-        <v>15425.85821185027</v>
+        <v>266.56</v>
       </c>
       <c r="I151">
-        <v>-614316.3960161152</v>
+        <v>-0</v>
       </c>
       <c r="J151">
-        <v>9405973.132733488</v>
+        <v>9940560.079636784</v>
       </c>
       <c r="K151">
-        <v>9290289.528749604</v>
+        <v>9940560.079636784</v>
       </c>
       <c r="L151">
-        <v>2234.305861922223</v>
+        <v>2480</v>
       </c>
     </row>
     <row r="152" spans="1:12">
@@ -6162,31 +6162,31 @@
         <v>11</v>
       </c>
       <c r="D152">
-        <v>-36450.24926341878</v>
+        <v>0</v>
       </c>
       <c r="E152">
-        <v>110</v>
+        <v>0</v>
       </c>
       <c r="F152">
-        <v>550000</v>
+        <v>0</v>
       </c>
       <c r="G152">
-        <v>66157.17942590461</v>
+        <v>81371.32786032607</v>
       </c>
       <c r="H152">
-        <v>15573.67421185027</v>
+        <v>266.56</v>
       </c>
       <c r="I152">
-        <v>-498591.1202861142</v>
+        <v>-0</v>
       </c>
       <c r="J152">
-        <v>9515542.135664521</v>
+        <v>9941104.767860325</v>
       </c>
       <c r="K152">
-        <v>9464133.255950635</v>
+        <v>9941104.767860325</v>
       </c>
       <c r="L152">
-        <v>2234.305861922223</v>
+        <v>2480</v>
       </c>
     </row>
     <row r="153" spans="1:12">
@@ -6200,31 +6200,31 @@
         <v>11</v>
       </c>
       <c r="D153">
-        <v>-40551.28408762992</v>
+        <v>0</v>
       </c>
       <c r="E153">
-        <v>87</v>
+        <v>0</v>
       </c>
       <c r="F153">
-        <v>435000</v>
+        <v>0</v>
       </c>
       <c r="G153">
-        <v>66681.83354344578</v>
+        <v>81916.04592979787</v>
       </c>
       <c r="H153">
-        <v>15668.25021185027</v>
+        <v>266.56</v>
       </c>
       <c r="I153">
-        <v>-387815.2496808358</v>
+        <v>-0</v>
       </c>
       <c r="J153">
-        <v>9622647.04956313</v>
+        <v>9941649.485929796</v>
       </c>
       <c r="K153">
-        <v>9575462.299243966</v>
+        <v>9941649.485929796</v>
       </c>
       <c r="L153">
-        <v>2234.305861922223</v>
+        <v>2480</v>
       </c>
     </row>
     <row r="154" spans="1:12">
@@ -6235,10 +6235,10 @@
         <v>888</v>
       </c>
       <c r="C154" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D154">
-        <v>-40551.28408762992</v>
+        <v>0</v>
       </c>
       <c r="E154">
         <v>0</v>
@@ -6247,22 +6247,22 @@
         <v>0</v>
       </c>
       <c r="G154">
-        <v>66681.83354344578</v>
+        <v>82460.79384683512</v>
       </c>
       <c r="H154">
-        <v>16022.21943182474</v>
+        <v>266.56</v>
       </c>
       <c r="I154">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="J154">
-        <v>9085068.080343155</v>
+        <v>9942194.233846834</v>
       </c>
       <c r="K154">
-        <v>9575108.330023991</v>
+        <v>9942194.233846834</v>
       </c>
       <c r="L154">
-        <v>2234.305861922223</v>
+        <v>2480</v>
       </c>
     </row>
     <row r="155" spans="1:12">
@@ -6270,37 +6270,37 @@
         <v>153</v>
       </c>
       <c r="B155">
-        <v>888</v>
+        <v>889</v>
       </c>
       <c r="C155" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D155">
-        <v>-40551.28408762992</v>
+        <v>0</v>
       </c>
       <c r="E155">
-        <v>60</v>
+        <v>0</v>
       </c>
       <c r="F155">
-        <v>300000</v>
+        <v>0</v>
       </c>
       <c r="G155">
-        <v>67213.88083385806</v>
+        <v>83005.57161307331</v>
       </c>
       <c r="H155">
-        <v>16267.49943182474</v>
+        <v>266.56</v>
       </c>
       <c r="I155">
-        <v>-52500</v>
+        <v>-0</v>
       </c>
       <c r="J155">
-        <v>9957895.097314404</v>
+        <v>9942739.011613073</v>
       </c>
       <c r="K155">
-        <v>9710395.097314404</v>
+        <v>9942739.011613073</v>
       </c>
       <c r="L155">
-        <v>2044</v>
+        <v>2480</v>
       </c>
     </row>
     <row r="156" spans="1:12">
@@ -6308,37 +6308,37 @@
         <v>154</v>
       </c>
       <c r="B156">
-        <v>889</v>
+        <v>890</v>
       </c>
       <c r="C156" t="s">
         <v>11</v>
       </c>
       <c r="D156">
-        <v>-40740.28408762992</v>
+        <v>0</v>
       </c>
       <c r="E156">
-        <v>57</v>
+        <v>360</v>
       </c>
       <c r="F156">
-        <v>285000</v>
+        <v>1800000</v>
       </c>
       <c r="G156">
-        <v>67746.76719535474</v>
+        <v>83459.34165864115</v>
       </c>
       <c r="H156">
-        <v>16297.49943182474</v>
+        <v>1702.24</v>
       </c>
       <c r="I156">
-        <v>-89775</v>
+        <v>-135000</v>
       </c>
       <c r="J156">
-        <v>9920933.983675901</v>
+        <v>9946757.10165864</v>
       </c>
       <c r="K156">
-        <v>9725708.983675901</v>
+        <v>8281757.10165864</v>
       </c>
       <c r="L156">
-        <v>2044</v>
+        <v>1994</v>
       </c>
     </row>
     <row r="157" spans="1:12">
@@ -6346,37 +6346,37 @@
         <v>155</v>
       </c>
       <c r="B157">
-        <v>890</v>
+        <v>891</v>
       </c>
       <c r="C157" t="s">
         <v>11</v>
       </c>
       <c r="D157">
-        <v>-40805.28408762992</v>
+        <v>0</v>
       </c>
       <c r="E157">
-        <v>56</v>
+        <v>360</v>
       </c>
       <c r="F157">
-        <v>280000</v>
+        <v>1800000</v>
       </c>
       <c r="G157">
-        <v>68279.9515232274</v>
+        <v>83913.13656832108</v>
       </c>
       <c r="H157">
-        <v>16327.49943182474</v>
+        <v>1702.24</v>
       </c>
       <c r="I157">
-        <v>-91000</v>
+        <v>-288000</v>
       </c>
       <c r="J157">
-        <v>9920147.168003773</v>
+        <v>9794210.896568321</v>
       </c>
       <c r="K157">
-        <v>9731147.168003773</v>
+        <v>8282210.896568321</v>
       </c>
       <c r="L157">
-        <v>2044</v>
+        <v>1994</v>
       </c>
     </row>
     <row r="158" spans="1:12">
@@ -6384,37 +6384,37 @@
         <v>156</v>
       </c>
       <c r="B158">
-        <v>891</v>
+        <v>892</v>
       </c>
       <c r="C158" t="s">
         <v>11</v>
       </c>
       <c r="D158">
-        <v>-43757.28408762992</v>
+        <v>0</v>
       </c>
       <c r="E158">
-        <v>20</v>
+        <v>360</v>
       </c>
       <c r="F158">
-        <v>100000</v>
+        <v>1800000</v>
       </c>
       <c r="G158">
-        <v>68822.85858646048</v>
+        <v>84366.9563434755</v>
       </c>
       <c r="H158">
-        <v>16468.76343182474</v>
+        <v>1702.24</v>
       </c>
       <c r="I158">
-        <v>-41000</v>
+        <v>-477000</v>
       </c>
       <c r="J158">
-        <v>9967596.811067006</v>
+        <v>9605664.716343476</v>
       </c>
       <c r="K158">
-        <v>9908596.811067006</v>
+        <v>8282664.716343476</v>
       </c>
       <c r="L158">
-        <v>2044</v>
+        <v>1994</v>
       </c>
     </row>
     <row r="159" spans="1:12">
@@ -6422,37 +6422,37 @@
         <v>157</v>
       </c>
       <c r="B159">
-        <v>892</v>
+        <v>893</v>
       </c>
       <c r="C159" t="s">
         <v>11</v>
       </c>
       <c r="D159">
-        <v>-45817.28408762992</v>
+        <v>0</v>
       </c>
       <c r="E159">
-        <v>-1968</v>
+        <v>360</v>
       </c>
       <c r="F159">
-        <v>9840000</v>
+        <v>1800000</v>
       </c>
       <c r="G159">
-        <v>68831.5610190669</v>
+        <v>84820.80098546692</v>
       </c>
       <c r="H159">
-        <v>24186.17943182474</v>
+        <v>1702.24</v>
       </c>
       <c r="I159">
-        <v>-1476000</v>
+        <v>-585000</v>
       </c>
       <c r="J159">
-        <v>8522828.097499613</v>
+        <v>9498118.560985466</v>
       </c>
       <c r="K159">
-        <v>158828.0974996127</v>
+        <v>8283118.560985466</v>
       </c>
       <c r="L159">
-        <v>1941</v>
+        <v>1994</v>
       </c>
     </row>
     <row r="160" spans="1:12">
@@ -6460,37 +6460,37 @@
         <v>158</v>
       </c>
       <c r="B160">
-        <v>893</v>
+        <v>894</v>
       </c>
       <c r="C160" t="s">
         <v>11</v>
       </c>
       <c r="D160">
-        <v>-93049.28408762992</v>
+        <v>0</v>
       </c>
       <c r="E160">
-        <v>0</v>
+        <v>360</v>
       </c>
       <c r="F160">
-        <v>0</v>
+        <v>1800000</v>
       </c>
       <c r="G160">
-        <v>69376.43016194359</v>
+        <v>85274.67049565791</v>
       </c>
       <c r="H160">
-        <v>31920.41943182474</v>
+        <v>1702.24</v>
       </c>
       <c r="I160">
-        <v>0</v>
+        <v>-981000</v>
       </c>
       <c r="J160">
-        <v>9944406.726642489</v>
+        <v>9102572.430495657</v>
       </c>
       <c r="K160">
-        <v>9944406.726642489</v>
+        <v>8283572.430495657</v>
       </c>
       <c r="L160">
-        <v>1965</v>
+        <v>1994</v>
       </c>
     </row>
     <row r="161" spans="1:12">
@@ -6498,37 +6498,37 @@
         <v>159</v>
       </c>
       <c r="B161">
-        <v>894</v>
+        <v>895</v>
       </c>
       <c r="C161" t="s">
         <v>11</v>
       </c>
       <c r="D161">
-        <v>-93049.28408762992</v>
+        <v>0</v>
       </c>
       <c r="E161">
-        <v>-25</v>
+        <v>360</v>
       </c>
       <c r="F161">
-        <v>125000</v>
+        <v>1800000</v>
       </c>
       <c r="G161">
-        <v>69914.47468121166</v>
+        <v>85728.56487541109</v>
       </c>
       <c r="H161">
-        <v>32014.66943182474</v>
+        <v>1702.24</v>
       </c>
       <c r="I161">
-        <v>-34375</v>
+        <v>-1296000</v>
       </c>
       <c r="J161">
-        <v>9910475.521161757</v>
+        <v>8788026.324875411</v>
       </c>
       <c r="K161">
-        <v>9819850.521161757</v>
+        <v>8284026.324875411</v>
       </c>
       <c r="L161">
-        <v>1885</v>
+        <v>1994</v>
       </c>
     </row>
     <row r="162" spans="1:12">
@@ -6536,37 +6536,37 @@
         <v>160</v>
       </c>
       <c r="B162">
-        <v>895</v>
+        <v>896</v>
       </c>
       <c r="C162" t="s">
         <v>11</v>
       </c>
       <c r="D162">
-        <v>-93049.28408762992</v>
+        <v>0</v>
       </c>
       <c r="E162">
-        <v>-44</v>
+        <v>360</v>
       </c>
       <c r="F162">
-        <v>220000</v>
+        <v>1800000</v>
       </c>
       <c r="G162">
-        <v>70447.33935086436</v>
+        <v>86182.4841260892</v>
       </c>
       <c r="H162">
-        <v>32084.96943182474</v>
+        <v>1702.24</v>
       </c>
       <c r="I162">
-        <v>-78224.99999999988</v>
+        <v>-1026000</v>
       </c>
       <c r="J162">
-        <v>9867088.085831409</v>
+        <v>9058480.244126089</v>
       </c>
       <c r="K162">
-        <v>9725313.085831409</v>
+        <v>8284480.244126089</v>
       </c>
       <c r="L162">
-        <v>1869.886363636364</v>
+        <v>1994</v>
       </c>
     </row>
     <row r="163" spans="1:12">
@@ -6574,37 +6574,37 @@
         <v>161</v>
       </c>
       <c r="B163">
-        <v>896</v>
+        <v>897</v>
       </c>
       <c r="C163" t="s">
         <v>11</v>
       </c>
       <c r="D163">
-        <v>-93752.76136035718</v>
+        <v>0</v>
       </c>
       <c r="E163">
-        <v>-31</v>
+        <v>360</v>
       </c>
       <c r="F163">
-        <v>155000</v>
+        <v>1800000</v>
       </c>
       <c r="G163">
-        <v>70983.75357467579</v>
+        <v>86636.42824905501</v>
       </c>
       <c r="H163">
-        <v>32134.99343182474</v>
+        <v>1702.24</v>
       </c>
       <c r="I163">
-        <v>-41938.0681818181</v>
+        <v>-1125000</v>
       </c>
       <c r="J163">
-        <v>9903157.930600675</v>
+        <v>8959934.188249055</v>
       </c>
       <c r="K163">
-        <v>9790095.998782493</v>
+        <v>8284934.188249055</v>
       </c>
       <c r="L163">
-        <v>1869.886363636364</v>
+        <v>1994</v>
       </c>
     </row>
     <row r="164" spans="1:12">
@@ -6612,37 +6612,37 @@
         <v>162</v>
       </c>
       <c r="B164">
-        <v>897</v>
+        <v>898</v>
       </c>
       <c r="C164" t="s">
         <v>11</v>
       </c>
       <c r="D164">
-        <v>-93752.76136035718</v>
+        <v>0</v>
       </c>
       <c r="E164">
-        <v>-51</v>
+        <v>360</v>
       </c>
       <c r="F164">
-        <v>255000</v>
+        <v>1800000</v>
       </c>
       <c r="G164">
-        <v>71514.71364255428</v>
+        <v>87090.3972456714</v>
       </c>
       <c r="H164">
-        <v>32209.75343182474</v>
+        <v>1702.24</v>
       </c>
       <c r="I164">
-        <v>-100038.0681818179</v>
+        <v>-1197000</v>
       </c>
       <c r="J164">
-        <v>9845514.130668554</v>
+        <v>8888388.157245671</v>
       </c>
       <c r="K164">
-        <v>9690552.198850373</v>
+        <v>8285388.157245671</v>
       </c>
       <c r="L164">
-        <v>1869.538770053476</v>
+        <v>1994</v>
       </c>
     </row>
     <row r="165" spans="1:12">
@@ -6650,37 +6650,37 @@
         <v>163</v>
       </c>
       <c r="B165">
-        <v>898</v>
+        <v>899</v>
       </c>
       <c r="C165" t="s">
         <v>11</v>
       </c>
       <c r="D165">
-        <v>-93752.76136035718</v>
+        <v>0</v>
       </c>
       <c r="E165">
-        <v>-67</v>
+        <v>360</v>
       </c>
       <c r="F165">
-        <v>335000</v>
+        <v>1800000</v>
       </c>
       <c r="G165">
-        <v>72041.31597936801</v>
+        <v>87544.39111730129</v>
       </c>
       <c r="H165">
-        <v>32269.30543182474</v>
+        <v>1702.24</v>
       </c>
       <c r="I165">
-        <v>-49413.06818181797</v>
+        <v>-1548000</v>
       </c>
       <c r="J165">
-        <v>9896606.181005368</v>
+        <v>8537842.151117301</v>
       </c>
       <c r="K165">
-        <v>9611019.249187186</v>
+        <v>8285842.151117301</v>
       </c>
       <c r="L165">
-        <v>1867.499660786974</v>
+        <v>1994</v>
       </c>
     </row>
     <row r="166" spans="1:12">
@@ -6688,37 +6688,37 @@
         <v>164</v>
       </c>
       <c r="B166">
-        <v>899</v>
+        <v>900</v>
       </c>
       <c r="C166" t="s">
         <v>11</v>
       </c>
       <c r="D166">
-        <v>-93752.76136035718</v>
+        <v>0</v>
       </c>
       <c r="E166">
-        <v>-73</v>
+        <v>360</v>
       </c>
       <c r="F166">
-        <v>365000</v>
+        <v>1800000</v>
       </c>
       <c r="G166">
-        <v>72566.30169165223</v>
+        <v>87998.40986530772</v>
       </c>
       <c r="H166">
-        <v>32299.30543182474</v>
+        <v>1702.24</v>
       </c>
       <c r="I166">
-        <v>-29638.06818181758</v>
+        <v>-1656000</v>
       </c>
       <c r="J166">
-        <v>9916876.166717652</v>
+        <v>8430296.169865308</v>
       </c>
       <c r="K166">
-        <v>9581514.234899471</v>
+        <v>8286296.169865308</v>
       </c>
       <c r="L166">
-        <v>1863.7599626401</v>
+        <v>1994</v>
       </c>
     </row>
     <row r="167" spans="1:12">
@@ -6726,37 +6726,37 @@
         <v>165</v>
       </c>
       <c r="B167">
-        <v>900</v>
+        <v>901</v>
       </c>
       <c r="C167" t="s">
         <v>11</v>
       </c>
       <c r="D167">
-        <v>-93752.76136035718</v>
+        <v>0</v>
       </c>
       <c r="E167">
-        <v>-78</v>
+        <v>360</v>
       </c>
       <c r="F167">
-        <v>390000</v>
+        <v>1800000</v>
       </c>
       <c r="G167">
-        <v>73089.94466342755</v>
+        <v>88452.45349105376</v>
       </c>
       <c r="H167">
-        <v>32329.30543182474</v>
+        <v>1702.24</v>
       </c>
       <c r="I167">
-        <v>2561.931818182507</v>
+        <v>-1413000</v>
       </c>
       <c r="J167">
-        <v>9949569.809689429</v>
+        <v>8673750.213491054</v>
       </c>
       <c r="K167">
-        <v>9557007.877871247</v>
+        <v>8286750.213491054</v>
       </c>
       <c r="L167">
-        <v>1860.313811188812</v>
+        <v>1994</v>
       </c>
     </row>
     <row r="168" spans="1:12">
@@ -6764,37 +6764,37 @@
         <v>166</v>
       </c>
       <c r="B168">
-        <v>901</v>
+        <v>902</v>
       </c>
       <c r="C168" t="s">
         <v>11</v>
       </c>
       <c r="D168">
-        <v>-93752.76136035718</v>
+        <v>0</v>
       </c>
       <c r="E168">
-        <v>-82</v>
+        <v>360</v>
       </c>
       <c r="F168">
-        <v>410000</v>
+        <v>1800000</v>
       </c>
       <c r="G168">
-        <v>73612.51879372187</v>
+        <v>88906.52199590259</v>
       </c>
       <c r="H168">
-        <v>32359.30543182474</v>
+        <v>1702.24</v>
       </c>
       <c r="I168">
-        <v>-46788.06818181781</v>
+        <v>-1197000</v>
       </c>
       <c r="J168">
-        <v>9900712.383819724</v>
+        <v>8890204.281995902</v>
       </c>
       <c r="K168">
-        <v>9537500.452001542</v>
+        <v>8287204.281995902</v>
       </c>
       <c r="L168">
-        <v>1859.17655210643</v>
+        <v>1994</v>
       </c>
     </row>
     <row r="169" spans="1:12">
@@ -6802,37 +6802,37 @@
         <v>167</v>
       </c>
       <c r="B169">
-        <v>902</v>
+        <v>903</v>
       </c>
       <c r="C169" t="s">
         <v>11</v>
       </c>
       <c r="D169">
-        <v>-93752.76136035718</v>
+        <v>0</v>
       </c>
       <c r="E169">
-        <v>-85</v>
+        <v>360</v>
       </c>
       <c r="F169">
-        <v>425000</v>
+        <v>1800000</v>
       </c>
       <c r="G169">
-        <v>74134.29799657127</v>
+        <v>89360.61538121743</v>
       </c>
       <c r="H169">
-        <v>32389.30543182474</v>
+        <v>1702.24</v>
       </c>
       <c r="I169">
-        <v>-148238.0681818177</v>
+        <v>-927000</v>
       </c>
       <c r="J169">
-        <v>9799754.163022572</v>
+        <v>9160658.375381216</v>
       </c>
       <c r="K169">
-        <v>9522992.231204391</v>
+        <v>8287658.375381216</v>
       </c>
       <c r="L169">
-        <v>1859.240909090909</v>
+        <v>1994</v>
       </c>
     </row>
     <row r="170" spans="1:12">
@@ -6840,37 +6840,37 @@
         <v>168</v>
       </c>
       <c r="B170">
-        <v>903</v>
+        <v>904</v>
       </c>
       <c r="C170" t="s">
         <v>11</v>
       </c>
       <c r="D170">
-        <v>-93752.76136035718</v>
+        <v>0</v>
       </c>
       <c r="E170">
-        <v>-89</v>
+        <v>360</v>
       </c>
       <c r="F170">
-        <v>445000</v>
+        <v>1800000</v>
       </c>
       <c r="G170">
-        <v>74655.00825581535</v>
+        <v>89814.73364836161</v>
       </c>
       <c r="H170">
-        <v>32419.30543182474</v>
+        <v>1702.24</v>
       </c>
       <c r="I170">
-        <v>-169838.0681818175</v>
+        <v>-639000</v>
       </c>
       <c r="J170">
-        <v>9778644.873281816</v>
+        <v>9449112.493648361</v>
       </c>
       <c r="K170">
-        <v>9503482.941463634</v>
+        <v>8288112.493648361</v>
       </c>
       <c r="L170">
-        <v>1860.668283963228</v>
+        <v>1994</v>
       </c>
     </row>
     <row r="171" spans="1:12">
@@ -6878,37 +6878,37 @@
         <v>169</v>
       </c>
       <c r="B171">
-        <v>904</v>
+        <v>905</v>
       </c>
       <c r="C171" t="s">
         <v>11</v>
       </c>
       <c r="D171">
-        <v>-93752.76136035718</v>
+        <v>0</v>
       </c>
       <c r="E171">
-        <v>-90</v>
+        <v>360</v>
       </c>
       <c r="F171">
-        <v>450000</v>
+        <v>1800000</v>
       </c>
       <c r="G171">
-        <v>75175.47143069007</v>
+        <v>90268.8767986985</v>
       </c>
       <c r="H171">
-        <v>32449.30543182474</v>
+        <v>1702.24</v>
       </c>
       <c r="I171">
-        <v>-230938.0681818178</v>
+        <v>-828000</v>
       </c>
       <c r="J171">
-        <v>9718035.336456692</v>
+        <v>9260566.636798698</v>
       </c>
       <c r="K171">
-        <v>9498973.40463851</v>
+        <v>8288566.636798698</v>
       </c>
       <c r="L171">
-        <v>1861.360858585859</v>
+        <v>1994</v>
       </c>
     </row>
     <row r="172" spans="1:12">
@@ -6916,37 +6916,37 @@
         <v>170</v>
       </c>
       <c r="B172">
-        <v>905</v>
+        <v>906</v>
       </c>
       <c r="C172" t="s">
         <v>11</v>
       </c>
       <c r="D172">
-        <v>-93752.76136035718</v>
+        <v>0</v>
       </c>
       <c r="E172">
-        <v>-91</v>
+        <v>360</v>
       </c>
       <c r="F172">
-        <v>455000</v>
+        <v>1800000</v>
       </c>
       <c r="G172">
-        <v>75695.68750765656</v>
+        <v>90723.04483359159</v>
       </c>
       <c r="H172">
-        <v>32479.30543182474</v>
+        <v>1702.24</v>
       </c>
       <c r="I172">
-        <v>-182438.0681818177</v>
+        <v>-909000</v>
       </c>
       <c r="J172">
-        <v>9767025.552533658</v>
+        <v>9180020.804833591</v>
       </c>
       <c r="K172">
-        <v>9494463.620715477</v>
+        <v>8289020.804833591</v>
       </c>
       <c r="L172">
-        <v>1861.807442557443</v>
+        <v>1994</v>
       </c>
     </row>
     <row r="173" spans="1:12">
@@ -6954,37 +6954,37 @@
         <v>171</v>
       </c>
       <c r="B173">
-        <v>906</v>
+        <v>907</v>
       </c>
       <c r="C173" t="s">
         <v>11</v>
       </c>
       <c r="D173">
-        <v>-93752.76136035718</v>
+        <v>0</v>
       </c>
       <c r="E173">
-        <v>-94</v>
+        <v>360</v>
       </c>
       <c r="F173">
-        <v>470000</v>
+        <v>1800000</v>
       </c>
       <c r="G173">
-        <v>76215.10852796974</v>
+        <v>91177.23775440438</v>
       </c>
       <c r="H173">
-        <v>32509.30543182474</v>
+        <v>1702.24</v>
       </c>
       <c r="I173">
-        <v>-160263.0681818177</v>
+        <v>-819000</v>
       </c>
       <c r="J173">
-        <v>9789689.97355397</v>
+        <v>9270474.997754404</v>
       </c>
       <c r="K173">
-        <v>9479953.041735789</v>
+        <v>8289474.997754404</v>
       </c>
       <c r="L173">
-        <v>1862.802949709865</v>
+        <v>1994</v>
       </c>
     </row>
     <row r="174" spans="1:12">
@@ -6992,37 +6992,37 @@
         <v>172</v>
       </c>
       <c r="B174">
-        <v>907</v>
+        <v>908</v>
       </c>
       <c r="C174" t="s">
         <v>11</v>
       </c>
       <c r="D174">
-        <v>-93965.15546093746</v>
+        <v>0</v>
       </c>
       <c r="E174">
-        <v>-92</v>
+        <v>360</v>
       </c>
       <c r="F174">
-        <v>460000</v>
+        <v>1800000</v>
       </c>
       <c r="G174">
-        <v>76735.09267304564</v>
+        <v>91631.45556250052</v>
       </c>
       <c r="H174">
-        <v>32539.30543182474</v>
+        <v>1702.24</v>
       </c>
       <c r="I174">
-        <v>-244253.2156673109</v>
+        <v>-423000</v>
       </c>
       <c r="J174">
-        <v>9705977.416112974</v>
+        <v>9666929.2155625</v>
       </c>
       <c r="K174">
-        <v>9490230.631780285</v>
+        <v>8289929.2155625</v>
       </c>
       <c r="L174">
-        <v>1862.802949709865</v>
+        <v>1994</v>
       </c>
     </row>
     <row r="175" spans="1:12">
@@ -7030,37 +7030,37 @@
         <v>173</v>
       </c>
       <c r="B175">
-        <v>908</v>
+        <v>909</v>
       </c>
       <c r="C175" t="s">
         <v>11</v>
       </c>
       <c r="D175">
-        <v>-93965.15546093746</v>
+        <v>0</v>
       </c>
       <c r="E175">
-        <v>-94</v>
+        <v>360</v>
       </c>
       <c r="F175">
-        <v>470000</v>
+        <v>1800000</v>
       </c>
       <c r="G175">
-        <v>77254.55572136237</v>
+        <v>92085.69825924367</v>
       </c>
       <c r="H175">
-        <v>32569.30543182474</v>
+        <v>1702.24</v>
       </c>
       <c r="I175">
-        <v>-280603.2156673105</v>
+        <v>-63000</v>
       </c>
       <c r="J175">
-        <v>9670116.879161291</v>
+        <v>10027383.45825924</v>
       </c>
       <c r="K175">
-        <v>9480720.094828602</v>
+        <v>8290383.458259244</v>
       </c>
       <c r="L175">
-        <v>1864.594376311783</v>
+        <v>1994</v>
       </c>
     </row>
     <row r="176" spans="1:12">
@@ -7068,37 +7068,37 @@
         <v>174</v>
       </c>
       <c r="B176">
-        <v>909</v>
+        <v>910</v>
       </c>
       <c r="C176" t="s">
         <v>11</v>
       </c>
       <c r="D176">
-        <v>-94275.96670831389</v>
+        <v>0</v>
       </c>
       <c r="E176">
-        <v>-92</v>
+        <v>360</v>
       </c>
       <c r="F176">
-        <v>460000</v>
+        <v>1800000</v>
       </c>
       <c r="G176">
-        <v>77774.57650402436</v>
+        <v>92539.96584599761</v>
       </c>
       <c r="H176">
-        <v>32599.30543182474</v>
+        <v>1702.24</v>
       </c>
       <c r="I176">
-        <v>-357432.9344828997</v>
+        <v>-45000</v>
       </c>
       <c r="J176">
-        <v>9593466.369880985</v>
+        <v>10045837.725846</v>
       </c>
       <c r="K176">
-        <v>9490899.304363886</v>
+        <v>8290837.725845998</v>
       </c>
       <c r="L176">
-        <v>1864.594376311783</v>
+        <v>1994</v>
       </c>
     </row>
     <row r="177" spans="1:12">
@@ -7106,37 +7106,37 @@
         <v>175</v>
       </c>
       <c r="B177">
-        <v>910</v>
+        <v>911</v>
       </c>
       <c r="C177" t="s">
         <v>11</v>
       </c>
       <c r="D177">
-        <v>-94793.18357937854</v>
+        <v>0</v>
       </c>
       <c r="E177">
-        <v>-89</v>
+        <v>360</v>
       </c>
       <c r="F177">
-        <v>445000</v>
+        <v>1800000</v>
       </c>
       <c r="G177">
-        <v>78295.41771429793</v>
+        <v>92994.25832412616</v>
       </c>
       <c r="H177">
-        <v>32629.30543182474</v>
+        <v>1702.24</v>
       </c>
       <c r="I177">
-        <v>-383602.5127062834</v>
+        <v>252000</v>
       </c>
       <c r="J177">
-        <v>9567270.415996812</v>
+        <v>10343292.01832413</v>
       </c>
       <c r="K177">
-        <v>9505872.928703096</v>
+        <v>8291292.018324126</v>
       </c>
       <c r="L177">
-        <v>1864.594376311783</v>
+        <v>1994</v>
       </c>
     </row>
     <row r="178" spans="1:12">
@@ -7144,37 +7144,37 @@
         <v>176</v>
       </c>
       <c r="B178">
-        <v>911</v>
+        <v>912</v>
       </c>
       <c r="C178" t="s">
         <v>11</v>
       </c>
       <c r="D178">
-        <v>-96372.42856888428</v>
+        <v>0</v>
       </c>
       <c r="E178">
-        <v>-81</v>
+        <v>360</v>
       </c>
       <c r="F178">
-        <v>405000</v>
+        <v>1800000</v>
       </c>
       <c r="G178">
-        <v>78818.39090288497</v>
+        <v>93448.57569499324</v>
       </c>
       <c r="H178">
-        <v>32662.29743182474</v>
+        <v>1702.24</v>
       </c>
       <c r="I178">
-        <v>-399746.3879686399</v>
+        <v>-72000</v>
       </c>
       <c r="J178">
-        <v>9550037.276933534</v>
+        <v>10019746.33569499</v>
       </c>
       <c r="K178">
-        <v>9544783.664902175</v>
+        <v>8291746.335694993</v>
       </c>
       <c r="L178">
-        <v>1864.594376311783</v>
+        <v>1994</v>
       </c>
     </row>
     <row r="179" spans="1:12">
@@ -7182,37 +7182,37 @@
         <v>177</v>
       </c>
       <c r="B179">
-        <v>912</v>
+        <v>913</v>
       </c>
       <c r="C179" t="s">
         <v>11</v>
       </c>
       <c r="D179">
-        <v>-96522.8341925725</v>
+        <v>0</v>
       </c>
       <c r="E179">
-        <v>-80</v>
+        <v>360</v>
       </c>
       <c r="F179">
-        <v>400000</v>
+        <v>1800000</v>
       </c>
       <c r="G179">
-        <v>79341.65683490023</v>
+        <v>93902.91795996283</v>
       </c>
       <c r="H179">
-        <v>32692.29743182474</v>
+        <v>1702.24</v>
       </c>
       <c r="I179">
-        <v>-300811.2473764345</v>
+        <v>-387000</v>
       </c>
       <c r="J179">
-        <v>9649315.277834069</v>
+        <v>9705200.677959962</v>
       </c>
       <c r="K179">
-        <v>9550126.525210503</v>
+        <v>8292200.677959962</v>
       </c>
       <c r="L179">
-        <v>1864.594376311783</v>
+        <v>1994</v>
       </c>
     </row>
     <row r="180" spans="1:12">
@@ -7220,37 +7220,37 @@
         <v>178</v>
       </c>
       <c r="B180">
-        <v>913</v>
+        <v>914</v>
       </c>
       <c r="C180" t="s">
         <v>11</v>
       </c>
       <c r="D180">
-        <v>-96976.45668732536</v>
+        <v>0</v>
       </c>
       <c r="E180">
-        <v>-76</v>
+        <v>360</v>
       </c>
       <c r="F180">
-        <v>380000</v>
+        <v>1800000</v>
       </c>
       <c r="G180">
-        <v>79866.02082956959</v>
+        <v>94357.28512039898</v>
       </c>
       <c r="H180">
-        <v>32722.29743182474</v>
+        <v>1702.24</v>
       </c>
       <c r="I180">
-        <v>-215470.6850076128</v>
+        <v>-108000</v>
       </c>
       <c r="J180">
-        <v>9734696.581702806</v>
+        <v>9984655.045120399</v>
       </c>
       <c r="K180">
-        <v>9570167.266710419</v>
+        <v>8292655.045120399</v>
       </c>
       <c r="L180">
-        <v>1864.594376311783</v>
+        <v>1994</v>
       </c>
     </row>
     <row r="181" spans="1:12">
@@ -7258,37 +7258,37 @@
         <v>179</v>
       </c>
       <c r="B181">
-        <v>914</v>
+        <v>915</v>
       </c>
       <c r="C181" t="s">
         <v>11</v>
       </c>
       <c r="D181">
-        <v>-97125.86231101358</v>
+        <v>0</v>
       </c>
       <c r="E181">
-        <v>-75</v>
+        <v>360</v>
       </c>
       <c r="F181">
-        <v>375000</v>
+        <v>1800000</v>
       </c>
       <c r="G181">
-        <v>80390.67769867023</v>
+        <v>94811.67717766586</v>
       </c>
       <c r="H181">
-        <v>32752.29743182474</v>
+        <v>1702.24</v>
       </c>
       <c r="I181">
-        <v>-280135.5444154073</v>
+        <v>108000</v>
       </c>
       <c r="J181">
-        <v>9670376.973540425</v>
+        <v>10201109.43717767</v>
       </c>
       <c r="K181">
-        <v>9575512.517955832</v>
+        <v>8293109.437177666</v>
       </c>
       <c r="L181">
-        <v>1864.594376311783</v>
+        <v>1994</v>
       </c>
     </row>
     <row r="182" spans="1:12">
@@ -7296,37 +7296,37 @@
         <v>180</v>
       </c>
       <c r="B182">
-        <v>915</v>
+        <v>916</v>
       </c>
       <c r="C182" t="s">
         <v>11</v>
       </c>
       <c r="D182">
-        <v>-97835.48480576645</v>
+        <v>0</v>
       </c>
       <c r="E182">
-        <v>-71</v>
+        <v>360</v>
       </c>
       <c r="F182">
-        <v>355000</v>
+        <v>1800000</v>
       </c>
       <c r="G182">
-        <v>80916.41867924345</v>
+        <v>95266.09413312764</v>
       </c>
       <c r="H182">
-        <v>32782.29743182474</v>
+        <v>1702.24</v>
       </c>
       <c r="I182">
-        <v>-314894.9820465856</v>
+        <v>504000</v>
       </c>
       <c r="J182">
-        <v>9635403.654395066</v>
+        <v>10597563.85413313</v>
       </c>
       <c r="K182">
-        <v>9595298.636441652</v>
+        <v>8293563.854133127</v>
       </c>
       <c r="L182">
-        <v>1864.594376311783</v>
+        <v>1994</v>
       </c>
     </row>
     <row r="183" spans="1:12">
@@ -7334,37 +7334,37 @@
         <v>181</v>
       </c>
       <c r="B183">
-        <v>916</v>
+        <v>917</v>
       </c>
       <c r="C183" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D183">
-        <v>-97835.48480576645</v>
+        <v>0</v>
       </c>
       <c r="E183">
-        <v>0</v>
+        <v>360</v>
       </c>
       <c r="F183">
-        <v>0</v>
+        <v>1800000</v>
       </c>
       <c r="G183">
-        <v>80916.41867924345</v>
+        <v>95720.53598814864</v>
       </c>
       <c r="H183">
-        <v>33075.46983326101</v>
+        <v>1702.24</v>
       </c>
       <c r="I183">
-        <v>0</v>
+        <v>576000</v>
       </c>
       <c r="J183">
-        <v>9196685.481993631</v>
+        <v>10670018.29598815</v>
       </c>
       <c r="K183">
-        <v>9595005.464040216</v>
+        <v>8294018.295988148</v>
       </c>
       <c r="L183">
-        <v>1864.594376311783</v>
+        <v>1994</v>
       </c>
     </row>
     <row r="184" spans="1:12">
@@ -7372,37 +7372,37 @@
         <v>182</v>
       </c>
       <c r="B184">
-        <v>916</v>
+        <v>918</v>
       </c>
       <c r="C184" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D184">
-        <v>-97835.48480576645</v>
+        <v>0</v>
       </c>
       <c r="E184">
-        <v>-28</v>
+        <v>360</v>
       </c>
       <c r="F184">
-        <v>140000</v>
+        <v>1800000</v>
       </c>
       <c r="G184">
-        <v>81453.94693480729</v>
+        <v>96175.00274409319</v>
       </c>
       <c r="H184">
-        <v>33190.26983326101</v>
+        <v>1702.24</v>
       </c>
       <c r="I184">
-        <v>-27300</v>
+        <v>450000</v>
       </c>
       <c r="J184">
-        <v>9923128.19229578</v>
+        <v>10544472.76274409</v>
       </c>
       <c r="K184">
-        <v>9810428.19229578</v>
+        <v>8294472.762744093</v>
       </c>
       <c r="L184">
-        <v>2050</v>
+        <v>1994</v>
       </c>
     </row>
     <row r="185" spans="1:12">
@@ -7410,37 +7410,37 @@
         <v>183</v>
       </c>
       <c r="B185">
-        <v>917</v>
+        <v>919</v>
       </c>
       <c r="C185" t="s">
         <v>11</v>
       </c>
       <c r="D185">
-        <v>-98759.48480576645</v>
+        <v>0</v>
       </c>
       <c r="E185">
-        <v>11</v>
+        <v>360</v>
       </c>
       <c r="F185">
-        <v>55000</v>
+        <v>1800000</v>
       </c>
       <c r="G185">
-        <v>81996.10264539885</v>
+        <v>96629.49440232574</v>
       </c>
       <c r="H185">
-        <v>33352.74383326101</v>
+        <v>1702.24</v>
       </c>
       <c r="I185">
-        <v>-6875</v>
+        <v>819000</v>
       </c>
       <c r="J185">
-        <v>9943008.874006372</v>
+        <v>10913927.25440233</v>
       </c>
       <c r="K185">
-        <v>9894883.874006372</v>
+        <v>8294927.254402326</v>
       </c>
       <c r="L185">
-        <v>2083</v>
+        <v>1994</v>
       </c>
     </row>
     <row r="186" spans="1:12">
@@ -7448,37 +7448,37 @@
         <v>184</v>
       </c>
       <c r="B186">
-        <v>918</v>
+        <v>920</v>
       </c>
       <c r="C186" t="s">
         <v>11</v>
       </c>
       <c r="D186">
-        <v>-98759.48480576645</v>
+        <v>0</v>
       </c>
       <c r="E186">
-        <v>47</v>
+        <v>360</v>
       </c>
       <c r="F186">
-        <v>235000</v>
+        <v>1800000</v>
       </c>
       <c r="G186">
-        <v>82528.416851317</v>
+        <v>97084.0109642108</v>
       </c>
       <c r="H186">
-        <v>33502.35983326101</v>
+        <v>1702.24</v>
       </c>
       <c r="I186">
-        <v>-41324.99999999986</v>
+        <v>684000</v>
       </c>
       <c r="J186">
-        <v>9908941.57221229</v>
+        <v>10779381.77096421</v>
       </c>
       <c r="K186">
-        <v>9715266.57221229</v>
+        <v>8295381.770964211</v>
       </c>
       <c r="L186">
-        <v>2079.170212765957</v>
+        <v>1994</v>
       </c>
     </row>
     <row r="187" spans="1:12">
@@ -7486,37 +7486,37 @@
         <v>185</v>
       </c>
       <c r="B187">
-        <v>919</v>
+        <v>921</v>
       </c>
       <c r="C187" t="s">
         <v>11</v>
       </c>
       <c r="D187">
-        <v>-98759.48480576645</v>
+        <v>0</v>
       </c>
       <c r="E187">
-        <v>80</v>
+        <v>360</v>
       </c>
       <c r="F187">
-        <v>400000</v>
+        <v>1800000</v>
       </c>
       <c r="G187">
-        <v>83051.71153110945</v>
+        <v>97538.55243111296</v>
       </c>
       <c r="H187">
-        <v>33641.02583326101</v>
+        <v>1702.24</v>
       </c>
       <c r="I187">
-        <v>-6350.000000000364</v>
+        <v>207000</v>
       </c>
       <c r="J187">
-        <v>9944301.200892083</v>
+        <v>10302836.31243111</v>
       </c>
       <c r="K187">
-        <v>9550651.200892083</v>
+        <v>8295836.312431112</v>
       </c>
       <c r="L187">
-        <v>2088.175</v>
+        <v>1994</v>
       </c>
     </row>
     <row r="188" spans="1:12">
@@ -7524,37 +7524,37 @@
         <v>186</v>
       </c>
       <c r="B188">
-        <v>920</v>
+        <v>922</v>
       </c>
       <c r="C188" t="s">
         <v>11</v>
       </c>
       <c r="D188">
-        <v>-98759.48480576645</v>
+        <v>0</v>
       </c>
       <c r="E188">
-        <v>105</v>
+        <v>360</v>
       </c>
       <c r="F188">
-        <v>525000</v>
+        <v>1800000</v>
       </c>
       <c r="G188">
-        <v>83568.17981335011</v>
+        <v>97993.11880439686</v>
       </c>
       <c r="H188">
-        <v>33746.07583326101</v>
+        <v>1702.24</v>
       </c>
       <c r="I188">
-        <v>-55724.99999999962</v>
+        <v>342000</v>
       </c>
       <c r="J188">
-        <v>9895337.619174322</v>
+        <v>10438290.8788044</v>
       </c>
       <c r="K188">
-        <v>9426062.619174322</v>
+        <v>8296290.878804397</v>
       </c>
       <c r="L188">
-        <v>2091.228571428571</v>
+        <v>1994</v>
       </c>
     </row>
     <row r="189" spans="1:12">
@@ -7562,37 +7562,37 @@
         <v>187</v>
       </c>
       <c r="B189">
-        <v>921</v>
+        <v>923</v>
       </c>
       <c r="C189" t="s">
         <v>11</v>
       </c>
       <c r="D189">
-        <v>-98759.48480576645</v>
+        <v>0</v>
       </c>
       <c r="E189">
-        <v>126</v>
+        <v>360</v>
       </c>
       <c r="F189">
-        <v>630000</v>
+        <v>1800000</v>
       </c>
       <c r="G189">
-        <v>84078.91816070213</v>
+        <v>98447.71008542723</v>
       </c>
       <c r="H189">
-        <v>33833.85583326101</v>
+        <v>1702.24</v>
       </c>
       <c r="I189">
-        <v>-233175.0000000003</v>
+        <v>558000</v>
       </c>
       <c r="J189">
-        <v>9718310.577521676</v>
+        <v>10654745.47008543</v>
       </c>
       <c r="K189">
-        <v>9321485.577521676</v>
+        <v>8296745.470085427</v>
       </c>
       <c r="L189">
-        <v>2091.02380952381</v>
+        <v>1994</v>
       </c>
     </row>
     <row r="190" spans="1:12">
@@ -7600,37 +7600,37 @@
         <v>188</v>
       </c>
       <c r="B190">
-        <v>922</v>
+        <v>924</v>
       </c>
       <c r="C190" t="s">
         <v>11</v>
       </c>
       <c r="D190">
-        <v>-98759.48480576645</v>
+        <v>0</v>
       </c>
       <c r="E190">
-        <v>141</v>
+        <v>360</v>
       </c>
       <c r="F190">
-        <v>705000</v>
+        <v>1800000</v>
       </c>
       <c r="G190">
-        <v>84585.57152494989</v>
+        <v>98902.32627556889</v>
       </c>
       <c r="H190">
-        <v>33895.53583326101</v>
+        <v>1702.24</v>
       </c>
       <c r="I190">
-        <v>-194924.9999999993</v>
+        <v>567000</v>
       </c>
       <c r="J190">
-        <v>9757005.550885921</v>
+        <v>10664200.08627557</v>
       </c>
       <c r="K190">
-        <v>9246930.550885921</v>
+        <v>8297200.086275568</v>
       </c>
       <c r="L190">
-        <v>2087.297872340425</v>
+        <v>1994</v>
       </c>
     </row>
     <row r="191" spans="1:12">
@@ -7638,37 +7638,37 @@
         <v>189</v>
       </c>
       <c r="B191">
-        <v>923</v>
+        <v>925</v>
       </c>
       <c r="C191" t="s">
         <v>11</v>
       </c>
       <c r="D191">
-        <v>-98759.48480576645</v>
+        <v>0</v>
       </c>
       <c r="E191">
-        <v>164</v>
+        <v>360</v>
       </c>
       <c r="F191">
-        <v>820000</v>
+        <v>1800000</v>
       </c>
       <c r="G191">
-        <v>85085.94603086145</v>
+        <v>99356.96737618673</v>
       </c>
       <c r="H191">
-        <v>33991.35383326101</v>
+        <v>1702.24</v>
       </c>
       <c r="I191">
-        <v>-125849.9999999993</v>
+        <v>423000</v>
       </c>
       <c r="J191">
-        <v>9826485.107391832</v>
+        <v>10520654.72737619</v>
       </c>
       <c r="K191">
-        <v>9132335.107391832</v>
+        <v>8297654.727376187</v>
       </c>
       <c r="L191">
-        <v>2086.695121951219</v>
+        <v>1994</v>
       </c>
     </row>
     <row r="192" spans="1:12">
@@ -7676,37 +7676,37 @@
         <v>190</v>
       </c>
       <c r="B192">
-        <v>924</v>
+        <v>926</v>
       </c>
       <c r="C192" t="s">
         <v>11</v>
       </c>
       <c r="D192">
-        <v>-98759.48480576645</v>
+        <v>0</v>
       </c>
       <c r="E192">
-        <v>182</v>
+        <v>360</v>
       </c>
       <c r="F192">
-        <v>910000</v>
+        <v>1800000</v>
       </c>
       <c r="G192">
-        <v>85581.41234074594</v>
+        <v>99811.6333886457</v>
       </c>
       <c r="H192">
-        <v>34066.30583326101</v>
+        <v>1702.24</v>
       </c>
       <c r="I192">
-        <v>-132999.9999999992</v>
+        <v>369000</v>
       </c>
       <c r="J192">
-        <v>9819755.621701717</v>
+        <v>10467109.39338865</v>
       </c>
       <c r="K192">
-        <v>9042755.621701717</v>
+        <v>8298109.393388646</v>
       </c>
       <c r="L192">
-        <v>2086.230769230769</v>
+        <v>1994</v>
       </c>
     </row>
     <row r="193" spans="1:12">
@@ -7714,37 +7714,37 @@
         <v>191</v>
       </c>
       <c r="B193">
-        <v>925</v>
+        <v>927</v>
       </c>
       <c r="C193" t="s">
         <v>11</v>
       </c>
       <c r="D193">
-        <v>-98759.48480576645</v>
+        <v>0</v>
       </c>
       <c r="E193">
-        <v>196</v>
+        <v>360</v>
       </c>
       <c r="F193">
-        <v>980000</v>
+        <v>1800000</v>
       </c>
       <c r="G193">
-        <v>86073.06697798987</v>
+        <v>100266.3243143108</v>
       </c>
       <c r="H193">
-        <v>34124.79783326101</v>
+        <v>1702.24</v>
       </c>
       <c r="I193">
-        <v>-222599.9999999984</v>
+        <v>288000</v>
       </c>
       <c r="J193">
-        <v>9730588.784338966</v>
+        <v>10386564.08431431</v>
       </c>
       <c r="K193">
-        <v>8973188.784338964</v>
+        <v>8298564.084314311</v>
       </c>
       <c r="L193">
-        <v>2086.428571428571</v>
+        <v>1994</v>
       </c>
     </row>
     <row r="194" spans="1:12">
@@ -7752,37 +7752,37 @@
         <v>192</v>
       </c>
       <c r="B194">
-        <v>926</v>
+        <v>928</v>
       </c>
       <c r="C194" t="s">
         <v>11</v>
       </c>
       <c r="D194">
-        <v>-99068.05623433787</v>
+        <v>0</v>
       </c>
       <c r="E194">
-        <v>190</v>
+        <v>360</v>
       </c>
       <c r="F194">
-        <v>950000</v>
+        <v>1800000</v>
       </c>
       <c r="G194">
-        <v>86566.37383897127</v>
+        <v>100721.0401545472</v>
       </c>
       <c r="H194">
-        <v>34154.79783326101</v>
+        <v>1702.24</v>
       </c>
       <c r="I194">
-        <v>-244285.7142857127</v>
+        <v>297000</v>
       </c>
       <c r="J194">
-        <v>9709057.80548566</v>
+        <v>10396018.80015455</v>
       </c>
       <c r="K194">
-        <v>9003343.519771373</v>
+        <v>8299018.800154546</v>
       </c>
       <c r="L194">
-        <v>2086.428571428571</v>
+        <v>1994</v>
       </c>
     </row>
     <row r="195" spans="1:12">
@@ -7790,37 +7790,37 @@
         <v>193</v>
       </c>
       <c r="B195">
-        <v>927</v>
+        <v>929</v>
       </c>
       <c r="C195" t="s">
         <v>11</v>
       </c>
       <c r="D195">
-        <v>-99068.05623433787</v>
+        <v>0</v>
       </c>
       <c r="E195">
-        <v>191</v>
+        <v>360</v>
       </c>
       <c r="F195">
-        <v>955000</v>
+        <v>1800000</v>
       </c>
       <c r="G195">
-        <v>87059.43211402724</v>
+        <v>101175.7809107201</v>
       </c>
       <c r="H195">
-        <v>34184.79783326101</v>
+        <v>1702.24</v>
       </c>
       <c r="I195">
-        <v>-287985.7142857125</v>
+        <v>-135000</v>
       </c>
       <c r="J195">
-        <v>9665820.863760717</v>
+        <v>9964473.540910719</v>
       </c>
       <c r="K195">
-        <v>8998806.57804643</v>
+        <v>8299473.540910719</v>
       </c>
       <c r="L195">
-        <v>2086.311144353029</v>
+        <v>1994</v>
       </c>
     </row>
     <row r="196" spans="1:12">
@@ -7828,37 +7828,37 @@
         <v>194</v>
       </c>
       <c r="B196">
-        <v>928</v>
+        <v>930</v>
       </c>
       <c r="C196" t="s">
         <v>11</v>
       </c>
       <c r="D196">
-        <v>-99127.36737869089</v>
+        <v>0</v>
       </c>
       <c r="E196">
-        <v>190</v>
+        <v>360</v>
       </c>
       <c r="F196">
-        <v>950000</v>
+        <v>1800000</v>
       </c>
       <c r="G196">
-        <v>87552.78648481639</v>
+        <v>101630.5465841946</v>
       </c>
       <c r="H196">
-        <v>34214.79783326101</v>
+        <v>1702.24</v>
       </c>
       <c r="I196">
-        <v>-281727.9356768868</v>
+        <v>-225000</v>
       </c>
       <c r="J196">
-        <v>9672482.685595978</v>
+        <v>9874928.306584194</v>
       </c>
       <c r="K196">
-        <v>9004210.621272866</v>
+        <v>8299928.306584194</v>
       </c>
       <c r="L196">
-        <v>2086.311144353029</v>
+        <v>1994</v>
       </c>
     </row>
     <row r="197" spans="1:12">
@@ -7866,37 +7866,37 @@
         <v>195</v>
       </c>
       <c r="B197">
-        <v>929</v>
+        <v>931</v>
       </c>
       <c r="C197" t="s">
         <v>11</v>
       </c>
       <c r="D197">
-        <v>-100844.3456883394</v>
+        <v>0</v>
       </c>
       <c r="E197">
-        <v>174</v>
+        <v>360</v>
       </c>
       <c r="F197">
-        <v>870000</v>
+        <v>1800000</v>
       </c>
       <c r="G197">
-        <v>88050.45389933493</v>
+        <v>102085.3371763362</v>
       </c>
       <c r="H197">
-        <v>34278.12583326101</v>
+        <v>1702.24</v>
       </c>
       <c r="I197">
-        <v>-466803.4779356752</v>
+        <v>-9000</v>
       </c>
       <c r="J197">
-        <v>9486124.504442059</v>
+        <v>10091383.09717634</v>
       </c>
       <c r="K197">
-        <v>9082927.982377734</v>
+        <v>8300383.097176336</v>
       </c>
       <c r="L197">
-        <v>2086.311144353029</v>
+        <v>1994</v>
       </c>
     </row>
     <row r="198" spans="1:12">
@@ -7904,37 +7904,37 @@
         <v>196</v>
       </c>
       <c r="B198">
-        <v>930</v>
+        <v>932</v>
       </c>
       <c r="C198" t="s">
         <v>11</v>
       </c>
       <c r="D198">
-        <v>-103307.879719753</v>
+        <v>0</v>
       </c>
       <c r="E198">
-        <v>153</v>
+        <v>360</v>
       </c>
       <c r="F198">
-        <v>765000</v>
+        <v>1800000</v>
       </c>
       <c r="G198">
-        <v>88553.762488395</v>
+        <v>102540.1526885103</v>
       </c>
       <c r="H198">
-        <v>34360.82383326101</v>
+        <v>1702.24</v>
       </c>
       <c r="I198">
-        <v>-448715.1271503351</v>
+        <v>-153000</v>
       </c>
       <c r="J198">
-        <v>9502169.931785047</v>
+        <v>9947837.91268851</v>
       </c>
       <c r="K198">
-        <v>9185885.058935381</v>
+        <v>8300837.91268851</v>
       </c>
       <c r="L198">
-        <v>2086.311144353029</v>
+        <v>1994</v>
       </c>
     </row>
     <row r="199" spans="1:12">
@@ -7942,37 +7942,37 @@
         <v>197</v>
       </c>
       <c r="B199">
-        <v>931</v>
+        <v>933</v>
       </c>
       <c r="C199" t="s">
         <v>11</v>
       </c>
       <c r="D199">
-        <v>-104334.3023076363</v>
+        <v>0</v>
       </c>
       <c r="E199">
-        <v>142</v>
+        <v>360</v>
       </c>
       <c r="F199">
-        <v>710000</v>
+        <v>1800000</v>
       </c>
       <c r="G199">
-        <v>89060.05370978391</v>
+        <v>102994.9931220822</v>
       </c>
       <c r="H199">
-        <v>34404.669833261</v>
+        <v>1702.24</v>
       </c>
       <c r="I199">
-        <v>-331254.5624532522</v>
+        <v>-36000</v>
       </c>
       <c r="J199">
-        <v>9619066.519115636</v>
+        <v>10065292.75312208</v>
       </c>
       <c r="K199">
-        <v>9240321.081568887</v>
+        <v>8301292.753122082</v>
       </c>
       <c r="L199">
-        <v>2086.311144353029</v>
+        <v>1994</v>
       </c>
     </row>
     <row r="200" spans="1:12">
@@ -7980,37 +7980,37 @@
         <v>198</v>
       </c>
       <c r="B200">
-        <v>932</v>
+        <v>934</v>
       </c>
       <c r="C200" t="s">
         <v>11</v>
       </c>
       <c r="D200">
-        <v>-107067.080916462</v>
+        <v>0</v>
       </c>
       <c r="E200">
-        <v>117</v>
+        <v>360</v>
       </c>
       <c r="F200">
-        <v>585000</v>
+        <v>1800000</v>
       </c>
       <c r="G200">
-        <v>89573.06683049405</v>
+        <v>103449.8584784177</v>
       </c>
       <c r="H200">
-        <v>34503.519833261</v>
+        <v>1702.24</v>
       </c>
       <c r="I200">
-        <v>-319735.0972326092</v>
+        <v>162000</v>
       </c>
       <c r="J200">
-        <v>9628267.36884816</v>
+        <v>10263747.61847842</v>
       </c>
       <c r="K200">
-        <v>9363002.46608077</v>
+        <v>8301747.618478417</v>
       </c>
       <c r="L200">
-        <v>2086.311144353029</v>
+        <v>1994</v>
       </c>
     </row>
     <row r="201" spans="1:12">
@@ -8018,37 +8018,37 @@
         <v>199</v>
       </c>
       <c r="B201">
-        <v>933</v>
+        <v>935</v>
       </c>
       <c r="C201" t="s">
         <v>11</v>
       </c>
       <c r="D201">
-        <v>-109474.8595252877</v>
+        <v>0</v>
       </c>
       <c r="E201">
-        <v>92</v>
+        <v>360</v>
       </c>
       <c r="F201">
-        <v>460000</v>
+        <v>1800000</v>
       </c>
       <c r="G201">
-        <v>90092.81999145141</v>
+        <v>103904.7487588823</v>
       </c>
       <c r="H201">
-        <v>34603.019833261</v>
+        <v>1702.24</v>
       </c>
       <c r="I201">
-        <v>-221515.6320119662</v>
+        <v>387000</v>
       </c>
       <c r="J201">
-        <v>9724499.308620935</v>
+        <v>10489202.50875888</v>
       </c>
       <c r="K201">
-        <v>9486014.940632902</v>
+        <v>8302202.508758882</v>
       </c>
       <c r="L201">
-        <v>2086.311144353029</v>
+        <v>1994</v>
       </c>
     </row>
     <row r="202" spans="1:12">
@@ -8056,113 +8056,37 @@
         <v>200</v>
       </c>
       <c r="B202">
-        <v>934</v>
+        <v>936</v>
       </c>
       <c r="C202" t="s">
         <v>11</v>
       </c>
       <c r="D202">
-        <v>-112372.9941550558</v>
+        <v>0</v>
       </c>
       <c r="E202">
-        <v>53</v>
+        <v>360</v>
       </c>
       <c r="F202">
-        <v>265000</v>
+        <v>1800000</v>
       </c>
       <c r="G202">
-        <v>90623.11916241048</v>
+        <v>104359.6639648417</v>
       </c>
       <c r="H202">
-        <v>34759.955833261</v>
+        <v>1702.24</v>
       </c>
       <c r="I202">
-        <v>-98462.26626776316</v>
+        <v>315000</v>
       </c>
       <c r="J202">
-        <v>9845027.902906328</v>
+        <v>10417657.42396484</v>
       </c>
       <c r="K202">
-        <v>9678490.169174092</v>
+        <v>8302657.423964841</v>
       </c>
       <c r="L202">
-        <v>2086.311144353029</v>
-      </c>
-    </row>
-    <row r="203" spans="1:12">
-      <c r="A203" s="1">
-        <v>201</v>
-      </c>
-      <c r="B203">
-        <v>935</v>
-      </c>
-      <c r="C203" t="s">
-        <v>11</v>
-      </c>
-      <c r="D203">
-        <v>-114493.3733622361</v>
-      </c>
-      <c r="E203">
-        <v>10</v>
-      </c>
-      <c r="F203">
-        <v>50000</v>
-      </c>
-      <c r="G203">
-        <v>91165.10242860045</v>
-      </c>
-      <c r="H203">
-        <v>34935.137833261</v>
-      </c>
-      <c r="I203">
-        <v>-12327.7860882572</v>
-      </c>
-      <c r="J203">
-        <v>9929408.805144845</v>
-      </c>
-      <c r="K203">
-        <v>9891736.591233103</v>
-      </c>
-      <c r="L203">
-        <v>2086.311144353029</v>
-      </c>
-    </row>
-    <row r="204" spans="1:12">
-      <c r="A204" s="1">
-        <v>202</v>
-      </c>
-      <c r="B204">
-        <v>936</v>
-      </c>
-      <c r="C204" t="s">
-        <v>11</v>
-      </c>
-      <c r="D204">
-        <v>-115066.4848057664</v>
-      </c>
-      <c r="E204">
-        <v>-45</v>
-      </c>
-      <c r="F204">
-        <v>225000</v>
-      </c>
-      <c r="G204">
-        <v>91697.48271845194</v>
-      </c>
-      <c r="H204">
-        <v>35158.32783326101</v>
-      </c>
-      <c r="I204">
-        <v>-13500</v>
-      </c>
-      <c r="J204">
-        <v>9927972.670079425</v>
-      </c>
-      <c r="K204">
-        <v>9716472.670079425</v>
-      </c>
-      <c r="L204">
-        <v>2029</v>
+        <v>1994</v>
       </c>
     </row>
   </sheetData>
